--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -430,7 +430,7 @@
         <v>0.9968405297555792</v>
       </c>
       <c r="F2">
-        <v>0.9906505903659674</v>
+        <v>0.9906505903659671</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970787072697073</v>
+        <v>0.9970787072697062</v>
       </c>
       <c r="D3">
         <v>1.014391606845753</v>
       </c>
       <c r="E3">
-        <v>1.004791297491576</v>
+        <v>1.004791297491574</v>
       </c>
       <c r="F3">
-        <v>0.9996473468798408</v>
+        <v>0.9996473468798397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04245282552222</v>
+        <v>1.042452825522219</v>
       </c>
       <c r="J3">
-        <v>1.017649327714829</v>
+        <v>1.017649327714827</v>
       </c>
       <c r="K3">
-        <v>1.02484359731873</v>
+        <v>1.024843597318729</v>
       </c>
       <c r="L3">
-        <v>1.015363237661119</v>
+        <v>1.015363237661118</v>
       </c>
       <c r="M3">
-        <v>1.010284741957984</v>
+        <v>1.010284741957983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.009759699975012</v>
       </c>
       <c r="F4">
-        <v>1.005269388052217</v>
+        <v>1.005269388052218</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004564488588934</v>
+        <v>1.004564488588933</v>
       </c>
       <c r="D5">
-        <v>1.020126276150952</v>
+        <v>1.020126276150951</v>
       </c>
       <c r="E5">
-        <v>1.011808947828389</v>
+        <v>1.011808947828387</v>
       </c>
       <c r="F5">
-        <v>1.007588331160898</v>
+        <v>1.007588331160896</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045135796589091</v>
       </c>
       <c r="J5">
-        <v>1.023399976074413</v>
+        <v>1.023399976074412</v>
       </c>
       <c r="K5">
-        <v>1.029769047833887</v>
+        <v>1.029769047833886</v>
       </c>
       <c r="L5">
-        <v>1.021545828732618</v>
+        <v>1.021545828732616</v>
       </c>
       <c r="M5">
-        <v>1.017373701581714</v>
+        <v>1.017373701581713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004928878157407</v>
+        <v>1.004928878157409</v>
       </c>
       <c r="D6">
-        <v>1.020405472539549</v>
+        <v>1.020405472539551</v>
       </c>
       <c r="E6">
-        <v>1.0121507854326</v>
+        <v>1.012150785432602</v>
       </c>
       <c r="F6">
-        <v>1.00797516538631</v>
+        <v>1.007975165386311</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045265690467402</v>
       </c>
       <c r="J6">
-        <v>1.023679627485493</v>
+        <v>1.023679627485495</v>
       </c>
       <c r="K6">
-        <v>1.030008418926196</v>
+        <v>1.030008418926197</v>
       </c>
       <c r="L6">
-        <v>1.02184666120592</v>
+        <v>1.021846661205923</v>
       </c>
       <c r="M6">
-        <v>1.017718764875531</v>
+        <v>1.017718764875533</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002408918064141</v>
+        <v>1.002408918064142</v>
       </c>
       <c r="D7">
-        <v>1.01847474748564</v>
+        <v>1.018474747485641</v>
       </c>
       <c r="E7">
         <v>1.009787233802797</v>
@@ -629,10 +629,10 @@
         <v>1.04436601872684</v>
       </c>
       <c r="J7">
-        <v>1.021745135348052</v>
+        <v>1.021745135348053</v>
       </c>
       <c r="K7">
-        <v>1.02835226857561</v>
+        <v>1.028352268575611</v>
       </c>
       <c r="L7">
         <v>1.019765991143131</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914982393464179</v>
+        <v>0.9914982393464185</v>
       </c>
       <c r="D8">
         <v>1.010118152598737</v>
       </c>
       <c r="E8">
-        <v>0.9995657643643412</v>
+        <v>0.9995657643643419</v>
       </c>
       <c r="F8">
-        <v>0.9937344139229304</v>
+        <v>0.9937344139229302</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.021162789393868</v>
       </c>
       <c r="L8">
-        <v>1.010751620861811</v>
+        <v>1.010751620861812</v>
       </c>
       <c r="M8">
         <v>1.004999930818032</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706246893939847</v>
+        <v>0.9706246893939838</v>
       </c>
       <c r="D9">
-        <v>0.9941526733116555</v>
+        <v>0.9941526733116547</v>
       </c>
       <c r="E9">
-        <v>0.9800643683458284</v>
+        <v>0.9800643683458272</v>
       </c>
       <c r="F9">
-        <v>0.9716623400381256</v>
+        <v>0.9716623400381244</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032787021066212</v>
       </c>
       <c r="J9">
-        <v>0.9972591836514103</v>
+        <v>0.9972591836514094</v>
       </c>
       <c r="K9">
-        <v>1.007341337103639</v>
+        <v>1.007341337103638</v>
       </c>
       <c r="L9">
-        <v>0.9934893859754562</v>
+        <v>0.9934893859754552</v>
       </c>
       <c r="M9">
-        <v>0.9852325406849821</v>
+        <v>0.9852325406849808</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,10 +728,10 @@
         <v>0.9553449777719237</v>
       </c>
       <c r="D10">
-        <v>0.9824926297322122</v>
+        <v>0.9824926297322121</v>
       </c>
       <c r="E10">
-        <v>0.9658334900913852</v>
+        <v>0.9658334900913854</v>
       </c>
       <c r="F10">
         <v>0.9555432111672875</v>
@@ -740,19 +740,19 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027104221668014</v>
+        <v>1.027104221668015</v>
       </c>
       <c r="J10">
         <v>0.9854496012586061</v>
       </c>
       <c r="K10">
-        <v>0.9971853473213316</v>
+        <v>0.9971853473213315</v>
       </c>
       <c r="L10">
-        <v>0.9808483049867187</v>
+        <v>0.9808483049867189</v>
       </c>
       <c r="M10">
-        <v>0.9707643806246565</v>
+        <v>0.9707643806246566</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483341028565858</v>
+        <v>0.9483341028565873</v>
       </c>
       <c r="D11">
-        <v>0.977152207858682</v>
+        <v>0.9771522078586831</v>
       </c>
       <c r="E11">
-        <v>0.9593165014019071</v>
+        <v>0.9593165014019086</v>
       </c>
       <c r="F11">
-        <v>0.9481561444211645</v>
+        <v>0.9481561444211662</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024478372732655</v>
       </c>
       <c r="J11">
-        <v>0.9800262129552355</v>
+        <v>0.980026212955237</v>
       </c>
       <c r="K11">
-        <v>0.9925182575028332</v>
+        <v>0.9925182575028342</v>
       </c>
       <c r="L11">
-        <v>0.9750487143036694</v>
+        <v>0.9750487143036707</v>
       </c>
       <c r="M11">
-        <v>0.9641267824485398</v>
+        <v>0.9641267824485412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.945663274064683</v>
+        <v>0.9456632740646816</v>
       </c>
       <c r="D12">
-        <v>0.9751195155692449</v>
+        <v>0.9751195155692435</v>
       </c>
       <c r="E12">
-        <v>0.9568359311736127</v>
+        <v>0.9568359311736108</v>
       </c>
       <c r="F12">
-        <v>0.9453433404535945</v>
+        <v>0.9453433404535931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023475432155764</v>
+        <v>1.023475432155763</v>
       </c>
       <c r="J12">
-        <v>0.9779595940637648</v>
+        <v>0.9779595940637633</v>
       </c>
       <c r="K12">
-        <v>0.9907394309926976</v>
+        <v>0.9907394309926963</v>
       </c>
       <c r="L12">
-        <v>0.9728395959213206</v>
+        <v>0.972839595921319</v>
       </c>
       <c r="M12">
-        <v>0.9615983381699259</v>
+        <v>0.9615983381699248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9462393264504851</v>
+        <v>0.9462393264504859</v>
       </c>
       <c r="D13">
-        <v>0.9755578473063373</v>
+        <v>0.9755578473063382</v>
       </c>
       <c r="E13">
-        <v>0.9573708491667052</v>
+        <v>0.9573708491667062</v>
       </c>
       <c r="F13">
-        <v>0.9459499543976432</v>
+        <v>0.9459499543976444</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0236918644043</v>
+        <v>1.023691864404301</v>
       </c>
       <c r="J13">
-        <v>0.9784053506678905</v>
+        <v>0.9784053506678916</v>
       </c>
       <c r="K13">
-        <v>0.9911231295276158</v>
+        <v>0.9911231295276168</v>
       </c>
       <c r="L13">
-        <v>0.9733160501093466</v>
+        <v>0.9733160501093474</v>
       </c>
       <c r="M13">
-        <v>0.9621436715862225</v>
+        <v>0.9621436715862235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9481147390011012</v>
+        <v>0.9481147390011034</v>
       </c>
       <c r="D14">
-        <v>0.9769852184136483</v>
+        <v>0.9769852184136503</v>
       </c>
       <c r="E14">
-        <v>0.9591127200846906</v>
+        <v>0.9591127200846933</v>
       </c>
       <c r="F14">
-        <v>0.9479250927017839</v>
+        <v>0.9479250927017863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024396049823707</v>
+        <v>1.024396049823708</v>
       </c>
       <c r="J14">
-        <v>0.9798564849737013</v>
+        <v>0.9798564849737035</v>
       </c>
       <c r="K14">
-        <v>0.9923721731318762</v>
+        <v>0.9923721731318782</v>
       </c>
       <c r="L14">
-        <v>0.9748672657390451</v>
+        <v>0.9748672657390475</v>
       </c>
       <c r="M14">
-        <v>0.9639191091099648</v>
+        <v>0.9639191091099671</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,10 +918,10 @@
         <v>0.9492611635853082</v>
       </c>
       <c r="D15">
-        <v>0.9778580011198301</v>
+        <v>0.9778580011198299</v>
       </c>
       <c r="E15">
-        <v>0.9601777951116648</v>
+        <v>0.9601777951116647</v>
       </c>
       <c r="F15">
         <v>0.9491326537337132</v>
@@ -933,16 +933,16 @@
         <v>1.024826175427346</v>
       </c>
       <c r="J15">
-        <v>0.9807434845687141</v>
+        <v>0.980743484568714</v>
       </c>
       <c r="K15">
-        <v>0.9931355952360829</v>
+        <v>0.993135595236083</v>
       </c>
       <c r="L15">
-        <v>0.9758155518693462</v>
+        <v>0.9758155518693463</v>
       </c>
       <c r="M15">
-        <v>0.9650044452033945</v>
+        <v>0.9650044452033943</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558013504736846</v>
+        <v>0.9558013504736833</v>
       </c>
       <c r="D16">
-        <v>0.9828404882034557</v>
+        <v>0.9828404882034545</v>
       </c>
       <c r="E16">
-        <v>0.9662579902555788</v>
+        <v>0.9662579902555775</v>
       </c>
       <c r="F16">
-        <v>0.9560242557558962</v>
+        <v>0.9560242557558948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027274785286409</v>
+        <v>1.027274785286408</v>
       </c>
       <c r="J16">
-        <v>0.9858025519988373</v>
+        <v>0.9858025519988363</v>
       </c>
       <c r="K16">
-        <v>0.9974890202115935</v>
+        <v>0.9974890202115924</v>
       </c>
       <c r="L16">
-        <v>0.9812258554415149</v>
+        <v>0.9812258554415136</v>
       </c>
       <c r="M16">
-        <v>0.9711964773108286</v>
+        <v>0.9711964773108274</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597933573418089</v>
+        <v>0.9597933573418104</v>
       </c>
       <c r="D17">
-        <v>0.9858844046522222</v>
+        <v>0.9858844046522234</v>
       </c>
       <c r="E17">
-        <v>0.9699726375774467</v>
+        <v>0.9699726375774483</v>
       </c>
       <c r="F17">
-        <v>0.9602330768511317</v>
+        <v>0.960233076851133</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028764705971243</v>
+        <v>1.028764705971244</v>
       </c>
       <c r="J17">
-        <v>0.9888893874944176</v>
+        <v>0.9888893874944189</v>
       </c>
       <c r="K17">
-        <v>1.000144542387269</v>
+        <v>1.000144542387271</v>
       </c>
       <c r="L17">
-        <v>0.98452846822534</v>
+        <v>0.9845284682253416</v>
       </c>
       <c r="M17">
-        <v>0.9749762423714454</v>
+        <v>0.9749762423714466</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620843104377446</v>
+        <v>0.9620843104377449</v>
       </c>
       <c r="D18">
-        <v>0.9876321361309992</v>
+        <v>0.9876321361309993</v>
       </c>
       <c r="E18">
-        <v>0.9721055810975293</v>
+        <v>0.9721055810975298</v>
       </c>
       <c r="F18">
-        <v>0.9626492921354232</v>
+        <v>0.9626492921354231</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029618026437756</v>
       </c>
       <c r="J18">
-        <v>0.9906604240839597</v>
+        <v>0.9906604240839603</v>
       </c>
       <c r="K18">
         <v>1.001667825561761</v>
       </c>
       <c r="L18">
-        <v>0.9864238303921851</v>
+        <v>0.9864238303921856</v>
       </c>
       <c r="M18">
-        <v>0.9771454744081866</v>
+        <v>0.9771454744081867</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628593062938475</v>
+        <v>0.9628593062938459</v>
       </c>
       <c r="D19">
-        <v>0.9882235074896825</v>
+        <v>0.9882235074896809</v>
       </c>
       <c r="E19">
-        <v>0.9728273162408505</v>
+        <v>0.9728273162408484</v>
       </c>
       <c r="F19">
-        <v>0.9634668043332925</v>
+        <v>0.9634668043332905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029906395913817</v>
+        <v>1.029906395913816</v>
       </c>
       <c r="J19">
-        <v>0.9912594588073259</v>
+        <v>0.9912594588073242</v>
       </c>
       <c r="K19">
-        <v>1.002183008935979</v>
+        <v>1.002183008935978</v>
       </c>
       <c r="L19">
-        <v>0.9870650059982111</v>
+        <v>0.9870650059982093</v>
       </c>
       <c r="M19">
-        <v>0.9778793063458665</v>
+        <v>0.9778793063458648</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593689825697497</v>
+        <v>0.9593689825697518</v>
       </c>
       <c r="D20">
-        <v>0.9855607246816712</v>
+        <v>0.9855607246816726</v>
       </c>
       <c r="E20">
-        <v>0.9695776254097441</v>
+        <v>0.9695776254097456</v>
       </c>
       <c r="F20">
-        <v>0.9597855664672537</v>
+        <v>0.9597855664672555</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028606496591213</v>
+        <v>1.028606496591214</v>
       </c>
       <c r="J20">
-        <v>0.9885612840009258</v>
+        <v>0.9885612840009274</v>
       </c>
       <c r="K20">
-        <v>0.9998623137161791</v>
+        <v>0.9998623137161803</v>
       </c>
       <c r="L20">
-        <v>0.9841773747315096</v>
+        <v>0.9841773747315109</v>
       </c>
       <c r="M20">
-        <v>0.9745744214296681</v>
+        <v>0.9745744214296699</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947564383395784</v>
+        <v>0.9475643833957846</v>
       </c>
       <c r="D21">
-        <v>0.9765662930236231</v>
+        <v>0.9765662930236236</v>
       </c>
       <c r="E21">
-        <v>0.9586014937010819</v>
+        <v>0.9586014937010827</v>
       </c>
       <c r="F21">
-        <v>0.9473454351756805</v>
+        <v>0.9473454351756811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024189470925595</v>
+        <v>1.024189470925596</v>
       </c>
       <c r="J21">
-        <v>0.9794306511082963</v>
+        <v>0.9794306511082971</v>
       </c>
       <c r="K21">
-        <v>0.9920056529934201</v>
+        <v>0.9920056529934206</v>
       </c>
       <c r="L21">
-        <v>0.9744120396185564</v>
+        <v>0.974412039618557</v>
       </c>
       <c r="M21">
-        <v>0.9633980866057704</v>
+        <v>0.963398086605771</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9397518812064335</v>
+        <v>0.9397518812064329</v>
       </c>
       <c r="D22">
-        <v>0.970624199285989</v>
+        <v>0.9706241992859882</v>
       </c>
       <c r="E22">
-        <v>0.9513498099862078</v>
+        <v>0.951349809986207</v>
       </c>
       <c r="F22">
-        <v>0.9391201703568087</v>
+        <v>0.9391201703568078</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021250964683123</v>
+        <v>1.021250964683122</v>
       </c>
       <c r="J22">
-        <v>0.9733846903660038</v>
+        <v>0.9733846903660032</v>
       </c>
       <c r="K22">
-        <v>0.9868009560074799</v>
+        <v>0.9868009560074792</v>
       </c>
       <c r="L22">
-        <v>0.9679508291649818</v>
+        <v>0.9679508291649811</v>
       </c>
       <c r="M22">
-        <v>0.9560024828274734</v>
+        <v>0.9560024828274728</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9439332844474326</v>
+        <v>0.9439332844474319</v>
       </c>
       <c r="D23">
-        <v>0.9738034130638786</v>
+        <v>0.9738034130638777</v>
       </c>
       <c r="E23">
-        <v>0.9552298030716161</v>
+        <v>0.9552298030716153</v>
       </c>
       <c r="F23">
-        <v>0.9435217639559321</v>
+        <v>0.9435217639559313</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02282507717517</v>
       </c>
       <c r="J23">
-        <v>0.9766208391966824</v>
+        <v>0.9766208391966815</v>
       </c>
       <c r="K23">
-        <v>0.9895870038380062</v>
+        <v>0.9895870038380054</v>
       </c>
       <c r="L23">
-        <v>0.9714087719236141</v>
+        <v>0.9714087719236132</v>
       </c>
       <c r="M23">
-        <v>0.9599606339006559</v>
+        <v>0.959960633900655</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595608546592499</v>
+        <v>0.9595608546592489</v>
       </c>
       <c r="D24">
-        <v>0.9857070670493727</v>
+        <v>0.9857070670493718</v>
       </c>
       <c r="E24">
-        <v>0.9697562182145117</v>
+        <v>0.9697562182145107</v>
       </c>
       <c r="F24">
-        <v>0.9599878962341374</v>
+        <v>0.9599878962341364</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028678032991675</v>
+        <v>1.028678032991674</v>
       </c>
       <c r="J24">
-        <v>0.988709630483558</v>
+        <v>0.9887096304835571</v>
       </c>
       <c r="K24">
-        <v>0.9999899195827628</v>
+        <v>0.999989919582762</v>
       </c>
       <c r="L24">
-        <v>0.9843361141207412</v>
+        <v>0.9843361141207404</v>
       </c>
       <c r="M24">
-        <v>0.9747560960315157</v>
+        <v>0.9747560960315147</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762403281856394</v>
+        <v>0.9762403281856402</v>
       </c>
       <c r="D25">
-        <v>0.9984442803383968</v>
+        <v>0.9984442803383979</v>
       </c>
       <c r="E25">
-        <v>0.9853039722841319</v>
+        <v>0.9853039722841327</v>
       </c>
       <c r="F25">
-        <v>0.9775940250932452</v>
+        <v>0.9775940250932463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034859357942766</v>
+        <v>1.034859357942767</v>
       </c>
       <c r="J25">
-        <v>1.00159463794456</v>
+        <v>1.001594637944561</v>
       </c>
       <c r="K25">
-        <v>1.011066794952002</v>
+        <v>1.011066794952003</v>
       </c>
       <c r="L25">
-        <v>0.9981347912402051</v>
+        <v>0.9981347912402059</v>
       </c>
       <c r="M25">
-        <v>0.9905504171881756</v>
+        <v>0.9905504171881767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -430,7 +430,7 @@
         <v>0.9968405297555792</v>
       </c>
       <c r="F2">
-        <v>0.9906505903659671</v>
+        <v>0.9906505903659674</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970787072697062</v>
+        <v>0.9970787072697073</v>
       </c>
       <c r="D3">
         <v>1.014391606845753</v>
       </c>
       <c r="E3">
-        <v>1.004791297491574</v>
+        <v>1.004791297491576</v>
       </c>
       <c r="F3">
-        <v>0.9996473468798397</v>
+        <v>0.9996473468798408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042452825522219</v>
+        <v>1.04245282552222</v>
       </c>
       <c r="J3">
-        <v>1.017649327714827</v>
+        <v>1.017649327714829</v>
       </c>
       <c r="K3">
-        <v>1.024843597318729</v>
+        <v>1.02484359731873</v>
       </c>
       <c r="L3">
-        <v>1.015363237661118</v>
+        <v>1.015363237661119</v>
       </c>
       <c r="M3">
-        <v>1.010284741957983</v>
+        <v>1.010284741957984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.009759699975012</v>
       </c>
       <c r="F4">
-        <v>1.005269388052218</v>
+        <v>1.005269388052217</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004564488588933</v>
+        <v>1.004564488588934</v>
       </c>
       <c r="D5">
-        <v>1.020126276150951</v>
+        <v>1.020126276150952</v>
       </c>
       <c r="E5">
-        <v>1.011808947828387</v>
+        <v>1.011808947828389</v>
       </c>
       <c r="F5">
-        <v>1.007588331160896</v>
+        <v>1.007588331160898</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045135796589091</v>
       </c>
       <c r="J5">
-        <v>1.023399976074412</v>
+        <v>1.023399976074413</v>
       </c>
       <c r="K5">
-        <v>1.029769047833886</v>
+        <v>1.029769047833887</v>
       </c>
       <c r="L5">
-        <v>1.021545828732616</v>
+        <v>1.021545828732618</v>
       </c>
       <c r="M5">
-        <v>1.017373701581713</v>
+        <v>1.017373701581714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004928878157409</v>
+        <v>1.004928878157407</v>
       </c>
       <c r="D6">
-        <v>1.020405472539551</v>
+        <v>1.020405472539549</v>
       </c>
       <c r="E6">
-        <v>1.012150785432602</v>
+        <v>1.0121507854326</v>
       </c>
       <c r="F6">
-        <v>1.007975165386311</v>
+        <v>1.00797516538631</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045265690467402</v>
       </c>
       <c r="J6">
-        <v>1.023679627485495</v>
+        <v>1.023679627485493</v>
       </c>
       <c r="K6">
-        <v>1.030008418926197</v>
+        <v>1.030008418926196</v>
       </c>
       <c r="L6">
-        <v>1.021846661205923</v>
+        <v>1.02184666120592</v>
       </c>
       <c r="M6">
-        <v>1.017718764875533</v>
+        <v>1.017718764875531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002408918064142</v>
+        <v>1.002408918064141</v>
       </c>
       <c r="D7">
-        <v>1.018474747485641</v>
+        <v>1.01847474748564</v>
       </c>
       <c r="E7">
         <v>1.009787233802797</v>
@@ -629,10 +629,10 @@
         <v>1.04436601872684</v>
       </c>
       <c r="J7">
-        <v>1.021745135348053</v>
+        <v>1.021745135348052</v>
       </c>
       <c r="K7">
-        <v>1.028352268575611</v>
+        <v>1.02835226857561</v>
       </c>
       <c r="L7">
         <v>1.019765991143131</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914982393464185</v>
+        <v>0.9914982393464179</v>
       </c>
       <c r="D8">
         <v>1.010118152598737</v>
       </c>
       <c r="E8">
-        <v>0.9995657643643419</v>
+        <v>0.9995657643643412</v>
       </c>
       <c r="F8">
-        <v>0.9937344139229302</v>
+        <v>0.9937344139229304</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.021162789393868</v>
       </c>
       <c r="L8">
-        <v>1.010751620861812</v>
+        <v>1.010751620861811</v>
       </c>
       <c r="M8">
         <v>1.004999930818032</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706246893939838</v>
+        <v>0.9706246893939847</v>
       </c>
       <c r="D9">
-        <v>0.9941526733116547</v>
+        <v>0.9941526733116555</v>
       </c>
       <c r="E9">
-        <v>0.9800643683458272</v>
+        <v>0.9800643683458284</v>
       </c>
       <c r="F9">
-        <v>0.9716623400381244</v>
+        <v>0.9716623400381256</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032787021066212</v>
       </c>
       <c r="J9">
-        <v>0.9972591836514094</v>
+        <v>0.9972591836514103</v>
       </c>
       <c r="K9">
-        <v>1.007341337103638</v>
+        <v>1.007341337103639</v>
       </c>
       <c r="L9">
-        <v>0.9934893859754552</v>
+        <v>0.9934893859754562</v>
       </c>
       <c r="M9">
-        <v>0.9852325406849808</v>
+        <v>0.9852325406849821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,10 +728,10 @@
         <v>0.9553449777719237</v>
       </c>
       <c r="D10">
-        <v>0.9824926297322121</v>
+        <v>0.9824926297322122</v>
       </c>
       <c r="E10">
-        <v>0.9658334900913854</v>
+        <v>0.9658334900913852</v>
       </c>
       <c r="F10">
         <v>0.9555432111672875</v>
@@ -740,19 +740,19 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027104221668015</v>
+        <v>1.027104221668014</v>
       </c>
       <c r="J10">
         <v>0.9854496012586061</v>
       </c>
       <c r="K10">
-        <v>0.9971853473213315</v>
+        <v>0.9971853473213316</v>
       </c>
       <c r="L10">
-        <v>0.9808483049867189</v>
+        <v>0.9808483049867187</v>
       </c>
       <c r="M10">
-        <v>0.9707643806246566</v>
+        <v>0.9707643806246565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483341028565873</v>
+        <v>0.9483341028565858</v>
       </c>
       <c r="D11">
-        <v>0.9771522078586831</v>
+        <v>0.977152207858682</v>
       </c>
       <c r="E11">
-        <v>0.9593165014019086</v>
+        <v>0.9593165014019071</v>
       </c>
       <c r="F11">
-        <v>0.9481561444211662</v>
+        <v>0.9481561444211645</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024478372732655</v>
       </c>
       <c r="J11">
-        <v>0.980026212955237</v>
+        <v>0.9800262129552355</v>
       </c>
       <c r="K11">
-        <v>0.9925182575028342</v>
+        <v>0.9925182575028332</v>
       </c>
       <c r="L11">
-        <v>0.9750487143036707</v>
+        <v>0.9750487143036694</v>
       </c>
       <c r="M11">
-        <v>0.9641267824485412</v>
+        <v>0.9641267824485398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9456632740646816</v>
+        <v>0.945663274064683</v>
       </c>
       <c r="D12">
-        <v>0.9751195155692435</v>
+        <v>0.9751195155692449</v>
       </c>
       <c r="E12">
-        <v>0.9568359311736108</v>
+        <v>0.9568359311736127</v>
       </c>
       <c r="F12">
-        <v>0.9453433404535931</v>
+        <v>0.9453433404535945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023475432155763</v>
+        <v>1.023475432155764</v>
       </c>
       <c r="J12">
-        <v>0.9779595940637633</v>
+        <v>0.9779595940637648</v>
       </c>
       <c r="K12">
-        <v>0.9907394309926963</v>
+        <v>0.9907394309926976</v>
       </c>
       <c r="L12">
-        <v>0.972839595921319</v>
+        <v>0.9728395959213206</v>
       </c>
       <c r="M12">
-        <v>0.9615983381699248</v>
+        <v>0.9615983381699259</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9462393264504859</v>
+        <v>0.9462393264504851</v>
       </c>
       <c r="D13">
-        <v>0.9755578473063382</v>
+        <v>0.9755578473063373</v>
       </c>
       <c r="E13">
-        <v>0.9573708491667062</v>
+        <v>0.9573708491667052</v>
       </c>
       <c r="F13">
-        <v>0.9459499543976444</v>
+        <v>0.9459499543976432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023691864404301</v>
+        <v>1.0236918644043</v>
       </c>
       <c r="J13">
-        <v>0.9784053506678916</v>
+        <v>0.9784053506678905</v>
       </c>
       <c r="K13">
-        <v>0.9911231295276168</v>
+        <v>0.9911231295276158</v>
       </c>
       <c r="L13">
-        <v>0.9733160501093474</v>
+        <v>0.9733160501093466</v>
       </c>
       <c r="M13">
-        <v>0.9621436715862235</v>
+        <v>0.9621436715862225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9481147390011034</v>
+        <v>0.9481147390011012</v>
       </c>
       <c r="D14">
-        <v>0.9769852184136503</v>
+        <v>0.9769852184136483</v>
       </c>
       <c r="E14">
-        <v>0.9591127200846933</v>
+        <v>0.9591127200846906</v>
       </c>
       <c r="F14">
-        <v>0.9479250927017863</v>
+        <v>0.9479250927017839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024396049823708</v>
+        <v>1.024396049823707</v>
       </c>
       <c r="J14">
-        <v>0.9798564849737035</v>
+        <v>0.9798564849737013</v>
       </c>
       <c r="K14">
-        <v>0.9923721731318782</v>
+        <v>0.9923721731318762</v>
       </c>
       <c r="L14">
-        <v>0.9748672657390475</v>
+        <v>0.9748672657390451</v>
       </c>
       <c r="M14">
-        <v>0.9639191091099671</v>
+        <v>0.9639191091099648</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,10 +918,10 @@
         <v>0.9492611635853082</v>
       </c>
       <c r="D15">
-        <v>0.9778580011198299</v>
+        <v>0.9778580011198301</v>
       </c>
       <c r="E15">
-        <v>0.9601777951116647</v>
+        <v>0.9601777951116648</v>
       </c>
       <c r="F15">
         <v>0.9491326537337132</v>
@@ -933,16 +933,16 @@
         <v>1.024826175427346</v>
       </c>
       <c r="J15">
-        <v>0.980743484568714</v>
+        <v>0.9807434845687141</v>
       </c>
       <c r="K15">
-        <v>0.993135595236083</v>
+        <v>0.9931355952360829</v>
       </c>
       <c r="L15">
-        <v>0.9758155518693463</v>
+        <v>0.9758155518693462</v>
       </c>
       <c r="M15">
-        <v>0.9650044452033943</v>
+        <v>0.9650044452033945</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558013504736833</v>
+        <v>0.9558013504736846</v>
       </c>
       <c r="D16">
-        <v>0.9828404882034545</v>
+        <v>0.9828404882034557</v>
       </c>
       <c r="E16">
-        <v>0.9662579902555775</v>
+        <v>0.9662579902555788</v>
       </c>
       <c r="F16">
-        <v>0.9560242557558948</v>
+        <v>0.9560242557558962</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027274785286408</v>
+        <v>1.027274785286409</v>
       </c>
       <c r="J16">
-        <v>0.9858025519988363</v>
+        <v>0.9858025519988373</v>
       </c>
       <c r="K16">
-        <v>0.9974890202115924</v>
+        <v>0.9974890202115935</v>
       </c>
       <c r="L16">
-        <v>0.9812258554415136</v>
+        <v>0.9812258554415149</v>
       </c>
       <c r="M16">
-        <v>0.9711964773108274</v>
+        <v>0.9711964773108286</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597933573418104</v>
+        <v>0.9597933573418089</v>
       </c>
       <c r="D17">
-        <v>0.9858844046522234</v>
+        <v>0.9858844046522222</v>
       </c>
       <c r="E17">
-        <v>0.9699726375774483</v>
+        <v>0.9699726375774467</v>
       </c>
       <c r="F17">
-        <v>0.960233076851133</v>
+        <v>0.9602330768511317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028764705971244</v>
+        <v>1.028764705971243</v>
       </c>
       <c r="J17">
-        <v>0.9888893874944189</v>
+        <v>0.9888893874944176</v>
       </c>
       <c r="K17">
-        <v>1.000144542387271</v>
+        <v>1.000144542387269</v>
       </c>
       <c r="L17">
-        <v>0.9845284682253416</v>
+        <v>0.98452846822534</v>
       </c>
       <c r="M17">
-        <v>0.9749762423714466</v>
+        <v>0.9749762423714454</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620843104377449</v>
+        <v>0.9620843104377446</v>
       </c>
       <c r="D18">
-        <v>0.9876321361309993</v>
+        <v>0.9876321361309992</v>
       </c>
       <c r="E18">
-        <v>0.9721055810975298</v>
+        <v>0.9721055810975293</v>
       </c>
       <c r="F18">
-        <v>0.9626492921354231</v>
+        <v>0.9626492921354232</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029618026437756</v>
       </c>
       <c r="J18">
-        <v>0.9906604240839603</v>
+        <v>0.9906604240839597</v>
       </c>
       <c r="K18">
         <v>1.001667825561761</v>
       </c>
       <c r="L18">
-        <v>0.9864238303921856</v>
+        <v>0.9864238303921851</v>
       </c>
       <c r="M18">
-        <v>0.9771454744081867</v>
+        <v>0.9771454744081866</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628593062938459</v>
+        <v>0.9628593062938475</v>
       </c>
       <c r="D19">
-        <v>0.9882235074896809</v>
+        <v>0.9882235074896825</v>
       </c>
       <c r="E19">
-        <v>0.9728273162408484</v>
+        <v>0.9728273162408505</v>
       </c>
       <c r="F19">
-        <v>0.9634668043332905</v>
+        <v>0.9634668043332925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029906395913816</v>
+        <v>1.029906395913817</v>
       </c>
       <c r="J19">
-        <v>0.9912594588073242</v>
+        <v>0.9912594588073259</v>
       </c>
       <c r="K19">
-        <v>1.002183008935978</v>
+        <v>1.002183008935979</v>
       </c>
       <c r="L19">
-        <v>0.9870650059982093</v>
+        <v>0.9870650059982111</v>
       </c>
       <c r="M19">
-        <v>0.9778793063458648</v>
+        <v>0.9778793063458665</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593689825697518</v>
+        <v>0.9593689825697497</v>
       </c>
       <c r="D20">
-        <v>0.9855607246816726</v>
+        <v>0.9855607246816712</v>
       </c>
       <c r="E20">
-        <v>0.9695776254097456</v>
+        <v>0.9695776254097441</v>
       </c>
       <c r="F20">
-        <v>0.9597855664672555</v>
+        <v>0.9597855664672537</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028606496591214</v>
+        <v>1.028606496591213</v>
       </c>
       <c r="J20">
-        <v>0.9885612840009274</v>
+        <v>0.9885612840009258</v>
       </c>
       <c r="K20">
-        <v>0.9998623137161803</v>
+        <v>0.9998623137161791</v>
       </c>
       <c r="L20">
-        <v>0.9841773747315109</v>
+        <v>0.9841773747315096</v>
       </c>
       <c r="M20">
-        <v>0.9745744214296699</v>
+        <v>0.9745744214296681</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9475643833957846</v>
+        <v>0.947564383395784</v>
       </c>
       <c r="D21">
-        <v>0.9765662930236236</v>
+        <v>0.9765662930236231</v>
       </c>
       <c r="E21">
-        <v>0.9586014937010827</v>
+        <v>0.9586014937010819</v>
       </c>
       <c r="F21">
-        <v>0.9473454351756811</v>
+        <v>0.9473454351756805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024189470925596</v>
+        <v>1.024189470925595</v>
       </c>
       <c r="J21">
-        <v>0.9794306511082971</v>
+        <v>0.9794306511082963</v>
       </c>
       <c r="K21">
-        <v>0.9920056529934206</v>
+        <v>0.9920056529934201</v>
       </c>
       <c r="L21">
-        <v>0.974412039618557</v>
+        <v>0.9744120396185564</v>
       </c>
       <c r="M21">
-        <v>0.963398086605771</v>
+        <v>0.9633980866057704</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9397518812064329</v>
+        <v>0.9397518812064335</v>
       </c>
       <c r="D22">
-        <v>0.9706241992859882</v>
+        <v>0.970624199285989</v>
       </c>
       <c r="E22">
-        <v>0.951349809986207</v>
+        <v>0.9513498099862078</v>
       </c>
       <c r="F22">
-        <v>0.9391201703568078</v>
+        <v>0.9391201703568087</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021250964683122</v>
+        <v>1.021250964683123</v>
       </c>
       <c r="J22">
-        <v>0.9733846903660032</v>
+        <v>0.9733846903660038</v>
       </c>
       <c r="K22">
-        <v>0.9868009560074792</v>
+        <v>0.9868009560074799</v>
       </c>
       <c r="L22">
-        <v>0.9679508291649811</v>
+        <v>0.9679508291649818</v>
       </c>
       <c r="M22">
-        <v>0.9560024828274728</v>
+        <v>0.9560024828274734</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9439332844474319</v>
+        <v>0.9439332844474326</v>
       </c>
       <c r="D23">
-        <v>0.9738034130638777</v>
+        <v>0.9738034130638786</v>
       </c>
       <c r="E23">
-        <v>0.9552298030716153</v>
+        <v>0.9552298030716161</v>
       </c>
       <c r="F23">
-        <v>0.9435217639559313</v>
+        <v>0.9435217639559321</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.02282507717517</v>
       </c>
       <c r="J23">
-        <v>0.9766208391966815</v>
+        <v>0.9766208391966824</v>
       </c>
       <c r="K23">
-        <v>0.9895870038380054</v>
+        <v>0.9895870038380062</v>
       </c>
       <c r="L23">
-        <v>0.9714087719236132</v>
+        <v>0.9714087719236141</v>
       </c>
       <c r="M23">
-        <v>0.959960633900655</v>
+        <v>0.9599606339006559</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595608546592489</v>
+        <v>0.9595608546592499</v>
       </c>
       <c r="D24">
-        <v>0.9857070670493718</v>
+        <v>0.9857070670493727</v>
       </c>
       <c r="E24">
-        <v>0.9697562182145107</v>
+        <v>0.9697562182145117</v>
       </c>
       <c r="F24">
-        <v>0.9599878962341364</v>
+        <v>0.9599878962341374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028678032991674</v>
+        <v>1.028678032991675</v>
       </c>
       <c r="J24">
-        <v>0.9887096304835571</v>
+        <v>0.988709630483558</v>
       </c>
       <c r="K24">
-        <v>0.999989919582762</v>
+        <v>0.9999899195827628</v>
       </c>
       <c r="L24">
-        <v>0.9843361141207404</v>
+        <v>0.9843361141207412</v>
       </c>
       <c r="M24">
-        <v>0.9747560960315147</v>
+        <v>0.9747560960315157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762403281856402</v>
+        <v>0.9762403281856394</v>
       </c>
       <c r="D25">
-        <v>0.9984442803383979</v>
+        <v>0.9984442803383968</v>
       </c>
       <c r="E25">
-        <v>0.9853039722841327</v>
+        <v>0.9853039722841319</v>
       </c>
       <c r="F25">
-        <v>0.9775940250932463</v>
+        <v>0.9775940250932452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034859357942767</v>
+        <v>1.034859357942766</v>
       </c>
       <c r="J25">
-        <v>1.001594637944561</v>
+        <v>1.00159463794456</v>
       </c>
       <c r="K25">
-        <v>1.011066794952003</v>
+        <v>1.011066794952002</v>
       </c>
       <c r="L25">
-        <v>0.9981347912402059</v>
+        <v>0.9981347912402051</v>
       </c>
       <c r="M25">
-        <v>0.9905504171881767</v>
+        <v>0.9905504171881756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9885857576707856</v>
+        <v>0.9886085700005403</v>
       </c>
       <c r="D2">
-        <v>1.007888510847659</v>
+        <v>1.007907716601032</v>
       </c>
       <c r="E2">
-        <v>0.9968405297555792</v>
+        <v>0.9968631793678523</v>
       </c>
       <c r="F2">
-        <v>0.9906505903659674</v>
+        <v>0.9906724924497292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039378250015064</v>
+        <v>1.039388969535566</v>
       </c>
       <c r="J2">
-        <v>1.011113310260578</v>
+        <v>1.011135418371462</v>
       </c>
       <c r="K2">
-        <v>1.019239029362709</v>
+        <v>1.019257972803856</v>
       </c>
       <c r="L2">
-        <v>1.008344057220736</v>
+        <v>1.008366388765624</v>
       </c>
       <c r="M2">
-        <v>1.002241732564451</v>
+        <v>1.002263322195623</v>
+      </c>
+      <c r="N2">
+        <v>1.007891528776883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970787072697073</v>
+        <v>0.9970947562555175</v>
       </c>
       <c r="D3">
-        <v>1.014391606845753</v>
+        <v>1.014405374383245</v>
       </c>
       <c r="E3">
-        <v>1.004791297491576</v>
+        <v>1.004807253210525</v>
       </c>
       <c r="F3">
-        <v>0.9996473468798408</v>
+        <v>0.9996628503958342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04245282552222</v>
+        <v>1.042460503114085</v>
       </c>
       <c r="J3">
-        <v>1.017649327714829</v>
+        <v>1.017664935697373</v>
       </c>
       <c r="K3">
-        <v>1.02484359731873</v>
+        <v>1.024857194869158</v>
       </c>
       <c r="L3">
-        <v>1.015363237661119</v>
+        <v>1.015378991650632</v>
       </c>
       <c r="M3">
-        <v>1.010284741957984</v>
+        <v>1.010300046932474</v>
+      </c>
+      <c r="N3">
+        <v>1.012556937902482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00237955559592</v>
+        <v>1.002391487965105</v>
       </c>
       <c r="D4">
-        <v>1.018452251879095</v>
+        <v>1.018462703303994</v>
       </c>
       <c r="E4">
-        <v>1.009759699975012</v>
+        <v>1.009771572383807</v>
       </c>
       <c r="F4">
-        <v>1.005269388052217</v>
+        <v>1.005281007527133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044355516977662</v>
+        <v>1.044361335591967</v>
       </c>
       <c r="J4">
-        <v>1.021722587341951</v>
+        <v>1.021734216439803</v>
       </c>
       <c r="K4">
-        <v>1.028332960814872</v>
+        <v>1.028343291686449</v>
       </c>
       <c r="L4">
-        <v>1.019741743989728</v>
+        <v>1.01975347652068</v>
       </c>
       <c r="M4">
-        <v>1.015304629519151</v>
+        <v>1.015316110576037</v>
+      </c>
+      <c r="N4">
+        <v>1.015460132053835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004564488588934</v>
+        <v>1.004574746182443</v>
       </c>
       <c r="D5">
-        <v>1.020126276150952</v>
+        <v>1.020135377282819</v>
       </c>
       <c r="E5">
-        <v>1.011808947828389</v>
+        <v>1.011819157113932</v>
       </c>
       <c r="F5">
-        <v>1.007588331160898</v>
+        <v>1.007598372813606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045135796589091</v>
+        <v>1.045140857311636</v>
       </c>
       <c r="J5">
-        <v>1.023399976074413</v>
+        <v>1.023409981559892</v>
       </c>
       <c r="K5">
-        <v>1.029769047833887</v>
+        <v>1.029778047022818</v>
       </c>
       <c r="L5">
-        <v>1.021545828732618</v>
+        <v>1.021555921331655</v>
       </c>
       <c r="M5">
-        <v>1.017373701581714</v>
+        <v>1.017383627273095</v>
+      </c>
+      <c r="N5">
+        <v>1.016654616893475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004928878157407</v>
+        <v>1.004938857656254</v>
       </c>
       <c r="D6">
-        <v>1.020405472539549</v>
+        <v>1.020414349393826</v>
       </c>
       <c r="E6">
-        <v>1.0121507854326</v>
+        <v>1.012160718453442</v>
       </c>
       <c r="F6">
-        <v>1.00797516538631</v>
+        <v>1.007984945175473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045265690467402</v>
+        <v>1.045270625253904</v>
       </c>
       <c r="J6">
-        <v>1.023679627485493</v>
+        <v>1.023689363099356</v>
       </c>
       <c r="K6">
-        <v>1.030008418926196</v>
+        <v>1.030017196842762</v>
       </c>
       <c r="L6">
-        <v>1.02184666120592</v>
+        <v>1.021856481279918</v>
       </c>
       <c r="M6">
-        <v>1.017718764875531</v>
+        <v>1.017728432319897</v>
+      </c>
+      <c r="N6">
+        <v>1.016853695778902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002408918064141</v>
+        <v>1.002420827843139</v>
       </c>
       <c r="D7">
-        <v>1.01847474748564</v>
+        <v>1.018485180701537</v>
       </c>
       <c r="E7">
-        <v>1.009787233802797</v>
+        <v>1.009799083785819</v>
       </c>
       <c r="F7">
-        <v>1.00530054501313</v>
+        <v>1.005312143196567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04436601872684</v>
+        <v>1.044371827124458</v>
       </c>
       <c r="J7">
-        <v>1.021745135348052</v>
+        <v>1.02175674256457</v>
       </c>
       <c r="K7">
-        <v>1.02835226857561</v>
+        <v>1.028362581495033</v>
       </c>
       <c r="L7">
-        <v>1.019765991143131</v>
+        <v>1.019777701568753</v>
       </c>
       <c r="M7">
-        <v>1.015332435214175</v>
+        <v>1.015343895290207</v>
+      </c>
+      <c r="N7">
+        <v>1.015476192973627</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914982393464179</v>
+        <v>0.9915187080878753</v>
       </c>
       <c r="D8">
-        <v>1.010118152598737</v>
+        <v>1.010135475421255</v>
       </c>
       <c r="E8">
-        <v>0.9995657643643412</v>
+        <v>0.9995860965559306</v>
       </c>
       <c r="F8">
-        <v>0.9937344139229304</v>
+        <v>0.9937540964133542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040436019340892</v>
+        <v>1.040445686528767</v>
       </c>
       <c r="J8">
-        <v>1.013355967241166</v>
+        <v>1.013375828163437</v>
       </c>
       <c r="K8">
-        <v>1.021162789393868</v>
+        <v>1.021179883432706</v>
       </c>
       <c r="L8">
-        <v>1.010751620861811</v>
+        <v>1.010771677346885</v>
       </c>
       <c r="M8">
-        <v>1.004999930818032</v>
+        <v>1.005019342450189</v>
+      </c>
+      <c r="N8">
+        <v>1.009493227532064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706246893939847</v>
+        <v>0.9706625720293625</v>
       </c>
       <c r="D9">
-        <v>0.9941526733116555</v>
+        <v>0.9941839451737015</v>
       </c>
       <c r="E9">
-        <v>0.9800643683458284</v>
+        <v>0.980101865354041</v>
       </c>
       <c r="F9">
-        <v>0.9716623400381256</v>
+        <v>0.9716985739332187</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032787021066212</v>
+        <v>1.032804463105024</v>
       </c>
       <c r="J9">
-        <v>0.9972591836514103</v>
+        <v>0.9972956116913201</v>
       </c>
       <c r="K9">
-        <v>1.007341337103639</v>
+        <v>1.007372093915673</v>
       </c>
       <c r="L9">
-        <v>0.9934893859754562</v>
+        <v>0.9935262422611073</v>
       </c>
       <c r="M9">
-        <v>0.9852325406849821</v>
+        <v>0.9852681414942538</v>
+      </c>
+      <c r="N9">
+        <v>0.9979796587829131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553449777719237</v>
+        <v>0.9553966385157404</v>
       </c>
       <c r="D10">
-        <v>0.9824926297322122</v>
+        <v>0.9825348623518128</v>
       </c>
       <c r="E10">
-        <v>0.9658334900913852</v>
+        <v>0.9658844768233819</v>
       </c>
       <c r="F10">
-        <v>0.9555432111672875</v>
+        <v>0.9555926330012686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027104221668014</v>
+        <v>1.027127742121637</v>
       </c>
       <c r="J10">
-        <v>0.9854496012586061</v>
+        <v>0.9854989275587795</v>
       </c>
       <c r="K10">
-        <v>0.9971853473213316</v>
+        <v>0.9972267815305341</v>
       </c>
       <c r="L10">
-        <v>0.9808483049867187</v>
+        <v>0.9808982836434906</v>
       </c>
       <c r="M10">
-        <v>0.9707643806246565</v>
+        <v>0.9708127973873154</v>
+      </c>
+      <c r="N10">
+        <v>0.9895122987789419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483341028565858</v>
+        <v>0.9483924270584916</v>
       </c>
       <c r="D11">
-        <v>0.977152207858682</v>
+        <v>0.9771997151344102</v>
       </c>
       <c r="E11">
-        <v>0.9593165014019071</v>
+        <v>0.9593739828183062</v>
       </c>
       <c r="F11">
-        <v>0.9481561444211645</v>
+        <v>0.9482119719264636</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024478372732655</v>
+        <v>1.024504809758025</v>
       </c>
       <c r="J11">
-        <v>0.9800262129552355</v>
+        <v>0.980081712762719</v>
       </c>
       <c r="K11">
-        <v>0.9925182575028332</v>
+        <v>0.9925648129440359</v>
       </c>
       <c r="L11">
-        <v>0.9750487143036694</v>
+        <v>0.9751049867053866</v>
       </c>
       <c r="M11">
-        <v>0.9641267824485398</v>
+        <v>0.964181398734088</v>
+      </c>
+      <c r="N11">
+        <v>0.9856197005037343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.945663274064683</v>
+        <v>0.9457241987446785</v>
       </c>
       <c r="D12">
-        <v>0.9751195155692449</v>
+        <v>0.9751690765314336</v>
       </c>
       <c r="E12">
-        <v>0.9568359311736127</v>
+        <v>0.9568959420221494</v>
       </c>
       <c r="F12">
-        <v>0.9453433404535945</v>
+        <v>0.9454016725595721</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023475432155764</v>
+        <v>1.023503003346265</v>
       </c>
       <c r="J12">
-        <v>0.9779595940637648</v>
+        <v>0.9780174920180008</v>
       </c>
       <c r="K12">
-        <v>0.9907394309926976</v>
+        <v>0.990787977520849</v>
       </c>
       <c r="L12">
-        <v>0.9728395959213206</v>
+        <v>0.9728983153975452</v>
       </c>
       <c r="M12">
-        <v>0.9615983381699259</v>
+        <v>0.9616553740628444</v>
+      </c>
+      <c r="N12">
+        <v>0.9841358620756684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9462393264504851</v>
+        <v>0.946299687257442</v>
       </c>
       <c r="D13">
-        <v>0.9755578473063373</v>
+        <v>0.9756069631895466</v>
       </c>
       <c r="E13">
-        <v>0.9573708491667052</v>
+        <v>0.9574303117939725</v>
       </c>
       <c r="F13">
-        <v>0.9459499543976432</v>
+        <v>0.9460077431976117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0236918644043</v>
+        <v>1.023719189861309</v>
       </c>
       <c r="J13">
-        <v>0.9784053506678905</v>
+        <v>0.9784627291464546</v>
       </c>
       <c r="K13">
-        <v>0.9911231295276158</v>
+        <v>0.9911712446773118</v>
       </c>
       <c r="L13">
-        <v>0.9733160501093466</v>
+        <v>0.9733742394068287</v>
       </c>
       <c r="M13">
-        <v>0.9621436715862225</v>
+        <v>0.962200182817214</v>
+      </c>
+      <c r="N13">
+        <v>0.9844559395222569</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9481147390011012</v>
+        <v>0.9481732754638891</v>
       </c>
       <c r="D14">
-        <v>0.9769852184136483</v>
+        <v>0.9770328934207725</v>
       </c>
       <c r="E14">
-        <v>0.9591127200846906</v>
+        <v>0.9591704080718153</v>
       </c>
       <c r="F14">
-        <v>0.9479250927017839</v>
+        <v>0.947981124543617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024396049823707</v>
+        <v>1.024422579508986</v>
       </c>
       <c r="J14">
-        <v>0.9798564849737013</v>
+        <v>0.9799121807592497</v>
       </c>
       <c r="K14">
-        <v>0.9923721731318762</v>
+        <v>0.9924188912511194</v>
       </c>
       <c r="L14">
-        <v>0.9748672657390451</v>
+        <v>0.9749237380709127</v>
       </c>
       <c r="M14">
-        <v>0.9639191091099648</v>
+        <v>0.9639739228894838</v>
+      </c>
+      <c r="N14">
+        <v>0.9854978457149741</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9492611635853082</v>
+        <v>0.9493185933273391</v>
       </c>
       <c r="D15">
-        <v>0.9778580011198301</v>
+        <v>0.977904801383417</v>
       </c>
       <c r="E15">
-        <v>0.9601777951116648</v>
+        <v>0.9602344058335309</v>
       </c>
       <c r="F15">
-        <v>0.9491326537337132</v>
+        <v>0.9491876203653178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024826175427346</v>
+        <v>1.024852221820753</v>
       </c>
       <c r="J15">
-        <v>0.9807434845687141</v>
+        <v>0.9807981580761959</v>
       </c>
       <c r="K15">
-        <v>0.9931355952360829</v>
+        <v>0.9931814648488984</v>
       </c>
       <c r="L15">
-        <v>0.9758155518693462</v>
+        <v>0.9758709813988931</v>
       </c>
       <c r="M15">
-        <v>0.9650044452033945</v>
+        <v>0.9650582292635627</v>
+      </c>
+      <c r="N15">
+        <v>0.9861346383717561</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,75 +995,81 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558013504736846</v>
+        <v>0.9558525853235282</v>
       </c>
       <c r="D16">
-        <v>0.9828404882034557</v>
+        <v>0.9828823830996831</v>
       </c>
       <c r="E16">
-        <v>0.9662579902555788</v>
+        <v>0.9663085612307404</v>
       </c>
       <c r="F16">
-        <v>0.9560242557558962</v>
+        <v>0.956073268773004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027274785286409</v>
+        <v>1.027298118817471</v>
       </c>
       <c r="J16">
-        <v>0.9858025519988373</v>
+        <v>0.9858514823110307</v>
       </c>
       <c r="K16">
-        <v>0.9974890202115935</v>
+        <v>0.9975301261530146</v>
       </c>
       <c r="L16">
-        <v>0.9812258554415149</v>
+        <v>0.9812754306813721</v>
       </c>
       <c r="M16">
-        <v>0.9711964773108286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9712444978578616</v>
+      </c>
+      <c r="N16">
+        <v>0.9897655487969659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9597933573418089</v>
+        <v>0.9598409060378649</v>
       </c>
       <c r="D17">
-        <v>0.9858844046522222</v>
+        <v>0.985923373580611</v>
       </c>
       <c r="E17">
-        <v>0.9699726375774467</v>
+        <v>0.9700196068727691</v>
       </c>
       <c r="F17">
-        <v>0.9602330768511317</v>
+        <v>0.9602785545814192</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028764705971243</v>
+        <v>1.028786419097905</v>
       </c>
       <c r="J17">
-        <v>0.9888893874944176</v>
+        <v>0.9889348833375372</v>
       </c>
       <c r="K17">
-        <v>1.000144542387269</v>
+        <v>1.000182802389328</v>
       </c>
       <c r="L17">
-        <v>0.98452846822534</v>
+        <v>0.9845745460105121</v>
       </c>
       <c r="M17">
-        <v>0.9749762423714454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9750208337820722</v>
+      </c>
+      <c r="N17">
+        <v>0.991979973173456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9620843104377446</v>
+        <v>0.9621297747292339</v>
       </c>
       <c r="D18">
-        <v>0.9876321361309992</v>
+        <v>0.9876694482075531</v>
       </c>
       <c r="E18">
-        <v>0.9721055810975293</v>
+        <v>0.9721505111667613</v>
       </c>
       <c r="F18">
-        <v>0.9626492921354232</v>
+        <v>0.9626927732243454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029618026437756</v>
+        <v>1.029638821232463</v>
       </c>
       <c r="J18">
-        <v>0.9906604240839597</v>
+        <v>0.9907039721299365</v>
       </c>
       <c r="K18">
-        <v>1.001667825561761</v>
+        <v>1.001704472505315</v>
       </c>
       <c r="L18">
-        <v>0.9864238303921851</v>
+        <v>0.9864679258177044</v>
       </c>
       <c r="M18">
-        <v>0.9771454744081866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9771881268763162</v>
+      </c>
+      <c r="N18">
+        <v>0.9932500886359067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9628593062938475</v>
+        <v>0.9629040704499121</v>
       </c>
       <c r="D19">
-        <v>0.9882235074896825</v>
+        <v>0.988260262672607</v>
       </c>
       <c r="E19">
-        <v>0.9728273162408505</v>
+        <v>0.9728715609304979</v>
       </c>
       <c r="F19">
-        <v>0.9634668043332925</v>
+        <v>0.963509615167073</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029906395913817</v>
+        <v>1.02992688191611</v>
       </c>
       <c r="J19">
-        <v>0.9912594588073259</v>
+        <v>0.9913023516716328</v>
       </c>
       <c r="K19">
-        <v>1.002183008935979</v>
+        <v>1.002219113455072</v>
       </c>
       <c r="L19">
-        <v>0.9870650059982111</v>
+        <v>0.9871084348056722</v>
       </c>
       <c r="M19">
-        <v>0.9778793063458665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9779213075603206</v>
+      </c>
+      <c r="N19">
+        <v>0.9936796246152346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593689825697497</v>
+        <v>0.9594169198302814</v>
       </c>
       <c r="D20">
-        <v>0.9855607246816712</v>
+        <v>0.98560000228887</v>
       </c>
       <c r="E20">
-        <v>0.9695776254097441</v>
+        <v>0.9696249746408409</v>
       </c>
       <c r="F20">
-        <v>0.9597855664672537</v>
+        <v>0.9598314165985117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028606496591213</v>
+        <v>1.028628380745388</v>
       </c>
       <c r="J20">
-        <v>0.9885612840009258</v>
+        <v>0.9886071424850187</v>
       </c>
       <c r="K20">
-        <v>0.9998623137161791</v>
+        <v>0.999900874115651</v>
       </c>
       <c r="L20">
-        <v>0.9841773747315096</v>
+        <v>0.9842238216853436</v>
       </c>
       <c r="M20">
-        <v>0.9745744214296681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9746193742989689</v>
+      </c>
+      <c r="N20">
+        <v>0.9917446389211776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947564383395784</v>
+        <v>0.9476234534298436</v>
       </c>
       <c r="D21">
-        <v>0.9765662930236231</v>
+        <v>0.9766143895862134</v>
       </c>
       <c r="E21">
-        <v>0.9586014937010819</v>
+        <v>0.958659700870323</v>
       </c>
       <c r="F21">
-        <v>0.9473454351756805</v>
+        <v>0.9474019807464473</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024189470925595</v>
+        <v>1.0242162334681</v>
       </c>
       <c r="J21">
-        <v>0.9794306511082963</v>
+        <v>0.9794868393514408</v>
       </c>
       <c r="K21">
-        <v>0.9920056529934201</v>
+        <v>0.9920527799208582</v>
       </c>
       <c r="L21">
-        <v>0.9744120396185564</v>
+        <v>0.9744690143753527</v>
       </c>
       <c r="M21">
-        <v>0.9633980866057704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9634533968390618</v>
+      </c>
+      <c r="N21">
+        <v>0.985192113492725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9397518812064335</v>
+        <v>0.9398186906323764</v>
       </c>
       <c r="D22">
-        <v>0.970624199285989</v>
+        <v>0.9706783975415766</v>
       </c>
       <c r="E22">
-        <v>0.9513498099862078</v>
+        <v>0.9514155341054122</v>
       </c>
       <c r="F22">
-        <v>0.9391201703568087</v>
+        <v>0.9391841798282783</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021250964683123</v>
+        <v>1.021281094089981</v>
       </c>
       <c r="J22">
-        <v>0.9733846903660038</v>
+        <v>0.9734479925504962</v>
       </c>
       <c r="K22">
-        <v>0.9868009560074799</v>
+        <v>0.9868539927536992</v>
       </c>
       <c r="L22">
-        <v>0.9679508291649818</v>
+        <v>0.9680150676192811</v>
       </c>
       <c r="M22">
-        <v>0.9560024828274734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9560649944819369</v>
+      </c>
+      <c r="N22">
+        <v>0.9808501678011217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9439332844474326</v>
+        <v>0.9439959126062705</v>
       </c>
       <c r="D23">
-        <v>0.9738034130638786</v>
+        <v>0.9738543178448132</v>
       </c>
       <c r="E23">
-        <v>0.9552298030716161</v>
+        <v>0.9552914692861115</v>
       </c>
       <c r="F23">
-        <v>0.9435217639559321</v>
+        <v>0.9435817381507648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02282507717517</v>
+        <v>1.02285339008864</v>
       </c>
       <c r="J23">
-        <v>0.9766208391966824</v>
+        <v>0.9766803047472266</v>
       </c>
       <c r="K23">
-        <v>0.9895870038380062</v>
+        <v>0.989636852373765</v>
       </c>
       <c r="L23">
-        <v>0.9714087719236141</v>
+        <v>0.9714690916433393</v>
       </c>
       <c r="M23">
-        <v>0.9599606339006559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9600192548394777</v>
+      </c>
+      <c r="N23">
+        <v>0.9831744910678891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595608546592499</v>
+        <v>0.959608616142814</v>
       </c>
       <c r="D24">
-        <v>0.9857070670493727</v>
+        <v>0.9857462050250757</v>
       </c>
       <c r="E24">
-        <v>0.9697562182145117</v>
+        <v>0.9698033955801046</v>
       </c>
       <c r="F24">
-        <v>0.9599878962341374</v>
+        <v>0.9600335778927583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028678032991675</v>
+        <v>1.028699839783589</v>
       </c>
       <c r="J24">
-        <v>0.988709630483558</v>
+        <v>0.9887553249356202</v>
       </c>
       <c r="K24">
-        <v>0.9999899195827628</v>
+        <v>1.000028344101591</v>
       </c>
       <c r="L24">
-        <v>0.9843361141207412</v>
+        <v>0.9843823940862959</v>
       </c>
       <c r="M24">
-        <v>0.9747560960315157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.974800885385445</v>
+      </c>
+      <c r="N24">
+        <v>0.9918510425539497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762403281856394</v>
+        <v>0.9762733782308072</v>
       </c>
       <c r="D25">
-        <v>0.9984442803383968</v>
+        <v>0.9984716912935426</v>
       </c>
       <c r="E25">
-        <v>0.9853039722841319</v>
+        <v>0.9853367186035416</v>
       </c>
       <c r="F25">
-        <v>0.9775940250932452</v>
+        <v>0.9776256523324627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034859357942766</v>
+        <v>1.034874652686706</v>
       </c>
       <c r="J25">
-        <v>1.00159463794456</v>
+        <v>1.001626498461111</v>
       </c>
       <c r="K25">
-        <v>1.011066794952002</v>
+        <v>1.01109377870563</v>
       </c>
       <c r="L25">
-        <v>0.9981347912402051</v>
+        <v>0.9981670095934286</v>
       </c>
       <c r="M25">
-        <v>0.9905504171881756</v>
+        <v>0.9905815241057534</v>
+      </c>
+      <c r="N25">
+        <v>1.001084314346017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9886085700005403</v>
+        <v>1.025867509843349</v>
       </c>
       <c r="D2">
-        <v>1.007907716601032</v>
+        <v>1.036520476367261</v>
       </c>
       <c r="E2">
-        <v>0.9968631793678523</v>
+        <v>1.042331898466702</v>
       </c>
       <c r="F2">
-        <v>0.9906724924497292</v>
+        <v>1.046542226049638</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039388969535566</v>
+        <v>1.049960851813839</v>
       </c>
       <c r="J2">
-        <v>1.011135418371462</v>
+        <v>1.047301126667891</v>
       </c>
       <c r="K2">
-        <v>1.019257972803856</v>
+        <v>1.047493430974544</v>
       </c>
       <c r="L2">
-        <v>1.008366388765624</v>
+        <v>1.053231378442065</v>
       </c>
       <c r="M2">
-        <v>1.002263322195623</v>
+        <v>1.057389109331818</v>
       </c>
       <c r="N2">
-        <v>1.007891528776883</v>
+        <v>1.048788414394877</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970947562555175</v>
+        <v>1.036495125310159</v>
       </c>
       <c r="D3">
-        <v>1.014405374383245</v>
+        <v>1.044895119434391</v>
       </c>
       <c r="E3">
-        <v>1.004807253210525</v>
+        <v>1.052556577104009</v>
       </c>
       <c r="F3">
-        <v>0.9996628503958342</v>
+        <v>1.056886024407225</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042460503114085</v>
+        <v>1.053828124114266</v>
       </c>
       <c r="J3">
-        <v>1.017664935697373</v>
+        <v>1.056038030780664</v>
       </c>
       <c r="K3">
-        <v>1.024857194869158</v>
+        <v>1.054984061693874</v>
       </c>
       <c r="L3">
-        <v>1.015378991650632</v>
+        <v>1.062558409582724</v>
       </c>
       <c r="M3">
-        <v>1.010300046932474</v>
+        <v>1.066839319029246</v>
       </c>
       <c r="N3">
-        <v>1.012556937902482</v>
+        <v>1.057537725913628</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002391487965105</v>
+        <v>1.043096400956718</v>
       </c>
       <c r="D4">
-        <v>1.018462703303994</v>
+        <v>1.050097734637114</v>
       </c>
       <c r="E4">
-        <v>1.009771572383807</v>
+        <v>1.058913646085359</v>
       </c>
       <c r="F4">
-        <v>1.005281007527133</v>
+        <v>1.063317977393151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044361335591967</v>
+        <v>1.056214238701173</v>
       </c>
       <c r="J4">
-        <v>1.021734216439803</v>
+        <v>1.061458443518588</v>
       </c>
       <c r="K4">
-        <v>1.028343291686449</v>
+        <v>1.059626905870488</v>
       </c>
       <c r="L4">
-        <v>1.01975347652068</v>
+        <v>1.068349461030108</v>
       </c>
       <c r="M4">
-        <v>1.015316110576037</v>
+        <v>1.072707860601404</v>
       </c>
       <c r="N4">
-        <v>1.015460132053835</v>
+        <v>1.062965836259369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004574746182443</v>
+        <v>1.045810671499658</v>
       </c>
       <c r="D5">
-        <v>1.020135377282819</v>
+        <v>1.052236923451809</v>
       </c>
       <c r="E5">
-        <v>1.011819157113932</v>
+        <v>1.061528858802785</v>
       </c>
       <c r="F5">
-        <v>1.007598372813606</v>
+        <v>1.065964191251204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045140857311636</v>
+        <v>1.057191399828554</v>
       </c>
       <c r="J5">
-        <v>1.023409981559892</v>
+        <v>1.063685539131702</v>
       </c>
       <c r="K5">
-        <v>1.029778047022818</v>
+        <v>1.061533427963016</v>
       </c>
       <c r="L5">
-        <v>1.021555921331655</v>
+        <v>1.070729926424496</v>
       </c>
       <c r="M5">
-        <v>1.017383627273095</v>
+        <v>1.075120417711646</v>
       </c>
       <c r="N5">
-        <v>1.016654616893475</v>
+        <v>1.065196094603705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004938857656254</v>
+        <v>1.046262973472943</v>
       </c>
       <c r="D6">
-        <v>1.020414349393826</v>
+        <v>1.052593390629337</v>
       </c>
       <c r="E6">
-        <v>1.012160718453442</v>
+        <v>1.061964730755562</v>
       </c>
       <c r="F6">
-        <v>1.007984945175473</v>
+        <v>1.066405241497209</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045270625253904</v>
+        <v>1.05735399744823</v>
       </c>
       <c r="J6">
-        <v>1.023689363099356</v>
+        <v>1.064056560465593</v>
       </c>
       <c r="K6">
-        <v>1.030017196842762</v>
+        <v>1.061850978129878</v>
       </c>
       <c r="L6">
-        <v>1.021856481279918</v>
+        <v>1.071126562125535</v>
       </c>
       <c r="M6">
-        <v>1.017728432319897</v>
+        <v>1.075522414518487</v>
       </c>
       <c r="N6">
-        <v>1.016853695778902</v>
+        <v>1.065567642830448</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002420827843139</v>
+        <v>1.043132902269275</v>
       </c>
       <c r="D7">
-        <v>1.018485180701537</v>
+        <v>1.050126502464741</v>
       </c>
       <c r="E7">
-        <v>1.009799083785819</v>
+        <v>1.05894881003655</v>
       </c>
       <c r="F7">
-        <v>1.005312143196567</v>
+        <v>1.063353557413658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044371827124458</v>
+        <v>1.056227395275256</v>
       </c>
       <c r="J7">
-        <v>1.02175674256457</v>
+        <v>1.061488399930592</v>
       </c>
       <c r="K7">
-        <v>1.028362581495033</v>
+        <v>1.05965255467225</v>
       </c>
       <c r="L7">
-        <v>1.019777701568753</v>
+        <v>1.068381476097715</v>
       </c>
       <c r="M7">
-        <v>1.015343895290207</v>
+        <v>1.072740306330646</v>
       </c>
       <c r="N7">
-        <v>1.015476192973627</v>
+        <v>1.062995835212914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9915187080878753</v>
+        <v>1.029519451061386</v>
       </c>
       <c r="D8">
-        <v>1.010135475421255</v>
+        <v>1.039397960302672</v>
       </c>
       <c r="E8">
-        <v>0.9995860965559306</v>
+        <v>1.045844019361733</v>
       </c>
       <c r="F8">
-        <v>0.9937540964133542</v>
+        <v>1.050095087385205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040445686528767</v>
+        <v>1.051293091242682</v>
       </c>
       <c r="J8">
-        <v>1.013375828163437</v>
+        <v>1.050304684793098</v>
       </c>
       <c r="K8">
-        <v>1.021179883432706</v>
+        <v>1.050069450601369</v>
       </c>
       <c r="L8">
-        <v>1.010771677346885</v>
+        <v>1.056436847080169</v>
       </c>
       <c r="M8">
-        <v>1.005019342450189</v>
+        <v>1.060636694155766</v>
       </c>
       <c r="N8">
-        <v>1.009493227532064</v>
+        <v>1.051796237917135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706625720293625</v>
+        <v>1.003154615138206</v>
       </c>
       <c r="D9">
-        <v>0.9941839451737015</v>
+        <v>1.018636158084519</v>
       </c>
       <c r="E9">
-        <v>0.980101865354041</v>
+        <v>1.020520719292887</v>
       </c>
       <c r="F9">
-        <v>0.9716985739332187</v>
+        <v>1.024481807233329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032804463105024</v>
+        <v>1.041609275585591</v>
       </c>
       <c r="J9">
-        <v>0.9972956116913201</v>
+        <v>1.02859646551324</v>
       </c>
       <c r="K9">
-        <v>1.007372093915673</v>
+        <v>1.031433943222534</v>
       </c>
       <c r="L9">
-        <v>0.9935262422611073</v>
+        <v>1.033289409934618</v>
       </c>
       <c r="M9">
-        <v>0.9852681414942538</v>
+        <v>1.037189790205865</v>
       </c>
       <c r="N9">
-        <v>0.9979796587829131</v>
+        <v>1.030057190475933</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9553966385157404</v>
+        <v>0.9835281426216697</v>
       </c>
       <c r="D10">
-        <v>0.9825348623518128</v>
+        <v>1.003208117266662</v>
       </c>
       <c r="E10">
-        <v>0.9658844768233819</v>
+        <v>1.00171866487317</v>
       </c>
       <c r="F10">
-        <v>0.9555926330012686</v>
+        <v>1.005469539765523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027127742121637</v>
+        <v>1.034321846728805</v>
       </c>
       <c r="J10">
-        <v>0.9854989275587795</v>
+        <v>1.012410883272066</v>
       </c>
       <c r="K10">
-        <v>0.9972267815305341</v>
+        <v>1.01751968874976</v>
       </c>
       <c r="L10">
-        <v>0.9808982836434906</v>
+        <v>1.016056957476016</v>
       </c>
       <c r="M10">
-        <v>0.9708127973873154</v>
+        <v>1.019740737249524</v>
       </c>
       <c r="N10">
-        <v>0.9895122987789419</v>
+        <v>1.013848622851464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483924270584916</v>
+        <v>0.9744108258366205</v>
       </c>
       <c r="D11">
-        <v>0.9771997151344102</v>
+        <v>0.9960524134772977</v>
       </c>
       <c r="E11">
-        <v>0.9593739828183062</v>
+        <v>0.9929989535116038</v>
       </c>
       <c r="F11">
-        <v>0.9482119719264636</v>
+        <v>0.9966536356754395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024504809758025</v>
+        <v>1.030920477708693</v>
       </c>
       <c r="J11">
-        <v>0.980081712762719</v>
+        <v>1.004888299614134</v>
       </c>
       <c r="K11">
-        <v>0.9925648129440359</v>
+        <v>1.011049161460963</v>
       </c>
       <c r="L11">
-        <v>0.9751049867053866</v>
+        <v>1.008054118163874</v>
       </c>
       <c r="M11">
-        <v>0.964181398734088</v>
+        <v>1.01163893665801</v>
       </c>
       <c r="N11">
-        <v>0.9856197005037343</v>
+        <v>1.006315356261885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9457241987446785</v>
+        <v>0.9709167351764094</v>
       </c>
       <c r="D12">
-        <v>0.9751690765314336</v>
+        <v>0.9933122804937541</v>
       </c>
       <c r="E12">
-        <v>0.9568959420221494</v>
+        <v>0.9896597500455154</v>
       </c>
       <c r="F12">
-        <v>0.9454016725595721</v>
+        <v>0.9932777991924644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023503003346265</v>
+        <v>1.029614820994811</v>
       </c>
       <c r="J12">
-        <v>0.9780174920180008</v>
+        <v>1.002005071069663</v>
       </c>
       <c r="K12">
-        <v>0.990787977520849</v>
+        <v>1.008568738119615</v>
       </c>
       <c r="L12">
-        <v>0.9728983153975452</v>
+        <v>1.004987770872323</v>
       </c>
       <c r="M12">
-        <v>0.9616553740628444</v>
+        <v>1.008534929175105</v>
       </c>
       <c r="N12">
-        <v>0.9841358620756684</v>
+        <v>1.00342803320217</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.946299687257442</v>
+        <v>0.9716713651718667</v>
       </c>
       <c r="D13">
-        <v>0.9756069631895466</v>
+        <v>0.9939039677872488</v>
       </c>
       <c r="E13">
-        <v>0.9574303117939725</v>
+        <v>0.9903808098089634</v>
       </c>
       <c r="F13">
-        <v>0.9460077431976117</v>
+        <v>0.9940067600521141</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023719189861309</v>
+        <v>1.029896898497811</v>
       </c>
       <c r="J13">
-        <v>0.9784627291464546</v>
+        <v>1.002627779897987</v>
       </c>
       <c r="K13">
-        <v>0.9911712446773118</v>
+        <v>1.009104467544148</v>
       </c>
       <c r="L13">
-        <v>0.9733742394068287</v>
+        <v>1.005649986028032</v>
       </c>
       <c r="M13">
-        <v>0.962200182817214</v>
+        <v>1.009205265673232</v>
       </c>
       <c r="N13">
-        <v>0.9844559395222569</v>
+        <v>1.004051626348456</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9481732754638891</v>
+        <v>0.9741242925864052</v>
       </c>
       <c r="D14">
-        <v>0.9770328934207725</v>
+        <v>0.9958276610290236</v>
       </c>
       <c r="E14">
-        <v>0.9591704080718153</v>
+        <v>0.9927250691022543</v>
       </c>
       <c r="F14">
-        <v>0.947981124543617</v>
+        <v>0.9963767424167583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024422579508986</v>
+        <v>1.030813448316409</v>
       </c>
       <c r="J14">
-        <v>0.9799121807592497</v>
+        <v>1.004651864515079</v>
       </c>
       <c r="K14">
-        <v>0.9924188912511194</v>
+        <v>1.010845765631177</v>
       </c>
       <c r="L14">
-        <v>0.9749237380709127</v>
+        <v>1.007802647415551</v>
       </c>
       <c r="M14">
-        <v>0.9639739228894838</v>
+        <v>1.011384372118102</v>
       </c>
       <c r="N14">
-        <v>0.9854978457149741</v>
+        <v>1.00607858539787</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493185933273391</v>
+        <v>0.9756208837192697</v>
       </c>
       <c r="D15">
-        <v>0.977904801383417</v>
+        <v>0.9970016569979629</v>
       </c>
       <c r="E15">
-        <v>0.9602344058335309</v>
+        <v>0.9941556975952235</v>
       </c>
       <c r="F15">
-        <v>0.9491876203653178</v>
+        <v>0.9978230958642574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024852221820753</v>
+        <v>1.031372389115402</v>
       </c>
       <c r="J15">
-        <v>0.9807981580761959</v>
+        <v>1.005886777731265</v>
       </c>
       <c r="K15">
-        <v>0.9931814648488984</v>
+        <v>1.011908096611405</v>
       </c>
       <c r="L15">
-        <v>0.9758709813988931</v>
+        <v>1.009116131151174</v>
       </c>
       <c r="M15">
-        <v>0.9650582292635627</v>
+        <v>1.012714025863344</v>
       </c>
       <c r="N15">
-        <v>0.9861346383717561</v>
+        <v>1.00731525233247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9558525853235282</v>
+        <v>0.9841190225281635</v>
       </c>
       <c r="D16">
-        <v>0.9828823830996831</v>
+        <v>1.003672137989826</v>
       </c>
       <c r="E16">
-        <v>0.9663085612307404</v>
+        <v>1.002284100427523</v>
       </c>
       <c r="F16">
-        <v>0.956073268773004</v>
+        <v>1.00604124025803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027298118817471</v>
+        <v>1.034541978409559</v>
       </c>
       <c r="J16">
-        <v>0.9858514823110307</v>
+        <v>1.012898355331892</v>
       </c>
       <c r="K16">
-        <v>0.9975301261530146</v>
+        <v>1.017938922056075</v>
       </c>
       <c r="L16">
-        <v>0.9812754306813721</v>
+        <v>1.016575679956326</v>
       </c>
       <c r="M16">
-        <v>0.9712444978578616</v>
+        <v>1.020265908473309</v>
       </c>
       <c r="N16">
-        <v>0.9897655487969659</v>
+        <v>1.014336787177529</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9598409060378649</v>
+        <v>0.9892747048574464</v>
       </c>
       <c r="D17">
-        <v>0.985923373580611</v>
+        <v>1.007722220877824</v>
       </c>
       <c r="E17">
-        <v>0.9700196068727691</v>
+        <v>1.007219426846946</v>
       </c>
       <c r="F17">
-        <v>0.9602785545814192</v>
+        <v>1.011031394486128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028786419097905</v>
+        <v>1.03646096496554</v>
       </c>
       <c r="J17">
-        <v>0.9889348833375372</v>
+        <v>1.017151372382214</v>
       </c>
       <c r="K17">
-        <v>1.000182802389328</v>
+        <v>1.021596192926055</v>
       </c>
       <c r="L17">
-        <v>0.9845745460105121</v>
+        <v>1.021102046470631</v>
       </c>
       <c r="M17">
-        <v>0.9750208337820722</v>
+        <v>1.024848729063583</v>
       </c>
       <c r="N17">
-        <v>0.991979973173456</v>
+        <v>1.01859584399989</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9621297747292339</v>
+        <v>0.9922233435302573</v>
       </c>
       <c r="D18">
-        <v>0.9876694482075531</v>
+        <v>1.010039550054767</v>
       </c>
       <c r="E18">
-        <v>0.9721505111667613</v>
+        <v>1.010043369213338</v>
       </c>
       <c r="F18">
-        <v>0.9626927732243454</v>
+        <v>1.013886828051026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029638821232463</v>
+        <v>1.037556967603598</v>
       </c>
       <c r="J18">
-        <v>0.9907039721299365</v>
+        <v>1.019583397407071</v>
       </c>
       <c r="K18">
-        <v>1.001704472505315</v>
+        <v>1.023687209152771</v>
       </c>
       <c r="L18">
-        <v>0.9864679258177044</v>
+        <v>1.023690964067222</v>
       </c>
       <c r="M18">
-        <v>0.9771881268763162</v>
+        <v>1.027470086033805</v>
       </c>
       <c r="N18">
-        <v>0.9932500886359067</v>
+        <v>1.02103132277924</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9629040704499121</v>
+        <v>0.9932192059877399</v>
       </c>
       <c r="D19">
-        <v>0.988260262672607</v>
+        <v>1.010822353774509</v>
       </c>
       <c r="E19">
-        <v>0.9728715609304979</v>
+        <v>1.010997334644974</v>
       </c>
       <c r="F19">
-        <v>0.963509615167073</v>
+        <v>1.014851451633818</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02992688191611</v>
+        <v>1.037926864902628</v>
       </c>
       <c r="J19">
-        <v>0.9913023516716328</v>
+        <v>1.020404712717455</v>
       </c>
       <c r="K19">
-        <v>1.002219113455072</v>
+        <v>1.024393302194266</v>
       </c>
       <c r="L19">
-        <v>0.9871084348056722</v>
+        <v>1.024565361852286</v>
       </c>
       <c r="M19">
-        <v>0.9779213075603206</v>
+        <v>1.028355465166056</v>
       </c>
       <c r="N19">
-        <v>0.9936796246152346</v>
+        <v>1.02185380445157</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594169198302814</v>
+        <v>0.9887277031312537</v>
       </c>
       <c r="D20">
-        <v>0.98560000228887</v>
+        <v>1.007292411839779</v>
       </c>
       <c r="E20">
-        <v>0.9696249746408409</v>
+        <v>1.006695663634931</v>
       </c>
       <c r="F20">
-        <v>0.9598314165985117</v>
+        <v>1.010501800166516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028628380745388</v>
+        <v>1.036257521486134</v>
       </c>
       <c r="J20">
-        <v>0.9886071424850187</v>
+        <v>1.016700176618781</v>
       </c>
       <c r="K20">
-        <v>0.999900874115651</v>
+        <v>1.021208233629914</v>
       </c>
       <c r="L20">
-        <v>0.9842238216853436</v>
+        <v>1.020621790837365</v>
       </c>
       <c r="M20">
-        <v>0.9746193742989689</v>
+        <v>1.024362467871187</v>
       </c>
       <c r="N20">
-        <v>0.9917446389211776</v>
+        <v>1.01814400748672</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9476234534298436</v>
+        <v>0.9734050681646557</v>
       </c>
       <c r="D21">
-        <v>0.9766143895862134</v>
+        <v>0.995263549092662</v>
       </c>
       <c r="E21">
-        <v>0.958659700870323</v>
+        <v>0.9920376358200533</v>
       </c>
       <c r="F21">
-        <v>0.9474019807464473</v>
+        <v>0.9956817604075605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0242162334681</v>
+        <v>1.030544761820915</v>
       </c>
       <c r="J21">
-        <v>0.9794868393514408</v>
+        <v>1.004058387189595</v>
       </c>
       <c r="K21">
-        <v>0.9920527799208582</v>
+        <v>1.01033521405112</v>
       </c>
       <c r="L21">
-        <v>0.9744690143753527</v>
+        <v>1.007171444281684</v>
       </c>
       <c r="M21">
-        <v>0.9634533968390618</v>
+        <v>1.010745407601632</v>
       </c>
       <c r="N21">
-        <v>0.985192113492725</v>
+        <v>1.005484265266511</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398186906323764</v>
+        <v>0.9631391713856968</v>
       </c>
       <c r="D22">
-        <v>0.9706783975415766</v>
+        <v>0.9872176983254199</v>
       </c>
       <c r="E22">
-        <v>0.9514155341054122</v>
+        <v>0.982232020450542</v>
       </c>
       <c r="F22">
-        <v>0.9391841798282783</v>
+        <v>0.9857689734202665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021281094089981</v>
+        <v>1.026704959205968</v>
       </c>
       <c r="J22">
-        <v>0.9734479925504962</v>
+        <v>0.9955870253193021</v>
       </c>
       <c r="K22">
-        <v>0.9868539927536992</v>
+        <v>1.003046700347269</v>
       </c>
       <c r="L22">
-        <v>0.9680150676192811</v>
+        <v>0.9981638776306098</v>
       </c>
       <c r="M22">
-        <v>0.9560649944819369</v>
+        <v>1.001627721310764</v>
       </c>
       <c r="N22">
-        <v>0.9808501678011217</v>
+        <v>0.9970008730906834</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9439959126062705</v>
+        <v>0.9686470192245648</v>
       </c>
       <c r="D23">
-        <v>0.9738543178448132</v>
+        <v>0.9915330173820115</v>
       </c>
       <c r="E23">
-        <v>0.9552914692861115</v>
+        <v>0.9874913999304156</v>
       </c>
       <c r="F23">
-        <v>0.9435817381507648</v>
+        <v>0.9910857198504652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02285339008864</v>
+        <v>1.028766124172435</v>
       </c>
       <c r="J23">
-        <v>0.9766803047472266</v>
+        <v>1.000132116596595</v>
       </c>
       <c r="K23">
-        <v>0.989636852373765</v>
+        <v>1.006957344510715</v>
       </c>
       <c r="L23">
-        <v>0.9714690916433393</v>
+        <v>1.002996131182913</v>
       </c>
       <c r="M23">
-        <v>0.9600192548394777</v>
+        <v>1.006518903133826</v>
       </c>
       <c r="N23">
-        <v>0.9831744910678891</v>
+        <v>1.001552418918919</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959608616142814</v>
+        <v>0.9889750496421037</v>
       </c>
       <c r="D24">
-        <v>0.9857462050250757</v>
+        <v>1.00748676236434</v>
       </c>
       <c r="E24">
-        <v>0.9698033955801046</v>
+        <v>1.006932497894756</v>
       </c>
       <c r="F24">
-        <v>0.9600335778927583</v>
+        <v>1.010741270754574</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028699839783589</v>
+        <v>1.03634952048277</v>
       </c>
       <c r="J24">
-        <v>0.9887553249356202</v>
+        <v>1.016904202160267</v>
       </c>
       <c r="K24">
-        <v>1.000028344101591</v>
+        <v>1.0213836654354</v>
       </c>
       <c r="L24">
-        <v>0.9843823940862959</v>
+        <v>1.020838955105981</v>
       </c>
       <c r="M24">
-        <v>0.974800885385445</v>
+        <v>1.024582347296525</v>
       </c>
       <c r="N24">
-        <v>0.9918510425539497</v>
+        <v>1.018348322767876</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762733782308072</v>
+        <v>1.010293737743922</v>
       </c>
       <c r="D25">
-        <v>0.9984716912935426</v>
+        <v>1.024254794501525</v>
       </c>
       <c r="E25">
-        <v>0.9853367186035416</v>
+        <v>1.027370424437626</v>
       </c>
       <c r="F25">
-        <v>0.9776256523324627</v>
+        <v>1.031409121007438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034874652686706</v>
+        <v>1.044245326140927</v>
       </c>
       <c r="J25">
-        <v>1.001626498461111</v>
+        <v>1.03447957407106</v>
       </c>
       <c r="K25">
-        <v>1.01109377870563</v>
+        <v>1.036487902449083</v>
       </c>
       <c r="L25">
-        <v>0.9981670095934286</v>
+        <v>1.039558204562933</v>
       </c>
       <c r="M25">
-        <v>0.9905815241057534</v>
+        <v>1.043538660165481</v>
       </c>
       <c r="N25">
-        <v>1.001084314346017</v>
+        <v>1.035948653722707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025867509843349</v>
+        <v>1.013678208320442</v>
       </c>
       <c r="D2">
-        <v>1.036520476367261</v>
+        <v>1.027032284803582</v>
       </c>
       <c r="E2">
-        <v>1.042331898466702</v>
+        <v>1.028932264481672</v>
       </c>
       <c r="F2">
-        <v>1.046542226049638</v>
+        <v>1.030970598454736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049960851813839</v>
+        <v>1.046560367128999</v>
       </c>
       <c r="J2">
-        <v>1.047301126667891</v>
+        <v>1.035457363889333</v>
       </c>
       <c r="K2">
-        <v>1.047493430974544</v>
+        <v>1.038127437299938</v>
       </c>
       <c r="L2">
-        <v>1.053231378442065</v>
+        <v>1.040002721384682</v>
       </c>
       <c r="M2">
-        <v>1.057389109331818</v>
+        <v>1.042014688073654</v>
       </c>
       <c r="N2">
-        <v>1.048788414394877</v>
+        <v>1.036927832114682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036495125310159</v>
+        <v>1.018151907747082</v>
       </c>
       <c r="D3">
-        <v>1.044895119434391</v>
+        <v>1.030205809159223</v>
       </c>
       <c r="E3">
-        <v>1.052556577104009</v>
+        <v>1.033216663948881</v>
       </c>
       <c r="F3">
-        <v>1.056886024407225</v>
+        <v>1.035814412839051</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053828124114266</v>
+        <v>1.047829052166999</v>
       </c>
       <c r="J3">
-        <v>1.056038030780664</v>
+        <v>1.038159674228585</v>
       </c>
       <c r="K3">
-        <v>1.054984061693874</v>
+        <v>1.040466255348983</v>
       </c>
       <c r="L3">
-        <v>1.062558409582724</v>
+        <v>1.043441465168842</v>
       </c>
       <c r="M3">
-        <v>1.066839319029246</v>
+        <v>1.046008665861027</v>
       </c>
       <c r="N3">
-        <v>1.057537725913628</v>
+        <v>1.039633980044569</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043096400956718</v>
+        <v>1.020988271861307</v>
       </c>
       <c r="D4">
-        <v>1.050097734637114</v>
+        <v>1.032220659466483</v>
       </c>
       <c r="E4">
-        <v>1.058913646085359</v>
+        <v>1.035938236115201</v>
       </c>
       <c r="F4">
-        <v>1.063317977393151</v>
+        <v>1.03889214512918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056214238701173</v>
+        <v>1.048624677926988</v>
       </c>
       <c r="J4">
-        <v>1.061458443518588</v>
+        <v>1.039869917627636</v>
       </c>
       <c r="K4">
-        <v>1.059626905870488</v>
+        <v>1.041945160801713</v>
       </c>
       <c r="L4">
-        <v>1.068349461030108</v>
+        <v>1.045621435686571</v>
       </c>
       <c r="M4">
-        <v>1.072707860601404</v>
+        <v>1.048542786099388</v>
       </c>
       <c r="N4">
-        <v>1.062965836259369</v>
+        <v>1.041346652185414</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045810671499658</v>
+        <v>1.022167188056219</v>
       </c>
       <c r="D5">
-        <v>1.052236923451809</v>
+        <v>1.033058742432352</v>
       </c>
       <c r="E5">
-        <v>1.061528858802785</v>
+        <v>1.037070670928165</v>
       </c>
       <c r="F5">
-        <v>1.065964191251204</v>
+        <v>1.040172988614433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057191399828554</v>
+        <v>1.048953246437527</v>
       </c>
       <c r="J5">
-        <v>1.063685539131702</v>
+        <v>1.040580009311627</v>
       </c>
       <c r="K5">
-        <v>1.061533427963016</v>
+        <v>1.042558880032553</v>
       </c>
       <c r="L5">
-        <v>1.070729926424496</v>
+        <v>1.046527446689298</v>
       </c>
       <c r="M5">
-        <v>1.075120417711646</v>
+        <v>1.04959651469429</v>
       </c>
       <c r="N5">
-        <v>1.065196094603705</v>
+        <v>1.042057752281044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046262973472943</v>
+        <v>1.02236435605353</v>
       </c>
       <c r="D6">
-        <v>1.052593390629337</v>
+        <v>1.03319894295896</v>
       </c>
       <c r="E6">
-        <v>1.061964730755562</v>
+        <v>1.037260136870217</v>
       </c>
       <c r="F6">
-        <v>1.066405241497209</v>
+        <v>1.040387297583404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05735399744823</v>
+        <v>1.049008071870754</v>
       </c>
       <c r="J6">
-        <v>1.064056560465593</v>
+        <v>1.040698723189759</v>
       </c>
       <c r="K6">
-        <v>1.061850978129878</v>
+        <v>1.042661463049671</v>
       </c>
       <c r="L6">
-        <v>1.071126562125535</v>
+        <v>1.04667896720726</v>
       </c>
       <c r="M6">
-        <v>1.075522414518487</v>
+        <v>1.049772770897436</v>
       </c>
       <c r="N6">
-        <v>1.065567642830448</v>
+        <v>1.0421766347465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043132902269275</v>
+        <v>1.021004076971735</v>
       </c>
       <c r="D7">
-        <v>1.050126502464741</v>
+        <v>1.032231892806496</v>
       </c>
       <c r="E7">
-        <v>1.05894881003655</v>
+        <v>1.035953413240252</v>
       </c>
       <c r="F7">
-        <v>1.063353557413658</v>
+        <v>1.038909310396459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056227395275256</v>
+        <v>1.048629091322051</v>
       </c>
       <c r="J7">
-        <v>1.061488399930592</v>
+        <v>1.039879440493337</v>
       </c>
       <c r="K7">
-        <v>1.05965255467225</v>
+        <v>1.041953392524204</v>
       </c>
       <c r="L7">
-        <v>1.068381476097715</v>
+        <v>1.045633582448084</v>
       </c>
       <c r="M7">
-        <v>1.072740306330646</v>
+        <v>1.048556911179019</v>
       </c>
       <c r="N7">
-        <v>1.062995835212914</v>
+        <v>1.041356188574676</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029519451061386</v>
+        <v>1.015202517448675</v>
       </c>
       <c r="D8">
-        <v>1.039397960302672</v>
+        <v>1.028112969425184</v>
       </c>
       <c r="E8">
-        <v>1.045844019361733</v>
+        <v>1.030390964128033</v>
       </c>
       <c r="F8">
-        <v>1.050095087385205</v>
+        <v>1.032619604324284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051293091242682</v>
+        <v>1.046994452340703</v>
       </c>
       <c r="J8">
-        <v>1.050304684793098</v>
+        <v>1.036378733598017</v>
       </c>
       <c r="K8">
-        <v>1.050069450601369</v>
+        <v>1.038925135757014</v>
       </c>
       <c r="L8">
-        <v>1.056436847080169</v>
+        <v>1.041174423950758</v>
       </c>
       <c r="M8">
-        <v>1.060636694155766</v>
+        <v>1.043375132372772</v>
       </c>
       <c r="N8">
-        <v>1.051796237917135</v>
+        <v>1.037850510274028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003154615138206</v>
+        <v>1.004508497150085</v>
       </c>
       <c r="D9">
-        <v>1.018636158084519</v>
+        <v>1.020545332008019</v>
       </c>
       <c r="E9">
-        <v>1.020520719292887</v>
+        <v>1.020180403016244</v>
       </c>
       <c r="F9">
-        <v>1.024481807233329</v>
+        <v>1.021079527151618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041609275585591</v>
+        <v>1.043913403514867</v>
       </c>
       <c r="J9">
-        <v>1.02859646551324</v>
+        <v>1.029903047160446</v>
       </c>
       <c r="K9">
-        <v>1.031433943222534</v>
+        <v>1.033313643577715</v>
       </c>
       <c r="L9">
-        <v>1.033289409934618</v>
+        <v>1.032954337422975</v>
       </c>
       <c r="M9">
-        <v>1.037189790205865</v>
+        <v>1.033839617077017</v>
       </c>
       <c r="N9">
-        <v>1.030057190475933</v>
+        <v>1.031365627618944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9835281426216697</v>
+        <v>0.9970275029557453</v>
       </c>
       <c r="D10">
-        <v>1.003208117266662</v>
+        <v>1.015271774318981</v>
       </c>
       <c r="E10">
-        <v>1.00171866487317</v>
+        <v>1.0130682416121</v>
       </c>
       <c r="F10">
-        <v>1.005469539765523</v>
+        <v>1.013043625494796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034321846728805</v>
+        <v>1.041714287456236</v>
       </c>
       <c r="J10">
-        <v>1.012410883272066</v>
+        <v>1.025359554651956</v>
       </c>
       <c r="K10">
-        <v>1.01751968874976</v>
+        <v>1.0293706602034</v>
       </c>
       <c r="L10">
-        <v>1.016056957476016</v>
+        <v>1.02720548670437</v>
       </c>
       <c r="M10">
-        <v>1.019740737249524</v>
+        <v>1.02718130032628</v>
       </c>
       <c r="N10">
-        <v>1.013848622851464</v>
+        <v>1.026815682829946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9744108258366205</v>
+        <v>0.9936962528521058</v>
       </c>
       <c r="D11">
-        <v>0.9960524134772977</v>
+        <v>1.012929168180367</v>
       </c>
       <c r="E11">
-        <v>0.9929989535116038</v>
+        <v>1.009908909034313</v>
       </c>
       <c r="F11">
-        <v>0.9966536356754395</v>
+        <v>1.009474184604347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030920477708693</v>
+        <v>1.040725159647322</v>
       </c>
       <c r="J11">
-        <v>1.004888299614134</v>
+        <v>1.023333646974905</v>
       </c>
       <c r="K11">
-        <v>1.011049161460963</v>
+        <v>1.027611309933059</v>
       </c>
       <c r="L11">
-        <v>1.008054118163874</v>
+        <v>1.024646346298629</v>
       </c>
       <c r="M11">
-        <v>1.01163893665801</v>
+        <v>1.024219616382321</v>
       </c>
       <c r="N11">
-        <v>1.006315356261885</v>
+        <v>1.024786898131619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9709167351764094</v>
+        <v>0.9924442842056107</v>
       </c>
       <c r="D12">
-        <v>0.9933122804937541</v>
+        <v>1.012049686912056</v>
       </c>
       <c r="E12">
-        <v>0.9896597500455154</v>
+        <v>1.008722742209625</v>
       </c>
       <c r="F12">
-        <v>0.9932777991924644</v>
+        <v>1.00813404892986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029614820994811</v>
+        <v>1.040351982318565</v>
       </c>
       <c r="J12">
-        <v>1.002005071069663</v>
+        <v>1.022571893883091</v>
       </c>
       <c r="K12">
-        <v>1.008568738119615</v>
+        <v>1.02694961859562</v>
       </c>
       <c r="L12">
-        <v>1.004987770872323</v>
+        <v>1.023684714779276</v>
       </c>
       <c r="M12">
-        <v>1.008534929175105</v>
+        <v>1.02310705513249</v>
       </c>
       <c r="N12">
-        <v>1.00342803320217</v>
+        <v>1.024024063263041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9716713651718667</v>
+        <v>0.9927135093231848</v>
       </c>
       <c r="D13">
-        <v>0.9939039677872488</v>
+        <v>1.012238768547379</v>
       </c>
       <c r="E13">
-        <v>0.9903808098089634</v>
+        <v>1.008977762785838</v>
       </c>
       <c r="F13">
-        <v>0.9940067600521141</v>
+        <v>1.00842217234739</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029896898497811</v>
+        <v>1.040432295119832</v>
       </c>
       <c r="J13">
-        <v>1.002627779897987</v>
+        <v>1.022735718161213</v>
       </c>
       <c r="K13">
-        <v>1.009104467544148</v>
+        <v>1.027091930589626</v>
       </c>
       <c r="L13">
-        <v>1.005649986028032</v>
+        <v>1.023891497569823</v>
       </c>
       <c r="M13">
-        <v>1.009205265673232</v>
+        <v>1.023346278126344</v>
       </c>
       <c r="N13">
-        <v>1.004051626348456</v>
+        <v>1.024188120190428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9741242925864052</v>
+        <v>0.9935930671701489</v>
       </c>
       <c r="D14">
-        <v>0.9958276610290236</v>
+        <v>1.012856663091084</v>
       </c>
       <c r="E14">
-        <v>0.9927250691022543</v>
+        <v>1.009811122229392</v>
       </c>
       <c r="F14">
-        <v>0.9963767424167583</v>
+        <v>1.009363704766661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030813448316409</v>
+        <v>1.040694431799061</v>
       </c>
       <c r="J14">
-        <v>1.004651864515079</v>
+        <v>1.023270871419285</v>
       </c>
       <c r="K14">
-        <v>1.010845765631177</v>
+        <v>1.027556783667645</v>
       </c>
       <c r="L14">
-        <v>1.007802647415551</v>
+        <v>1.024567086380272</v>
       </c>
       <c r="M14">
-        <v>1.011384372118102</v>
+        <v>1.024127909839442</v>
       </c>
       <c r="N14">
-        <v>1.00607858539787</v>
+        <v>1.02472403342751</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9756208837192697</v>
+        <v>0.9941330335853242</v>
       </c>
       <c r="D15">
-        <v>0.9970016569979629</v>
+        <v>1.013236117590406</v>
       </c>
       <c r="E15">
-        <v>0.9941556975952235</v>
+        <v>1.010322885309708</v>
       </c>
       <c r="F15">
-        <v>0.9978230958642574</v>
+        <v>1.009941896349784</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031372389115402</v>
+        <v>1.040855171025939</v>
       </c>
       <c r="J15">
-        <v>1.005886777731265</v>
+        <v>1.023599358673877</v>
       </c>
       <c r="K15">
-        <v>1.011908096611405</v>
+        <v>1.027842098005064</v>
       </c>
       <c r="L15">
-        <v>1.009116131151174</v>
+        <v>1.024981856966392</v>
       </c>
       <c r="M15">
-        <v>1.012714025863344</v>
+        <v>1.024607827565166</v>
       </c>
       <c r="N15">
-        <v>1.00731525233247</v>
+        <v>1.025052987171681</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9841190225281635</v>
+        <v>0.9972465846516919</v>
       </c>
       <c r="D16">
-        <v>1.003672137989826</v>
+        <v>1.015425961977836</v>
       </c>
       <c r="E16">
-        <v>1.002284100427523</v>
+        <v>1.013276180114548</v>
       </c>
       <c r="F16">
-        <v>1.00604124025803</v>
+        <v>1.013278558595984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034541978409559</v>
+        <v>1.041779136152516</v>
       </c>
       <c r="J16">
-        <v>1.012898355331892</v>
+        <v>1.025492736707246</v>
       </c>
       <c r="K16">
-        <v>1.017938922056075</v>
+        <v>1.029486295137509</v>
       </c>
       <c r="L16">
-        <v>1.016575679956326</v>
+        <v>1.027373809960386</v>
       </c>
       <c r="M16">
-        <v>1.020265908473309</v>
+        <v>1.027376147064207</v>
       </c>
       <c r="N16">
-        <v>1.014336787177529</v>
+        <v>1.026949054019031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9892747048574464</v>
+        <v>0.9991744853913607</v>
       </c>
       <c r="D17">
-        <v>1.007722220877824</v>
+        <v>1.016783456391138</v>
       </c>
       <c r="E17">
-        <v>1.007219426846946</v>
+        <v>1.015106899982319</v>
       </c>
       <c r="F17">
-        <v>1.011031394486128</v>
+        <v>1.015346965715152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03646096496554</v>
+        <v>1.042348680910831</v>
       </c>
       <c r="J17">
-        <v>1.017151372382214</v>
+        <v>1.026664423912471</v>
       </c>
       <c r="K17">
-        <v>1.021596192926055</v>
+        <v>1.030503473956872</v>
       </c>
       <c r="L17">
-        <v>1.021102046470631</v>
+        <v>1.028855135684562</v>
       </c>
       <c r="M17">
-        <v>1.024848729063583</v>
+        <v>1.029091153495362</v>
       </c>
       <c r="N17">
-        <v>1.01859584399989</v>
+        <v>1.028122405154482</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9922233435302573</v>
+        <v>1.000290183053531</v>
       </c>
       <c r="D18">
-        <v>1.010039550054767</v>
+        <v>1.017569587630918</v>
       </c>
       <c r="E18">
-        <v>1.010043369213338</v>
+        <v>1.016167083965349</v>
       </c>
       <c r="F18">
-        <v>1.013886828051026</v>
+        <v>1.016544820207391</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037556967603598</v>
+        <v>1.042677343020484</v>
       </c>
       <c r="J18">
-        <v>1.019583397407071</v>
+        <v>1.027342232102967</v>
       </c>
       <c r="K18">
-        <v>1.023687209152771</v>
+        <v>1.031091785445929</v>
       </c>
       <c r="L18">
-        <v>1.023690964067222</v>
+        <v>1.029712468127274</v>
       </c>
       <c r="M18">
-        <v>1.027470086033805</v>
+        <v>1.030083951488977</v>
       </c>
       <c r="N18">
-        <v>1.02103132277924</v>
+        <v>1.028801175910354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9932192059877399</v>
+        <v>1.000669134941614</v>
       </c>
       <c r="D19">
-        <v>1.010822353774509</v>
+        <v>1.017836689143396</v>
       </c>
       <c r="E19">
-        <v>1.010997334644974</v>
+        <v>1.016527302441837</v>
       </c>
       <c r="F19">
-        <v>1.014851451633818</v>
+        <v>1.016951819873328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037926864902628</v>
+        <v>1.042788813896841</v>
       </c>
       <c r="J19">
-        <v>1.020404712717455</v>
+        <v>1.027572407425891</v>
       </c>
       <c r="K19">
-        <v>1.024393302194266</v>
+        <v>1.031291548776021</v>
       </c>
       <c r="L19">
-        <v>1.024565361852286</v>
+        <v>1.030003676267246</v>
       </c>
       <c r="M19">
-        <v>1.028355465166056</v>
+        <v>1.030421210757109</v>
       </c>
       <c r="N19">
-        <v>1.02185380445157</v>
+        <v>1.029031678108638</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9887277031312537</v>
+        <v>0.9989685570624113</v>
       </c>
       <c r="D20">
-        <v>1.007292411839779</v>
+        <v>1.016638399959723</v>
       </c>
       <c r="E20">
-        <v>1.006695663634931</v>
+        <v>1.014911276430804</v>
       </c>
       <c r="F20">
-        <v>1.010501800166516</v>
+        <v>1.015125941548964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036257521486134</v>
+        <v>1.042287942288493</v>
       </c>
       <c r="J20">
-        <v>1.016700176618781</v>
+        <v>1.026539297087841</v>
       </c>
       <c r="K20">
-        <v>1.021208233629914</v>
+        <v>1.030394859246547</v>
       </c>
       <c r="L20">
-        <v>1.020621790837365</v>
+        <v>1.02869690035788</v>
       </c>
       <c r="M20">
-        <v>1.024362467871187</v>
+        <v>1.028907933618122</v>
       </c>
       <c r="N20">
-        <v>1.01814400748672</v>
+        <v>1.027997100635408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9734050681646557</v>
+        <v>0.9933344687399341</v>
       </c>
       <c r="D21">
-        <v>0.995263549092662</v>
+        <v>1.012674969961662</v>
       </c>
       <c r="E21">
-        <v>0.9920376358200533</v>
+        <v>1.009566073488956</v>
       </c>
       <c r="F21">
-        <v>0.9956817604075605</v>
+        <v>1.009086847924572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030544761820915</v>
+        <v>1.040617400306285</v>
       </c>
       <c r="J21">
-        <v>1.004058387189595</v>
+        <v>1.023113540944803</v>
       </c>
       <c r="K21">
-        <v>1.01033521405112</v>
+        <v>1.027420125267028</v>
       </c>
       <c r="L21">
-        <v>1.007171444281684</v>
+        <v>1.024368452109917</v>
       </c>
       <c r="M21">
-        <v>1.010745407601632</v>
+        <v>1.023898088212137</v>
       </c>
       <c r="N21">
-        <v>1.005484265266511</v>
+        <v>1.024566479525708</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9631391713856968</v>
+        <v>0.9897072278851896</v>
       </c>
       <c r="D22">
-        <v>0.9872176983254199</v>
+        <v>1.010128759917227</v>
       </c>
       <c r="E22">
-        <v>0.982232020450542</v>
+        <v>1.006131774678705</v>
       </c>
       <c r="F22">
-        <v>0.9857689734202665</v>
+        <v>1.005206741248356</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026704959205968</v>
+        <v>1.039533548912759</v>
       </c>
       <c r="J22">
-        <v>0.9955870253193021</v>
+        <v>1.020905924136561</v>
       </c>
       <c r="K22">
-        <v>1.003046700347269</v>
+        <v>1.025502199550672</v>
       </c>
       <c r="L22">
-        <v>0.9981638776306098</v>
+        <v>1.021582730794301</v>
       </c>
       <c r="M22">
-        <v>1.001627721310764</v>
+        <v>1.020675752463234</v>
       </c>
       <c r="N22">
-        <v>0.9970008730906834</v>
+        <v>1.022355727648381</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9686470192245648</v>
+        <v>0.9916384174284141</v>
       </c>
       <c r="D23">
-        <v>0.9915330173820115</v>
+        <v>1.011483854492518</v>
       </c>
       <c r="E23">
-        <v>0.9874913999304156</v>
+        <v>1.007959571123727</v>
       </c>
       <c r="F23">
-        <v>0.9910857198504652</v>
+        <v>1.007271813248124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028766124172435</v>
+        <v>1.040111376309154</v>
       </c>
       <c r="J23">
-        <v>1.000132116596595</v>
+        <v>1.022081471378734</v>
       </c>
       <c r="K23">
-        <v>1.006957344510715</v>
+        <v>1.026523572018497</v>
       </c>
       <c r="L23">
-        <v>1.002996131182913</v>
+        <v>1.023065781887044</v>
       </c>
       <c r="M23">
-        <v>1.006518903133826</v>
+        <v>1.022391071005258</v>
       </c>
       <c r="N23">
-        <v>1.001552418918919</v>
+        <v>1.023532944302475</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9889750496421037</v>
+        <v>0.9990616343916506</v>
       </c>
       <c r="D24">
-        <v>1.00748676236434</v>
+        <v>1.016703962213678</v>
       </c>
       <c r="E24">
-        <v>1.006932497894756</v>
+        <v>1.014999693866398</v>
       </c>
       <c r="F24">
-        <v>1.010741270754574</v>
+        <v>1.015225839413265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03634952048277</v>
+        <v>1.042315398391939</v>
       </c>
       <c r="J24">
-        <v>1.016904202160267</v>
+        <v>1.026595853840102</v>
       </c>
       <c r="K24">
-        <v>1.0213836654354</v>
+        <v>1.030443952957406</v>
       </c>
       <c r="L24">
-        <v>1.020838955105981</v>
+        <v>1.028768420754565</v>
       </c>
       <c r="M24">
-        <v>1.024582347296525</v>
+        <v>1.028990746035773</v>
       </c>
       <c r="N24">
-        <v>1.018348322767876</v>
+        <v>1.028053737704745</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010293737743922</v>
+        <v>1.007332430337198</v>
       </c>
       <c r="D25">
-        <v>1.024254794501525</v>
+        <v>1.022540447945922</v>
       </c>
       <c r="E25">
-        <v>1.027370424437626</v>
+        <v>1.022871521051871</v>
       </c>
       <c r="F25">
-        <v>1.031409121007438</v>
+        <v>1.024120551031159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044245326140927</v>
+        <v>1.044734711359091</v>
       </c>
       <c r="J25">
-        <v>1.03447957407106</v>
+        <v>1.031615523850822</v>
       </c>
       <c r="K25">
-        <v>1.036487902449083</v>
+        <v>1.034798646650173</v>
       </c>
       <c r="L25">
-        <v>1.039558204562933</v>
+        <v>1.035124865933849</v>
       </c>
       <c r="M25">
-        <v>1.043538660165481</v>
+        <v>1.03635561988691</v>
       </c>
       <c r="N25">
-        <v>1.035948653722707</v>
+        <v>1.033080536222644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013678208320442</v>
+        <v>1.042376609325035</v>
       </c>
       <c r="D2">
-        <v>1.027032284803582</v>
+        <v>1.042710431440671</v>
       </c>
       <c r="E2">
-        <v>1.028932264481672</v>
+        <v>1.055695459013398</v>
       </c>
       <c r="F2">
-        <v>1.030970598454736</v>
+        <v>1.062600281309674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046560367128999</v>
+        <v>1.039716643391038</v>
       </c>
       <c r="J2">
-        <v>1.035457363889333</v>
+        <v>1.047452762640836</v>
       </c>
       <c r="K2">
-        <v>1.038127437299938</v>
+        <v>1.045486349988568</v>
       </c>
       <c r="L2">
-        <v>1.040002721384682</v>
+        <v>1.058435209496616</v>
       </c>
       <c r="M2">
-        <v>1.042014688073654</v>
+        <v>1.065321189121864</v>
       </c>
       <c r="N2">
-        <v>1.036927832114682</v>
+        <v>1.048940265708298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018151907747082</v>
+        <v>1.04332255882236</v>
       </c>
       <c r="D3">
-        <v>1.030205809159223</v>
+        <v>1.043399377259455</v>
       </c>
       <c r="E3">
-        <v>1.033216663948881</v>
+        <v>1.056662612344168</v>
       </c>
       <c r="F3">
-        <v>1.035814412839051</v>
+        <v>1.063708714444816</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047829052166999</v>
+        <v>1.039934057007037</v>
       </c>
       <c r="J3">
-        <v>1.038159674228585</v>
+        <v>1.048045142904738</v>
       </c>
       <c r="K3">
-        <v>1.040466255348983</v>
+        <v>1.045986502198504</v>
       </c>
       <c r="L3">
-        <v>1.043441465168842</v>
+        <v>1.059215463282434</v>
       </c>
       <c r="M3">
-        <v>1.046008665861027</v>
+        <v>1.06624373195089</v>
       </c>
       <c r="N3">
-        <v>1.039633980044569</v>
+        <v>1.049533487220121</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020988271861307</v>
+        <v>1.043935053734603</v>
       </c>
       <c r="D4">
-        <v>1.032220659466483</v>
+        <v>1.043845452508762</v>
       </c>
       <c r="E4">
-        <v>1.035938236115201</v>
+        <v>1.057289236617194</v>
       </c>
       <c r="F4">
-        <v>1.03889214512918</v>
+        <v>1.064427070793263</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048624677926988</v>
+        <v>1.040073728857357</v>
       </c>
       <c r="J4">
-        <v>1.039869917627636</v>
+        <v>1.048428225592014</v>
       </c>
       <c r="K4">
-        <v>1.041945160801713</v>
+        <v>1.046309737435667</v>
       </c>
       <c r="L4">
-        <v>1.045621435686571</v>
+        <v>1.059720528971374</v>
       </c>
       <c r="M4">
-        <v>1.048542786099388</v>
+        <v>1.066841209977712</v>
       </c>
       <c r="N4">
-        <v>1.041346652185414</v>
+        <v>1.049917113928754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022167188056219</v>
+        <v>1.044192642123489</v>
       </c>
       <c r="D5">
-        <v>1.033058742432352</v>
+        <v>1.044033048672188</v>
       </c>
       <c r="E5">
-        <v>1.037070670928165</v>
+        <v>1.057552862702398</v>
       </c>
       <c r="F5">
-        <v>1.040172988614433</v>
+        <v>1.064729336485241</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048953246437527</v>
+        <v>1.040132204833201</v>
       </c>
       <c r="J5">
-        <v>1.040580009311627</v>
+        <v>1.048589218452119</v>
       </c>
       <c r="K5">
-        <v>1.042558880032553</v>
+        <v>1.046445529766475</v>
       </c>
       <c r="L5">
-        <v>1.046527446689298</v>
+        <v>1.059932903052003</v>
       </c>
       <c r="M5">
-        <v>1.04959651469429</v>
+        <v>1.067092516040786</v>
       </c>
       <c r="N5">
-        <v>1.042057752281044</v>
+        <v>1.050078335417185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02236435605353</v>
+        <v>1.044235897926324</v>
       </c>
       <c r="D6">
-        <v>1.03319894295896</v>
+        <v>1.044064550736421</v>
       </c>
       <c r="E6">
-        <v>1.037260136870217</v>
+        <v>1.0575971379846</v>
       </c>
       <c r="F6">
-        <v>1.040387297583404</v>
+        <v>1.064780103955166</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049008071870754</v>
+        <v>1.040142008998943</v>
       </c>
       <c r="J6">
-        <v>1.040698723189759</v>
+        <v>1.048616246608269</v>
       </c>
       <c r="K6">
-        <v>1.042661463049671</v>
+        <v>1.046468324257667</v>
       </c>
       <c r="L6">
-        <v>1.04667896720726</v>
+        <v>1.059968564177231</v>
       </c>
       <c r="M6">
-        <v>1.049772770897436</v>
+        <v>1.067134718816227</v>
       </c>
       <c r="N6">
-        <v>1.0421766347465</v>
+        <v>1.050105401956418</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021004076971735</v>
+        <v>1.043938495268882</v>
       </c>
       <c r="D7">
-        <v>1.032231892806496</v>
+        <v>1.043847958919544</v>
       </c>
       <c r="E7">
-        <v>1.035953413240252</v>
+        <v>1.057292758443799</v>
       </c>
       <c r="F7">
-        <v>1.038909310396459</v>
+        <v>1.064431108627585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048629091322051</v>
+        <v>1.040074511167926</v>
       </c>
       <c r="J7">
-        <v>1.039879440493337</v>
+        <v>1.04843037700396</v>
       </c>
       <c r="K7">
-        <v>1.041953392524204</v>
+        <v>1.046311552276713</v>
       </c>
       <c r="L7">
-        <v>1.045633582448084</v>
+        <v>1.059723366550584</v>
       </c>
       <c r="M7">
-        <v>1.048556911179019</v>
+        <v>1.06684456744641</v>
       </c>
       <c r="N7">
-        <v>1.041356188574676</v>
+        <v>1.04991926839595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015202517448675</v>
+        <v>1.042696213603381</v>
       </c>
       <c r="D8">
-        <v>1.028112969425184</v>
+        <v>1.042943204952735</v>
       </c>
       <c r="E8">
-        <v>1.030390964128033</v>
+        <v>1.056022144397101</v>
       </c>
       <c r="F8">
-        <v>1.032619604324284</v>
+        <v>1.062974647801964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046994452340703</v>
+        <v>1.039790328055677</v>
       </c>
       <c r="J8">
-        <v>1.036378733598017</v>
+        <v>1.047653006854585</v>
       </c>
       <c r="K8">
-        <v>1.038925135757014</v>
+        <v>1.045655460427785</v>
       </c>
       <c r="L8">
-        <v>1.041174423950758</v>
+        <v>1.058698860201217</v>
       </c>
       <c r="M8">
-        <v>1.043375132372772</v>
+        <v>1.065632856303001</v>
       </c>
       <c r="N8">
-        <v>1.037850510274028</v>
+        <v>1.049140794291798</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004508497150085</v>
+        <v>1.040510270919143</v>
       </c>
       <c r="D9">
-        <v>1.020545332008019</v>
+        <v>1.041351119723843</v>
       </c>
       <c r="E9">
-        <v>1.020180403016244</v>
+        <v>1.053789418973204</v>
       </c>
       <c r="F9">
-        <v>1.021079527151618</v>
+        <v>1.060416840406693</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043913403514867</v>
+        <v>1.039281850648589</v>
       </c>
       <c r="J9">
-        <v>1.029903047160446</v>
+        <v>1.046281477021751</v>
       </c>
       <c r="K9">
-        <v>1.033313643577715</v>
+        <v>1.044496339705955</v>
       </c>
       <c r="L9">
-        <v>1.032954337422975</v>
+        <v>1.056895036893075</v>
       </c>
       <c r="M9">
-        <v>1.033839617077017</v>
+        <v>1.063501771889864</v>
       </c>
       <c r="N9">
-        <v>1.031365627618944</v>
+        <v>1.047767316729285</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9970275029557453</v>
+        <v>1.039055116650466</v>
       </c>
       <c r="D10">
-        <v>1.015271774318981</v>
+        <v>1.040291284024355</v>
       </c>
       <c r="E10">
-        <v>1.0130682416121</v>
+        <v>1.052305202268135</v>
       </c>
       <c r="F10">
-        <v>1.013043625494796</v>
+        <v>1.058717510664453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041714287456236</v>
+        <v>1.038937707597168</v>
       </c>
       <c r="J10">
-        <v>1.025359554651956</v>
+        <v>1.045366022737379</v>
       </c>
       <c r="K10">
-        <v>1.0293706602034</v>
+        <v>1.043721620087306</v>
       </c>
       <c r="L10">
-        <v>1.02720548670437</v>
+        <v>1.055693538229796</v>
       </c>
       <c r="M10">
-        <v>1.02718130032628</v>
+        <v>1.062083858612576</v>
       </c>
       <c r="N10">
-        <v>1.026815682829946</v>
+        <v>1.046850562394825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9936962528521058</v>
+        <v>1.038425535691642</v>
       </c>
       <c r="D11">
-        <v>1.012929168180367</v>
+        <v>1.0398327468533</v>
       </c>
       <c r="E11">
-        <v>1.009908909034313</v>
+        <v>1.051663544095312</v>
       </c>
       <c r="F11">
-        <v>1.009474184604347</v>
+        <v>1.05798308586144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040725159647322</v>
+        <v>1.03878747174536</v>
       </c>
       <c r="J11">
-        <v>1.023333646974905</v>
+        <v>1.04496936892419</v>
       </c>
       <c r="K11">
-        <v>1.027611309933059</v>
+        <v>1.043385699691543</v>
       </c>
       <c r="L11">
-        <v>1.024646346298629</v>
+        <v>1.055173535295112</v>
       </c>
       <c r="M11">
-        <v>1.024219616382321</v>
+        <v>1.061470562900381</v>
       </c>
       <c r="N11">
-        <v>1.024786898131619</v>
+        <v>1.046453345287725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9924442842056107</v>
+        <v>1.038191758651509</v>
       </c>
       <c r="D12">
-        <v>1.012049686912056</v>
+        <v>1.039662483782722</v>
       </c>
       <c r="E12">
-        <v>1.008722742209625</v>
+        <v>1.051425357460392</v>
       </c>
       <c r="F12">
-        <v>1.00813404892986</v>
+        <v>1.057710498316022</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040351982318565</v>
+        <v>1.038731484620387</v>
       </c>
       <c r="J12">
-        <v>1.022571893883091</v>
+        <v>1.044821996261173</v>
       </c>
       <c r="K12">
-        <v>1.02694961859562</v>
+        <v>1.043260855273524</v>
       </c>
       <c r="L12">
-        <v>1.023684714779276</v>
+        <v>1.054980421969844</v>
       </c>
       <c r="M12">
-        <v>1.02310705513249</v>
+        <v>1.061242858988854</v>
       </c>
       <c r="N12">
-        <v>1.024024063263041</v>
+        <v>1.046305763338622</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9927135093231848</v>
+        <v>1.038241901108642</v>
       </c>
       <c r="D13">
-        <v>1.012238768547379</v>
+        <v>1.0396990031438</v>
       </c>
       <c r="E13">
-        <v>1.008977762785838</v>
+        <v>1.051476442328447</v>
       </c>
       <c r="F13">
-        <v>1.00842217234739</v>
+        <v>1.057768959730717</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040432295119832</v>
+        <v>1.038743502316263</v>
       </c>
       <c r="J13">
-        <v>1.022735718161213</v>
+        <v>1.044853609895901</v>
       </c>
       <c r="K13">
-        <v>1.027091930589626</v>
+        <v>1.043287637918608</v>
       </c>
       <c r="L13">
-        <v>1.023891497569823</v>
+        <v>1.055021843660141</v>
       </c>
       <c r="M13">
-        <v>1.023346278126344</v>
+        <v>1.061291697649157</v>
       </c>
       <c r="N13">
-        <v>1.024188120190428</v>
+        <v>1.046337421868338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9935930671701489</v>
+        <v>1.038406210026548</v>
       </c>
       <c r="D14">
-        <v>1.012856663091084</v>
+        <v>1.039818671663847</v>
       </c>
       <c r="E14">
-        <v>1.009811122229392</v>
+        <v>1.051643852371364</v>
       </c>
       <c r="F14">
-        <v>1.009363704766661</v>
+        <v>1.057960549390773</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040694431799061</v>
+        <v>1.038782847559728</v>
       </c>
       <c r="J14">
-        <v>1.023270871419285</v>
+        <v>1.044957187820474</v>
       </c>
       <c r="K14">
-        <v>1.027556783667645</v>
+        <v>1.043375381408685</v>
       </c>
       <c r="L14">
-        <v>1.024567086380272</v>
+        <v>1.055157571689025</v>
       </c>
       <c r="M14">
-        <v>1.024127909839442</v>
+        <v>1.061451738750672</v>
       </c>
       <c r="N14">
-        <v>1.02472403342751</v>
+        <v>1.046441146885444</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9941330335853242</v>
+        <v>1.038507456444908</v>
       </c>
       <c r="D15">
-        <v>1.013236117590406</v>
+        <v>1.039892411115594</v>
       </c>
       <c r="E15">
-        <v>1.010322885309708</v>
+        <v>1.051747019628981</v>
       </c>
       <c r="F15">
-        <v>1.009941896349784</v>
+        <v>1.058078622023409</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040855171025939</v>
+        <v>1.038807065246574</v>
       </c>
       <c r="J15">
-        <v>1.023599358673877</v>
+        <v>1.045021000613497</v>
       </c>
       <c r="K15">
-        <v>1.027842098005064</v>
+        <v>1.043429433997274</v>
       </c>
       <c r="L15">
-        <v>1.024981856966392</v>
+        <v>1.055241203387294</v>
       </c>
       <c r="M15">
-        <v>1.024607827565166</v>
+        <v>1.06155035881736</v>
       </c>
       <c r="N15">
-        <v>1.025052987171681</v>
+        <v>1.046505050299952</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9972465846516919</v>
+        <v>1.039096910676884</v>
       </c>
       <c r="D16">
-        <v>1.015425961977836</v>
+        <v>1.040321723703521</v>
       </c>
       <c r="E16">
-        <v>1.013276180114548</v>
+        <v>1.052347808522798</v>
       </c>
       <c r="F16">
-        <v>1.013278558595984</v>
+        <v>1.058766281501135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041779136152516</v>
+        <v>1.038947652593263</v>
       </c>
       <c r="J16">
-        <v>1.025492736707246</v>
+        <v>1.045392342008875</v>
       </c>
       <c r="K16">
-        <v>1.029486295137509</v>
+        <v>1.0437439043533</v>
       </c>
       <c r="L16">
-        <v>1.027373809960386</v>
+        <v>1.055728054527322</v>
       </c>
       <c r="M16">
-        <v>1.027376147064207</v>
+        <v>1.062124575211079</v>
       </c>
       <c r="N16">
-        <v>1.026949054019031</v>
+        <v>1.046876919042705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9991744853913607</v>
+        <v>1.039466796875964</v>
       </c>
       <c r="D17">
-        <v>1.016783456391138</v>
+        <v>1.040591122349336</v>
       </c>
       <c r="E17">
-        <v>1.015106899982319</v>
+        <v>1.052724940572631</v>
       </c>
       <c r="F17">
-        <v>1.015346965715152</v>
+        <v>1.059198006461685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042348680910831</v>
+        <v>1.039035513068705</v>
       </c>
       <c r="J17">
-        <v>1.026664423912471</v>
+        <v>1.045625206589244</v>
       </c>
       <c r="K17">
-        <v>1.030503473956872</v>
+        <v>1.043941040212354</v>
       </c>
       <c r="L17">
-        <v>1.028855135684562</v>
+        <v>1.056033511907792</v>
       </c>
       <c r="M17">
-        <v>1.029091153495362</v>
+        <v>1.062484945914682</v>
       </c>
       <c r="N17">
-        <v>1.028122405154482</v>
+        <v>1.047110114317488</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000290183053531</v>
+        <v>1.039682594442822</v>
       </c>
       <c r="D18">
-        <v>1.017569587630918</v>
+        <v>1.040748294481105</v>
       </c>
       <c r="E18">
-        <v>1.016167083965349</v>
+        <v>1.052945013424532</v>
       </c>
       <c r="F18">
-        <v>1.016544820207391</v>
+        <v>1.059449958987378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042677343020484</v>
+        <v>1.039086642893276</v>
       </c>
       <c r="J18">
-        <v>1.027342232102967</v>
+        <v>1.045761007805698</v>
       </c>
       <c r="K18">
-        <v>1.031091785445929</v>
+        <v>1.044055981627889</v>
       </c>
       <c r="L18">
-        <v>1.029712468127274</v>
+        <v>1.056211704477203</v>
       </c>
       <c r="M18">
-        <v>1.030083951488977</v>
+        <v>1.062695208652943</v>
       </c>
       <c r="N18">
-        <v>1.028801175910354</v>
+        <v>1.047246108387246</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000669134941614</v>
+        <v>1.039756184162054</v>
       </c>
       <c r="D19">
-        <v>1.017836689143396</v>
+        <v>1.040801892265255</v>
       </c>
       <c r="E19">
-        <v>1.016527302441837</v>
+        <v>1.053020069192708</v>
       </c>
       <c r="F19">
-        <v>1.016951819873328</v>
+        <v>1.059535891105151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042788813896841</v>
+        <v>1.039104056865424</v>
       </c>
       <c r="J19">
-        <v>1.027572407425891</v>
+        <v>1.045807308291345</v>
       </c>
       <c r="K19">
-        <v>1.031291548776021</v>
+        <v>1.044095166093609</v>
       </c>
       <c r="L19">
-        <v>1.030003676267246</v>
+        <v>1.05627246766178</v>
       </c>
       <c r="M19">
-        <v>1.030421210757109</v>
+        <v>1.062766913748228</v>
       </c>
       <c r="N19">
-        <v>1.029031678108638</v>
+        <v>1.047292474624894</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9989685570624113</v>
+        <v>1.039427106492975</v>
       </c>
       <c r="D20">
-        <v>1.016638399959723</v>
+        <v>1.040562214644634</v>
       </c>
       <c r="E20">
-        <v>1.014911276430804</v>
+        <v>1.052684467718397</v>
       </c>
       <c r="F20">
-        <v>1.015125941548964</v>
+        <v>1.059151672525087</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042287942288493</v>
+        <v>1.039026098643022</v>
       </c>
       <c r="J20">
-        <v>1.026539297087841</v>
+        <v>1.045600224978899</v>
       </c>
       <c r="K20">
-        <v>1.030394859246547</v>
+        <v>1.043919894007755</v>
       </c>
       <c r="L20">
-        <v>1.02869690035788</v>
+        <v>1.05600073668739</v>
       </c>
       <c r="M20">
-        <v>1.028907933618122</v>
+        <v>1.062446274860967</v>
       </c>
       <c r="N20">
-        <v>1.027997100635408</v>
+        <v>1.047085097230392</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9933344687399341</v>
+        <v>1.038357823004577</v>
       </c>
       <c r="D21">
-        <v>1.012674969961662</v>
+        <v>1.039783430655556</v>
       </c>
       <c r="E21">
-        <v>1.009566073488956</v>
+        <v>1.051594550033822</v>
       </c>
       <c r="F21">
-        <v>1.009086847924572</v>
+        <v>1.057904125193395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040617400306285</v>
+        <v>1.038771266410273</v>
       </c>
       <c r="J21">
-        <v>1.023113540944803</v>
+        <v>1.0449266877405</v>
       </c>
       <c r="K21">
-        <v>1.027420125267028</v>
+        <v>1.043349545026297</v>
       </c>
       <c r="L21">
-        <v>1.024368452109917</v>
+        <v>1.055117602086929</v>
       </c>
       <c r="M21">
-        <v>1.023898088212137</v>
+        <v>1.061404607829387</v>
       </c>
       <c r="N21">
-        <v>1.024566479525708</v>
+        <v>1.046410603491857</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897072278851896</v>
+        <v>1.03768596995389</v>
       </c>
       <c r="D22">
-        <v>1.010128759917227</v>
+        <v>1.039294114690841</v>
       </c>
       <c r="E22">
-        <v>1.006131774678705</v>
+        <v>1.05091016570998</v>
       </c>
       <c r="F22">
-        <v>1.005206741248356</v>
+        <v>1.057120961096368</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039533548912759</v>
+        <v>1.038609985611589</v>
       </c>
       <c r="J22">
-        <v>1.020905924136561</v>
+        <v>1.044502989933171</v>
       </c>
       <c r="K22">
-        <v>1.025502199550672</v>
+        <v>1.04299054730085</v>
       </c>
       <c r="L22">
-        <v>1.021582730794301</v>
+        <v>1.054562565862327</v>
       </c>
       <c r="M22">
-        <v>1.020675752463234</v>
+        <v>1.060750257599365</v>
       </c>
       <c r="N22">
-        <v>1.022355727648381</v>
+        <v>1.045986303985043</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9916384174284141</v>
+        <v>1.038042089284659</v>
       </c>
       <c r="D23">
-        <v>1.011483854492518</v>
+        <v>1.039553478064623</v>
       </c>
       <c r="E23">
-        <v>1.007959571123727</v>
+        <v>1.051272886102045</v>
       </c>
       <c r="F23">
-        <v>1.007271813248124</v>
+        <v>1.057536015452561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040111376309154</v>
+        <v>1.038695583735296</v>
       </c>
       <c r="J23">
-        <v>1.022081471378734</v>
+        <v>1.044727620608668</v>
       </c>
       <c r="K23">
-        <v>1.026523572018497</v>
+        <v>1.043180896141996</v>
       </c>
       <c r="L23">
-        <v>1.023065781887044</v>
+        <v>1.05485677942904</v>
       </c>
       <c r="M23">
-        <v>1.022391071005258</v>
+        <v>1.061097085128131</v>
       </c>
       <c r="N23">
-        <v>1.023532944302475</v>
+        <v>1.046211253661865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9990616343916506</v>
+        <v>1.039445040716569</v>
       </c>
       <c r="D24">
-        <v>1.016703962213678</v>
+        <v>1.04057527667953</v>
       </c>
       <c r="E24">
-        <v>1.014999693866398</v>
+        <v>1.052702755356007</v>
       </c>
       <c r="F24">
-        <v>1.015225839413265</v>
+        <v>1.059172608420551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042315398391939</v>
+        <v>1.03903035298046</v>
       </c>
       <c r="J24">
-        <v>1.026595853840102</v>
+        <v>1.045611513169816</v>
       </c>
       <c r="K24">
-        <v>1.030443952957406</v>
+        <v>1.043929449205233</v>
       </c>
       <c r="L24">
-        <v>1.028768420754565</v>
+        <v>1.056015546323195</v>
       </c>
       <c r="M24">
-        <v>1.028990746035773</v>
+        <v>1.062463748445972</v>
       </c>
       <c r="N24">
-        <v>1.028053737704745</v>
+        <v>1.047096401451834</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007332430337198</v>
+        <v>1.04107501551716</v>
       </c>
       <c r="D25">
-        <v>1.022540447945922</v>
+        <v>1.041762443107785</v>
       </c>
       <c r="E25">
-        <v>1.022871521051871</v>
+        <v>1.054365884258826</v>
       </c>
       <c r="F25">
-        <v>1.024120551031159</v>
+        <v>1.061077063132807</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044734711359091</v>
+        <v>1.039414215308662</v>
       </c>
       <c r="J25">
-        <v>1.031615523850822</v>
+        <v>1.046636247718328</v>
       </c>
       <c r="K25">
-        <v>1.034798646650173</v>
+        <v>1.044796351276011</v>
       </c>
       <c r="L25">
-        <v>1.035124865933849</v>
+        <v>1.057361187015423</v>
       </c>
       <c r="M25">
-        <v>1.03635561988691</v>
+        <v>1.064052216702933</v>
       </c>
       <c r="N25">
-        <v>1.033080536222644</v>
+        <v>1.048122591240943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042376609325035</v>
+        <v>1.013678208320442</v>
       </c>
       <c r="D2">
-        <v>1.042710431440671</v>
+        <v>1.027032284803582</v>
       </c>
       <c r="E2">
-        <v>1.055695459013398</v>
+        <v>1.028932264481672</v>
       </c>
       <c r="F2">
-        <v>1.062600281309674</v>
+        <v>1.030970598454736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039716643391038</v>
+        <v>1.046560367128999</v>
       </c>
       <c r="J2">
-        <v>1.047452762640836</v>
+        <v>1.035457363889332</v>
       </c>
       <c r="K2">
-        <v>1.045486349988568</v>
+        <v>1.038127437299938</v>
       </c>
       <c r="L2">
-        <v>1.058435209496616</v>
+        <v>1.040002721384681</v>
       </c>
       <c r="M2">
-        <v>1.065321189121864</v>
+        <v>1.042014688073653</v>
       </c>
       <c r="N2">
-        <v>1.048940265708298</v>
+        <v>1.036927832114682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04332255882236</v>
+        <v>1.018151907747082</v>
       </c>
       <c r="D3">
-        <v>1.043399377259455</v>
+        <v>1.030205809159223</v>
       </c>
       <c r="E3">
-        <v>1.056662612344168</v>
+        <v>1.03321666394888</v>
       </c>
       <c r="F3">
-        <v>1.063708714444816</v>
+        <v>1.035814412839051</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039934057007037</v>
+        <v>1.047829052166999</v>
       </c>
       <c r="J3">
-        <v>1.048045142904738</v>
+        <v>1.038159674228585</v>
       </c>
       <c r="K3">
-        <v>1.045986502198504</v>
+        <v>1.040466255348983</v>
       </c>
       <c r="L3">
-        <v>1.059215463282434</v>
+        <v>1.043441465168842</v>
       </c>
       <c r="M3">
-        <v>1.06624373195089</v>
+        <v>1.046008665861027</v>
       </c>
       <c r="N3">
-        <v>1.049533487220121</v>
+        <v>1.039633980044569</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043935053734603</v>
+        <v>1.020988271861307</v>
       </c>
       <c r="D4">
-        <v>1.043845452508762</v>
+        <v>1.032220659466483</v>
       </c>
       <c r="E4">
-        <v>1.057289236617194</v>
+        <v>1.0359382361152</v>
       </c>
       <c r="F4">
-        <v>1.064427070793263</v>
+        <v>1.038892145129179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040073728857357</v>
+        <v>1.048624677926987</v>
       </c>
       <c r="J4">
-        <v>1.048428225592014</v>
+        <v>1.039869917627635</v>
       </c>
       <c r="K4">
-        <v>1.046309737435667</v>
+        <v>1.041945160801713</v>
       </c>
       <c r="L4">
-        <v>1.059720528971374</v>
+        <v>1.04562143568657</v>
       </c>
       <c r="M4">
-        <v>1.066841209977712</v>
+        <v>1.048542786099388</v>
       </c>
       <c r="N4">
-        <v>1.049917113928754</v>
+        <v>1.041346652185413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044192642123489</v>
+        <v>1.022167188056219</v>
       </c>
       <c r="D5">
-        <v>1.044033048672188</v>
+        <v>1.033058742432352</v>
       </c>
       <c r="E5">
-        <v>1.057552862702398</v>
+        <v>1.037070670928165</v>
       </c>
       <c r="F5">
-        <v>1.064729336485241</v>
+        <v>1.040172988614433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040132204833201</v>
+        <v>1.048953246437527</v>
       </c>
       <c r="J5">
-        <v>1.048589218452119</v>
+        <v>1.040580009311627</v>
       </c>
       <c r="K5">
-        <v>1.046445529766475</v>
+        <v>1.042558880032553</v>
       </c>
       <c r="L5">
-        <v>1.059932903052003</v>
+        <v>1.046527446689298</v>
       </c>
       <c r="M5">
-        <v>1.067092516040786</v>
+        <v>1.04959651469429</v>
       </c>
       <c r="N5">
-        <v>1.050078335417185</v>
+        <v>1.042057752281044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044235897926324</v>
+        <v>1.02236435605353</v>
       </c>
       <c r="D6">
-        <v>1.044064550736421</v>
+        <v>1.03319894295896</v>
       </c>
       <c r="E6">
-        <v>1.0575971379846</v>
+        <v>1.037260136870217</v>
       </c>
       <c r="F6">
-        <v>1.064780103955166</v>
+        <v>1.040387297583405</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040142008998943</v>
+        <v>1.049008071870754</v>
       </c>
       <c r="J6">
-        <v>1.048616246608269</v>
+        <v>1.040698723189759</v>
       </c>
       <c r="K6">
-        <v>1.046468324257667</v>
+        <v>1.042661463049671</v>
       </c>
       <c r="L6">
-        <v>1.059968564177231</v>
+        <v>1.04667896720726</v>
       </c>
       <c r="M6">
-        <v>1.067134718816227</v>
+        <v>1.049772770897436</v>
       </c>
       <c r="N6">
-        <v>1.050105401956418</v>
+        <v>1.0421766347465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043938495268882</v>
+        <v>1.021004076971735</v>
       </c>
       <c r="D7">
-        <v>1.043847958919544</v>
+        <v>1.032231892806496</v>
       </c>
       <c r="E7">
-        <v>1.057292758443799</v>
+        <v>1.035953413240252</v>
       </c>
       <c r="F7">
-        <v>1.064431108627585</v>
+        <v>1.038909310396459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040074511167926</v>
+        <v>1.048629091322051</v>
       </c>
       <c r="J7">
-        <v>1.04843037700396</v>
+        <v>1.039879440493337</v>
       </c>
       <c r="K7">
-        <v>1.046311552276713</v>
+        <v>1.041953392524204</v>
       </c>
       <c r="L7">
-        <v>1.059723366550584</v>
+        <v>1.045633582448083</v>
       </c>
       <c r="M7">
-        <v>1.06684456744641</v>
+        <v>1.048556911179019</v>
       </c>
       <c r="N7">
-        <v>1.04991926839595</v>
+        <v>1.041356188574677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042696213603381</v>
+        <v>1.015202517448674</v>
       </c>
       <c r="D8">
-        <v>1.042943204952735</v>
+        <v>1.028112969425184</v>
       </c>
       <c r="E8">
-        <v>1.056022144397101</v>
+        <v>1.030390964128032</v>
       </c>
       <c r="F8">
-        <v>1.062974647801964</v>
+        <v>1.032619604324283</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039790328055677</v>
+        <v>1.046994452340703</v>
       </c>
       <c r="J8">
-        <v>1.047653006854585</v>
+        <v>1.036378733598016</v>
       </c>
       <c r="K8">
-        <v>1.045655460427785</v>
+        <v>1.038925135757014</v>
       </c>
       <c r="L8">
-        <v>1.058698860201217</v>
+        <v>1.041174423950757</v>
       </c>
       <c r="M8">
-        <v>1.065632856303001</v>
+        <v>1.043375132372772</v>
       </c>
       <c r="N8">
-        <v>1.049140794291798</v>
+        <v>1.037850510274028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040510270919143</v>
+        <v>1.004508497150084</v>
       </c>
       <c r="D9">
-        <v>1.041351119723843</v>
+        <v>1.020545332008018</v>
       </c>
       <c r="E9">
-        <v>1.053789418973204</v>
+        <v>1.020180403016243</v>
       </c>
       <c r="F9">
-        <v>1.060416840406693</v>
+        <v>1.021079527151618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039281850648589</v>
+        <v>1.043913403514867</v>
       </c>
       <c r="J9">
-        <v>1.046281477021751</v>
+        <v>1.029903047160445</v>
       </c>
       <c r="K9">
-        <v>1.044496339705955</v>
+        <v>1.033313643577714</v>
       </c>
       <c r="L9">
-        <v>1.056895036893075</v>
+        <v>1.032954337422975</v>
       </c>
       <c r="M9">
-        <v>1.063501771889864</v>
+        <v>1.033839617077017</v>
       </c>
       <c r="N9">
-        <v>1.047767316729285</v>
+        <v>1.031365627618944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039055116650466</v>
+        <v>0.9970275029557443</v>
       </c>
       <c r="D10">
-        <v>1.040291284024355</v>
+        <v>1.015271774318981</v>
       </c>
       <c r="E10">
-        <v>1.052305202268135</v>
+        <v>1.0130682416121</v>
       </c>
       <c r="F10">
-        <v>1.058717510664453</v>
+        <v>1.013043625494795</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038937707597168</v>
+        <v>1.041714287456236</v>
       </c>
       <c r="J10">
-        <v>1.045366022737379</v>
+        <v>1.025359554651955</v>
       </c>
       <c r="K10">
-        <v>1.043721620087306</v>
+        <v>1.029370660203399</v>
       </c>
       <c r="L10">
-        <v>1.055693538229796</v>
+        <v>1.027205486704369</v>
       </c>
       <c r="M10">
-        <v>1.062083858612576</v>
+        <v>1.02718130032628</v>
       </c>
       <c r="N10">
-        <v>1.046850562394825</v>
+        <v>1.026815682829946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038425535691642</v>
+        <v>0.9936962528521051</v>
       </c>
       <c r="D11">
-        <v>1.0398327468533</v>
+        <v>1.012929168180366</v>
       </c>
       <c r="E11">
-        <v>1.051663544095312</v>
+        <v>1.009908909034312</v>
       </c>
       <c r="F11">
-        <v>1.05798308586144</v>
+        <v>1.009474184604346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03878747174536</v>
+        <v>1.040725159647321</v>
       </c>
       <c r="J11">
-        <v>1.04496936892419</v>
+        <v>1.023333646974905</v>
       </c>
       <c r="K11">
-        <v>1.043385699691543</v>
+        <v>1.027611309933059</v>
       </c>
       <c r="L11">
-        <v>1.055173535295112</v>
+        <v>1.024646346298629</v>
       </c>
       <c r="M11">
-        <v>1.061470562900381</v>
+        <v>1.024219616382321</v>
       </c>
       <c r="N11">
-        <v>1.046453345287725</v>
+        <v>1.024786898131619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038191758651509</v>
+        <v>0.9924442842056108</v>
       </c>
       <c r="D12">
-        <v>1.039662483782722</v>
+        <v>1.012049686912057</v>
       </c>
       <c r="E12">
-        <v>1.051425357460392</v>
+        <v>1.008722742209625</v>
       </c>
       <c r="F12">
-        <v>1.057710498316022</v>
+        <v>1.00813404892986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038731484620387</v>
+        <v>1.040351982318565</v>
       </c>
       <c r="J12">
-        <v>1.044821996261173</v>
+        <v>1.022571893883091</v>
       </c>
       <c r="K12">
-        <v>1.043260855273524</v>
+        <v>1.02694961859562</v>
       </c>
       <c r="L12">
-        <v>1.054980421969844</v>
+        <v>1.023684714779276</v>
       </c>
       <c r="M12">
-        <v>1.061242858988854</v>
+        <v>1.02310705513249</v>
       </c>
       <c r="N12">
-        <v>1.046305763338622</v>
+        <v>1.024024063263041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038241901108642</v>
+        <v>0.9927135093231859</v>
       </c>
       <c r="D13">
-        <v>1.0396990031438</v>
+        <v>1.01223876854738</v>
       </c>
       <c r="E13">
-        <v>1.051476442328447</v>
+        <v>1.008977762785839</v>
       </c>
       <c r="F13">
-        <v>1.057768959730717</v>
+        <v>1.008422172347391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038743502316263</v>
+        <v>1.040432295119832</v>
       </c>
       <c r="J13">
-        <v>1.044853609895901</v>
+        <v>1.022735718161214</v>
       </c>
       <c r="K13">
-        <v>1.043287637918608</v>
+        <v>1.027091930589627</v>
       </c>
       <c r="L13">
-        <v>1.055021843660141</v>
+        <v>1.023891497569824</v>
       </c>
       <c r="M13">
-        <v>1.061291697649157</v>
+        <v>1.023346278126344</v>
       </c>
       <c r="N13">
-        <v>1.046337421868338</v>
+        <v>1.024188120190429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038406210026548</v>
+        <v>0.9935930671701481</v>
       </c>
       <c r="D14">
-        <v>1.039818671663847</v>
+        <v>1.012856663091083</v>
       </c>
       <c r="E14">
-        <v>1.051643852371364</v>
+        <v>1.00981112222939</v>
       </c>
       <c r="F14">
-        <v>1.057960549390773</v>
+        <v>1.009363704766659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038782847559728</v>
+        <v>1.040694431799061</v>
       </c>
       <c r="J14">
-        <v>1.044957187820474</v>
+        <v>1.023270871419284</v>
       </c>
       <c r="K14">
-        <v>1.043375381408685</v>
+        <v>1.027556783667644</v>
       </c>
       <c r="L14">
-        <v>1.055157571689025</v>
+        <v>1.02456708638027</v>
       </c>
       <c r="M14">
-        <v>1.061451738750672</v>
+        <v>1.024127909839441</v>
       </c>
       <c r="N14">
-        <v>1.046441146885444</v>
+        <v>1.024724033427509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038507456444908</v>
+        <v>0.9941330335853241</v>
       </c>
       <c r="D15">
-        <v>1.039892411115594</v>
+        <v>1.013236117590406</v>
       </c>
       <c r="E15">
-        <v>1.051747019628981</v>
+        <v>1.010322885309708</v>
       </c>
       <c r="F15">
-        <v>1.058078622023409</v>
+        <v>1.009941896349784</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038807065246574</v>
+        <v>1.040855171025939</v>
       </c>
       <c r="J15">
-        <v>1.045021000613497</v>
+        <v>1.023599358673877</v>
       </c>
       <c r="K15">
-        <v>1.043429433997274</v>
+        <v>1.027842098005064</v>
       </c>
       <c r="L15">
-        <v>1.055241203387294</v>
+        <v>1.024981856966392</v>
       </c>
       <c r="M15">
-        <v>1.06155035881736</v>
+        <v>1.024607827565166</v>
       </c>
       <c r="N15">
-        <v>1.046505050299952</v>
+        <v>1.025052987171682</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039096910676884</v>
+        <v>0.9972465846516914</v>
       </c>
       <c r="D16">
-        <v>1.040321723703521</v>
+        <v>1.015425961977836</v>
       </c>
       <c r="E16">
-        <v>1.052347808522798</v>
+        <v>1.013276180114546</v>
       </c>
       <c r="F16">
-        <v>1.058766281501135</v>
+        <v>1.013278558595983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038947652593263</v>
+        <v>1.041779136152515</v>
       </c>
       <c r="J16">
-        <v>1.045392342008875</v>
+        <v>1.025492736707246</v>
       </c>
       <c r="K16">
-        <v>1.0437439043533</v>
+        <v>1.029486295137509</v>
       </c>
       <c r="L16">
-        <v>1.055728054527322</v>
+        <v>1.027373809960385</v>
       </c>
       <c r="M16">
-        <v>1.062124575211079</v>
+        <v>1.027376147064206</v>
       </c>
       <c r="N16">
-        <v>1.046876919042705</v>
+        <v>1.026949054019031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039466796875964</v>
+        <v>0.9991744853913608</v>
       </c>
       <c r="D17">
-        <v>1.040591122349336</v>
+        <v>1.016783456391138</v>
       </c>
       <c r="E17">
-        <v>1.052724940572631</v>
+        <v>1.01510689998232</v>
       </c>
       <c r="F17">
-        <v>1.059198006461685</v>
+        <v>1.015346965715152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039035513068705</v>
+        <v>1.042348680910831</v>
       </c>
       <c r="J17">
-        <v>1.045625206589244</v>
+        <v>1.026664423912471</v>
       </c>
       <c r="K17">
-        <v>1.043941040212354</v>
+        <v>1.030503473956872</v>
       </c>
       <c r="L17">
-        <v>1.056033511907792</v>
+        <v>1.028855135684563</v>
       </c>
       <c r="M17">
-        <v>1.062484945914682</v>
+        <v>1.029091153495363</v>
       </c>
       <c r="N17">
-        <v>1.047110114317488</v>
+        <v>1.028122405154482</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039682594442822</v>
+        <v>1.000290183053531</v>
       </c>
       <c r="D18">
-        <v>1.040748294481105</v>
+        <v>1.017569587630918</v>
       </c>
       <c r="E18">
-        <v>1.052945013424532</v>
+        <v>1.016167083965348</v>
       </c>
       <c r="F18">
-        <v>1.059449958987378</v>
+        <v>1.01654482020739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039086642893276</v>
+        <v>1.042677343020483</v>
       </c>
       <c r="J18">
-        <v>1.045761007805698</v>
+        <v>1.027342232102967</v>
       </c>
       <c r="K18">
-        <v>1.044055981627889</v>
+        <v>1.031091785445929</v>
       </c>
       <c r="L18">
-        <v>1.056211704477203</v>
+        <v>1.029712468127273</v>
       </c>
       <c r="M18">
-        <v>1.062695208652943</v>
+        <v>1.030083951488976</v>
       </c>
       <c r="N18">
-        <v>1.047246108387246</v>
+        <v>1.028801175910354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039756184162054</v>
+        <v>1.000669134941614</v>
       </c>
       <c r="D19">
-        <v>1.040801892265255</v>
+        <v>1.017836689143396</v>
       </c>
       <c r="E19">
-        <v>1.053020069192708</v>
+        <v>1.016527302441837</v>
       </c>
       <c r="F19">
-        <v>1.059535891105151</v>
+        <v>1.016951819873328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039104056865424</v>
+        <v>1.042788813896841</v>
       </c>
       <c r="J19">
-        <v>1.045807308291345</v>
+        <v>1.027572407425891</v>
       </c>
       <c r="K19">
-        <v>1.044095166093609</v>
+        <v>1.031291548776021</v>
       </c>
       <c r="L19">
-        <v>1.05627246766178</v>
+        <v>1.030003676267246</v>
       </c>
       <c r="M19">
-        <v>1.062766913748228</v>
+        <v>1.030421210757109</v>
       </c>
       <c r="N19">
-        <v>1.047292474624894</v>
+        <v>1.029031678108639</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039427106492975</v>
+        <v>0.9989685570624107</v>
       </c>
       <c r="D20">
-        <v>1.040562214644634</v>
+        <v>1.016638399959722</v>
       </c>
       <c r="E20">
-        <v>1.052684467718397</v>
+        <v>1.014911276430803</v>
       </c>
       <c r="F20">
-        <v>1.059151672525087</v>
+        <v>1.015125941548963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039026098643022</v>
+        <v>1.042287942288493</v>
       </c>
       <c r="J20">
-        <v>1.045600224978899</v>
+        <v>1.02653929708784</v>
       </c>
       <c r="K20">
-        <v>1.043919894007755</v>
+        <v>1.030394859246546</v>
       </c>
       <c r="L20">
-        <v>1.05600073668739</v>
+        <v>1.02869690035788</v>
       </c>
       <c r="M20">
-        <v>1.062446274860967</v>
+        <v>1.028907933618121</v>
       </c>
       <c r="N20">
-        <v>1.047085097230392</v>
+        <v>1.027997100635408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038357823004577</v>
+        <v>0.9933344687399343</v>
       </c>
       <c r="D21">
-        <v>1.039783430655556</v>
+        <v>1.012674969961662</v>
       </c>
       <c r="E21">
-        <v>1.051594550033822</v>
+        <v>1.009566073488956</v>
       </c>
       <c r="F21">
-        <v>1.057904125193395</v>
+        <v>1.009086847924572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038771266410273</v>
+        <v>1.040617400306285</v>
       </c>
       <c r="J21">
-        <v>1.0449266877405</v>
+        <v>1.023113540944803</v>
       </c>
       <c r="K21">
-        <v>1.043349545026297</v>
+        <v>1.027420125267028</v>
       </c>
       <c r="L21">
-        <v>1.055117602086929</v>
+        <v>1.024368452109917</v>
       </c>
       <c r="M21">
-        <v>1.061404607829387</v>
+        <v>1.023898088212137</v>
       </c>
       <c r="N21">
-        <v>1.046410603491857</v>
+        <v>1.024566479525709</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03768596995389</v>
+        <v>0.9897072278851893</v>
       </c>
       <c r="D22">
-        <v>1.039294114690841</v>
+        <v>1.010128759917227</v>
       </c>
       <c r="E22">
-        <v>1.05091016570998</v>
+        <v>1.006131774678704</v>
       </c>
       <c r="F22">
-        <v>1.057120961096368</v>
+        <v>1.005206741248355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038609985611589</v>
+        <v>1.039533548912759</v>
       </c>
       <c r="J22">
-        <v>1.044502989933171</v>
+        <v>1.020905924136561</v>
       </c>
       <c r="K22">
-        <v>1.04299054730085</v>
+        <v>1.025502199550671</v>
       </c>
       <c r="L22">
-        <v>1.054562565862327</v>
+        <v>1.021582730794301</v>
       </c>
       <c r="M22">
-        <v>1.060750257599365</v>
+        <v>1.020675752463234</v>
       </c>
       <c r="N22">
-        <v>1.045986303985043</v>
+        <v>1.022355727648381</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038042089284659</v>
+        <v>0.9916384174284143</v>
       </c>
       <c r="D23">
-        <v>1.039553478064623</v>
+        <v>1.011483854492518</v>
       </c>
       <c r="E23">
-        <v>1.051272886102045</v>
+        <v>1.007959571123727</v>
       </c>
       <c r="F23">
-        <v>1.057536015452561</v>
+        <v>1.007271813248124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038695583735296</v>
+        <v>1.040111376309154</v>
       </c>
       <c r="J23">
-        <v>1.044727620608668</v>
+        <v>1.022081471378735</v>
       </c>
       <c r="K23">
-        <v>1.043180896141996</v>
+        <v>1.026523572018498</v>
       </c>
       <c r="L23">
-        <v>1.05485677942904</v>
+        <v>1.023065781887044</v>
       </c>
       <c r="M23">
-        <v>1.061097085128131</v>
+        <v>1.022391071005258</v>
       </c>
       <c r="N23">
-        <v>1.046211253661865</v>
+        <v>1.023532944302476</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039445040716569</v>
+        <v>0.9990616343916509</v>
       </c>
       <c r="D24">
-        <v>1.04057527667953</v>
+        <v>1.016703962213678</v>
       </c>
       <c r="E24">
-        <v>1.052702755356007</v>
+        <v>1.014999693866398</v>
       </c>
       <c r="F24">
-        <v>1.059172608420551</v>
+        <v>1.015225839413265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03903035298046</v>
+        <v>1.042315398391939</v>
       </c>
       <c r="J24">
-        <v>1.045611513169816</v>
+        <v>1.026595853840102</v>
       </c>
       <c r="K24">
-        <v>1.043929449205233</v>
+        <v>1.030443952957407</v>
       </c>
       <c r="L24">
-        <v>1.056015546323195</v>
+        <v>1.028768420754565</v>
       </c>
       <c r="M24">
-        <v>1.062463748445972</v>
+        <v>1.028990746035773</v>
       </c>
       <c r="N24">
-        <v>1.047096401451834</v>
+        <v>1.028053737704745</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04107501551716</v>
+        <v>1.007332430337197</v>
       </c>
       <c r="D25">
-        <v>1.041762443107785</v>
+        <v>1.022540447945922</v>
       </c>
       <c r="E25">
-        <v>1.054365884258826</v>
+        <v>1.02287152105187</v>
       </c>
       <c r="F25">
-        <v>1.061077063132807</v>
+        <v>1.02412055103116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039414215308662</v>
+        <v>1.044734711359091</v>
       </c>
       <c r="J25">
-        <v>1.046636247718328</v>
+        <v>1.031615523850821</v>
       </c>
       <c r="K25">
-        <v>1.044796351276011</v>
+        <v>1.034798646650173</v>
       </c>
       <c r="L25">
-        <v>1.057361187015423</v>
+        <v>1.035124865933849</v>
       </c>
       <c r="M25">
-        <v>1.064052216702933</v>
+        <v>1.03635561988691</v>
       </c>
       <c r="N25">
-        <v>1.048122591240943</v>
+        <v>1.033080536222644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013678208320442</v>
+        <v>1.025759915537532</v>
       </c>
       <c r="D2">
-        <v>1.027032284803582</v>
+        <v>1.038093022634998</v>
       </c>
       <c r="E2">
-        <v>1.028932264481672</v>
+        <v>1.04227590579216</v>
       </c>
       <c r="F2">
-        <v>1.030970598454736</v>
+        <v>1.046709551501253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046560367128999</v>
+        <v>1.053706355948769</v>
       </c>
       <c r="J2">
-        <v>1.035457363889332</v>
+        <v>1.04719653338532</v>
       </c>
       <c r="K2">
-        <v>1.038127437299938</v>
+        <v>1.049045993960804</v>
       </c>
       <c r="L2">
-        <v>1.040002721384681</v>
+        <v>1.053176088815472</v>
       </c>
       <c r="M2">
-        <v>1.042014688073653</v>
+        <v>1.057554355392741</v>
       </c>
       <c r="N2">
-        <v>1.036927832114682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01897899411138</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054122676073037</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045750019569783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018151907747082</v>
+        <v>1.029856164591407</v>
       </c>
       <c r="D3">
-        <v>1.030205809159223</v>
+        <v>1.040834231375414</v>
       </c>
       <c r="E3">
-        <v>1.03321666394888</v>
+        <v>1.045767509863148</v>
       </c>
       <c r="F3">
-        <v>1.035814412839051</v>
+        <v>1.04989669113806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047829052166999</v>
+        <v>1.054830160575521</v>
       </c>
       <c r="J3">
-        <v>1.038159674228585</v>
+        <v>1.049564736369769</v>
       </c>
       <c r="K3">
-        <v>1.040466255348983</v>
+        <v>1.050969987874991</v>
       </c>
       <c r="L3">
-        <v>1.043441465168842</v>
+        <v>1.055846453692179</v>
       </c>
       <c r="M3">
-        <v>1.046008665861027</v>
+        <v>1.05992858855829</v>
       </c>
       <c r="N3">
-        <v>1.039633980044569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019823670176491</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056001685459766</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047107786554046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020988271861307</v>
+        <v>1.03245833309234</v>
       </c>
       <c r="D4">
-        <v>1.032220659466483</v>
+        <v>1.042579446909303</v>
       </c>
       <c r="E4">
-        <v>1.0359382361152</v>
+        <v>1.047991182965351</v>
       </c>
       <c r="F4">
-        <v>1.038892145129179</v>
+        <v>1.051928368446014</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048624677926987</v>
+        <v>1.055536311790898</v>
       </c>
       <c r="J4">
-        <v>1.039869917627635</v>
+        <v>1.051066679880676</v>
       </c>
       <c r="K4">
-        <v>1.041945160801713</v>
+        <v>1.052189763436376</v>
       </c>
       <c r="L4">
-        <v>1.04562143568657</v>
+        <v>1.057542946437737</v>
       </c>
       <c r="M4">
-        <v>1.048542786099388</v>
+        <v>1.061437996559509</v>
       </c>
       <c r="N4">
-        <v>1.041346652185413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020358957269272</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057196254772263</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047971142225357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022167188056219</v>
+        <v>1.033545545893267</v>
       </c>
       <c r="D5">
-        <v>1.033058742432352</v>
+        <v>1.043311855745997</v>
       </c>
       <c r="E5">
-        <v>1.037070670928165</v>
+        <v>1.048921809361004</v>
       </c>
       <c r="F5">
-        <v>1.040172988614433</v>
+        <v>1.052778575009111</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048953246437527</v>
+        <v>1.055831355707556</v>
       </c>
       <c r="J5">
-        <v>1.040580009311627</v>
+        <v>1.051695377510736</v>
       </c>
       <c r="K5">
-        <v>1.042558880032553</v>
+        <v>1.052701986692188</v>
       </c>
       <c r="L5">
-        <v>1.046527446689298</v>
+        <v>1.058252863083432</v>
       </c>
       <c r="M5">
-        <v>1.04959651469429</v>
+        <v>1.062069459819092</v>
       </c>
       <c r="N5">
-        <v>1.042057752281044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020583651225266</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.057696004207698</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048340410861181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02236435605353</v>
+        <v>1.03373290271579</v>
       </c>
       <c r="D6">
-        <v>1.03319894295896</v>
+        <v>1.043440977809732</v>
       </c>
       <c r="E6">
-        <v>1.037260136870217</v>
+        <v>1.049082543602264</v>
       </c>
       <c r="F6">
-        <v>1.040387297583405</v>
+        <v>1.05292481636222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049008071870754</v>
+        <v>1.055884402383746</v>
       </c>
       <c r="J6">
-        <v>1.040698723189759</v>
+        <v>1.051805861404243</v>
       </c>
       <c r="K6">
-        <v>1.042661463049671</v>
+        <v>1.052794113906264</v>
       </c>
       <c r="L6">
-        <v>1.04667896720726</v>
+        <v>1.058376542649815</v>
       </c>
       <c r="M6">
-        <v>1.049772770897436</v>
+        <v>1.062178981897354</v>
       </c>
       <c r="N6">
-        <v>1.0421766347465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020624025273849</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057782681579678</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048414198181375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021004076971735</v>
+        <v>1.032487637614941</v>
       </c>
       <c r="D7">
-        <v>1.032231892806496</v>
+        <v>1.04260684696887</v>
       </c>
       <c r="E7">
-        <v>1.035953413240252</v>
+        <v>1.048017028356434</v>
       </c>
       <c r="F7">
-        <v>1.038909310396459</v>
+        <v>1.051950284413382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048629091322051</v>
+        <v>1.055550513683606</v>
       </c>
       <c r="J7">
-        <v>1.039879440493337</v>
+        <v>1.051089495998565</v>
       </c>
       <c r="K7">
-        <v>1.041953392524204</v>
+        <v>1.052214026948833</v>
       </c>
       <c r="L7">
-        <v>1.045633582448083</v>
+        <v>1.057565695197426</v>
       </c>
       <c r="M7">
-        <v>1.048556911179019</v>
+        <v>1.061456874254284</v>
       </c>
       <c r="N7">
-        <v>1.041356188574677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020369552709778</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057211194866002</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048008189721616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015202517448674</v>
+        <v>1.027173176150329</v>
       </c>
       <c r="D8">
-        <v>1.028112969425184</v>
+        <v>1.039047525036062</v>
       </c>
       <c r="E8">
-        <v>1.030390964128032</v>
+        <v>1.043480381314267</v>
       </c>
       <c r="F8">
-        <v>1.032619604324283</v>
+        <v>1.047806478108839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046994452340703</v>
+        <v>1.054103517205833</v>
       </c>
       <c r="J8">
-        <v>1.036378733598016</v>
+        <v>1.048021469112996</v>
       </c>
       <c r="K8">
-        <v>1.038925135757014</v>
+        <v>1.049723326570079</v>
       </c>
       <c r="L8">
-        <v>1.041174423950757</v>
+        <v>1.054101912747746</v>
       </c>
       <c r="M8">
-        <v>1.043375132372772</v>
+        <v>1.058375596131111</v>
       </c>
       <c r="N8">
-        <v>1.037850510274028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019276533883343</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05477262079084</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046251620030521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004508497150084</v>
+        <v>1.017396650862256</v>
       </c>
       <c r="D9">
-        <v>1.020545332008018</v>
+        <v>1.03251983765874</v>
       </c>
       <c r="E9">
-        <v>1.020180403016243</v>
+        <v>1.035179515963307</v>
       </c>
       <c r="F9">
-        <v>1.021079527151618</v>
+        <v>1.04024261856133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043913403514867</v>
+        <v>1.051371414285177</v>
       </c>
       <c r="J9">
-        <v>1.029903047160445</v>
+        <v>1.042349698708651</v>
       </c>
       <c r="K9">
-        <v>1.033313643577714</v>
+        <v>1.045106451233844</v>
       </c>
       <c r="L9">
-        <v>1.032954337422975</v>
+        <v>1.047726497632886</v>
       </c>
       <c r="M9">
-        <v>1.033839617077017</v>
+        <v>1.052714865944993</v>
       </c>
       <c r="N9">
-        <v>1.031365627618944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017248678977175</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050292605550305</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042984090036051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9970275029557443</v>
+        <v>1.010697641081231</v>
       </c>
       <c r="D10">
-        <v>1.015271774318981</v>
+        <v>1.028086527297706</v>
       </c>
       <c r="E10">
-        <v>1.0130682416121</v>
+        <v>1.029563844733108</v>
       </c>
       <c r="F10">
-        <v>1.013043625494795</v>
+        <v>1.035180932696133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041714287456236</v>
+        <v>1.049493293457842</v>
       </c>
       <c r="J10">
-        <v>1.025359554651955</v>
+        <v>1.038493160261925</v>
       </c>
       <c r="K10">
-        <v>1.029370660203399</v>
+        <v>1.041966535398263</v>
       </c>
       <c r="L10">
-        <v>1.027205486704369</v>
+        <v>1.043419071513606</v>
       </c>
       <c r="M10">
-        <v>1.02718130032628</v>
+        <v>1.048942766379243</v>
       </c>
       <c r="N10">
-        <v>1.026815682829946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015881360798502</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047358165567595</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04078068401084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9936962528521051</v>
+        <v>1.008561084747628</v>
       </c>
       <c r="D11">
-        <v>1.012929168180366</v>
+        <v>1.026792456217997</v>
       </c>
       <c r="E11">
-        <v>1.009908909034312</v>
+        <v>1.028095251654308</v>
       </c>
       <c r="F11">
-        <v>1.009474184604346</v>
+        <v>1.034220360485043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040725159647321</v>
+        <v>1.049140087392396</v>
       </c>
       <c r="J11">
-        <v>1.023333646974905</v>
+        <v>1.0375819991196</v>
       </c>
       <c r="K11">
-        <v>1.027611309933059</v>
+        <v>1.041226196124251</v>
       </c>
       <c r="L11">
-        <v>1.024646346298629</v>
+        <v>1.042506094344868</v>
       </c>
       <c r="M11">
-        <v>1.024219616382321</v>
+        <v>1.048524551762614</v>
       </c>
       <c r="N11">
-        <v>1.024786898131619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015666384702198</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047458932626388</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040289848766888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9924442842056108</v>
+        <v>1.008073325067286</v>
       </c>
       <c r="D12">
-        <v>1.012049686912057</v>
+        <v>1.02655347865455</v>
       </c>
       <c r="E12">
-        <v>1.008722742209625</v>
+        <v>1.027921099321169</v>
       </c>
       <c r="F12">
-        <v>1.00813404892986</v>
+        <v>1.034329911802987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040351982318565</v>
+        <v>1.049189433015302</v>
       </c>
       <c r="J12">
-        <v>1.022571893883091</v>
+        <v>1.03753989424291</v>
       </c>
       <c r="K12">
-        <v>1.02694961859562</v>
+        <v>1.041189044628955</v>
       </c>
       <c r="L12">
-        <v>1.023684714779276</v>
+        <v>1.042532236867616</v>
       </c>
       <c r="M12">
-        <v>1.02310705513249</v>
+        <v>1.048827690451066</v>
       </c>
       <c r="N12">
-        <v>1.024024063263041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015737382170455</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048022000991916</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040263581808201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9927135093231859</v>
+        <v>1.008840720652592</v>
       </c>
       <c r="D13">
-        <v>1.01223876854738</v>
+        <v>1.027130857661825</v>
       </c>
       <c r="E13">
-        <v>1.008977762785839</v>
+        <v>1.028750514012253</v>
       </c>
       <c r="F13">
-        <v>1.008422172347391</v>
+        <v>1.035295047637172</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040432295119832</v>
+        <v>1.049568295425274</v>
       </c>
       <c r="J13">
-        <v>1.022735718161214</v>
+        <v>1.038184310477756</v>
       </c>
       <c r="K13">
-        <v>1.027091930589627</v>
+        <v>1.041713746797809</v>
       </c>
       <c r="L13">
-        <v>1.023891497569824</v>
+        <v>1.043304620503307</v>
       </c>
       <c r="M13">
-        <v>1.023346278126344</v>
+        <v>1.049734039971118</v>
       </c>
       <c r="N13">
-        <v>1.024188120190429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016043513729479</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049012914892183</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04063208408732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9935930671701481</v>
+        <v>1.009944700889615</v>
       </c>
       <c r="D14">
-        <v>1.012856663091083</v>
+        <v>1.02790488900639</v>
       </c>
       <c r="E14">
-        <v>1.00981112222939</v>
+        <v>1.029782746216747</v>
       </c>
       <c r="F14">
-        <v>1.009363704766659</v>
+        <v>1.036355131087873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040694431799061</v>
+        <v>1.049981879030338</v>
       </c>
       <c r="J14">
-        <v>1.023270871419284</v>
+        <v>1.03894461367954</v>
       </c>
       <c r="K14">
-        <v>1.027556783667644</v>
+        <v>1.042335377733224</v>
       </c>
       <c r="L14">
-        <v>1.02456708638027</v>
+        <v>1.044180304185248</v>
       </c>
       <c r="M14">
-        <v>1.024127909839441</v>
+        <v>1.050638648507231</v>
       </c>
       <c r="N14">
-        <v>1.024724033427509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016363750967633</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049899977148224</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041073005285626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941330335853241</v>
+        <v>1.010495295467983</v>
       </c>
       <c r="D15">
-        <v>1.013236117590406</v>
+        <v>1.028280096997678</v>
       </c>
       <c r="E15">
-        <v>1.010322885309708</v>
+        <v>1.030265585177237</v>
       </c>
       <c r="F15">
-        <v>1.009941896349784</v>
+        <v>1.03681800317837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040855171025939</v>
+        <v>1.050160709010845</v>
       </c>
       <c r="J15">
-        <v>1.023599358673877</v>
+        <v>1.039289394637656</v>
       </c>
       <c r="K15">
-        <v>1.027842098005064</v>
+        <v>1.042618618000961</v>
       </c>
       <c r="L15">
-        <v>1.024981856966392</v>
+        <v>1.044569562294476</v>
       </c>
       <c r="M15">
-        <v>1.024607827565166</v>
+        <v>1.051009192797642</v>
       </c>
       <c r="N15">
-        <v>1.025052987171682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016497427713293</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050230125535042</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04127908740326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9972465846516914</v>
+        <v>1.013181873218625</v>
       </c>
       <c r="D16">
-        <v>1.015425961977836</v>
+        <v>1.030044101782676</v>
       </c>
       <c r="E16">
-        <v>1.013276180114546</v>
+        <v>1.032488064477961</v>
       </c>
       <c r="F16">
-        <v>1.013278558595983</v>
+        <v>1.038804688715241</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041779136152515</v>
+        <v>1.050895487345981</v>
       </c>
       <c r="J16">
-        <v>1.025492736707246</v>
+        <v>1.040806936976451</v>
       </c>
       <c r="K16">
-        <v>1.029486295137509</v>
+        <v>1.043856142891838</v>
       </c>
       <c r="L16">
-        <v>1.027373809960385</v>
+        <v>1.046259477528836</v>
       </c>
       <c r="M16">
-        <v>1.027376147064206</v>
+        <v>1.05247223320059</v>
       </c>
       <c r="N16">
-        <v>1.026949054019031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017020392584763</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051348095635828</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042157187468853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9991744853913608</v>
+        <v>1.014667242503971</v>
       </c>
       <c r="D17">
-        <v>1.016783456391138</v>
+        <v>1.030994889530777</v>
       </c>
       <c r="E17">
-        <v>1.01510689998232</v>
+        <v>1.033654198615504</v>
       </c>
       <c r="F17">
-        <v>1.015346965715152</v>
+        <v>1.039770081038452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042348680910831</v>
+        <v>1.051241238507199</v>
       </c>
       <c r="J17">
-        <v>1.026664423912471</v>
+        <v>1.041573218961087</v>
       </c>
       <c r="K17">
-        <v>1.030503473956872</v>
+        <v>1.044480447798871</v>
       </c>
       <c r="L17">
-        <v>1.028855135684563</v>
+        <v>1.047096802605389</v>
       </c>
       <c r="M17">
-        <v>1.029091153495363</v>
+        <v>1.053114966637945</v>
       </c>
       <c r="N17">
-        <v>1.028122405154482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017253921083913</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051728155277913</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042601152982578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000290183053531</v>
+        <v>1.01523325432407</v>
       </c>
       <c r="D18">
-        <v>1.017569587630918</v>
+        <v>1.031307741955819</v>
       </c>
       <c r="E18">
-        <v>1.016167083965348</v>
+        <v>1.033978144787897</v>
       </c>
       <c r="F18">
-        <v>1.01654482020739</v>
+        <v>1.039886716236568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042677343020483</v>
+        <v>1.051265759100487</v>
       </c>
       <c r="J18">
-        <v>1.027342232102967</v>
+        <v>1.041732868166218</v>
       </c>
       <c r="K18">
-        <v>1.031091785445929</v>
+        <v>1.044607092979138</v>
       </c>
       <c r="L18">
-        <v>1.029712468127273</v>
+        <v>1.047235059574144</v>
       </c>
       <c r="M18">
-        <v>1.030083951488976</v>
+        <v>1.053050726438609</v>
       </c>
       <c r="N18">
-        <v>1.028801175910354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01724532153491</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051441886939496</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042679155991165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000669134941614</v>
+        <v>1.014993711906625</v>
       </c>
       <c r="D19">
-        <v>1.017836689143396</v>
+        <v>1.031074796951308</v>
       </c>
       <c r="E19">
-        <v>1.016527302441837</v>
+        <v>1.033558219356579</v>
       </c>
       <c r="F19">
-        <v>1.016951819873328</v>
+        <v>1.039245513200381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042788813896841</v>
+        <v>1.051021139070849</v>
       </c>
       <c r="J19">
-        <v>1.027572407425891</v>
+        <v>1.041370611709768</v>
       </c>
       <c r="K19">
-        <v>1.031291548776021</v>
+        <v>1.044316076153282</v>
       </c>
       <c r="L19">
-        <v>1.030003676267246</v>
+        <v>1.046760211811221</v>
       </c>
       <c r="M19">
-        <v>1.030421210757109</v>
+        <v>1.052358438994579</v>
       </c>
       <c r="N19">
-        <v>1.029031678108639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017036515169974</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050572358337797</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042479743446964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9989685570624107</v>
+        <v>1.01247722044654</v>
       </c>
       <c r="D20">
-        <v>1.016638399959722</v>
+        <v>1.029282528516358</v>
       </c>
       <c r="E20">
-        <v>1.014911276430803</v>
+        <v>1.031057546045353</v>
       </c>
       <c r="F20">
-        <v>1.015125941548963</v>
+        <v>1.036524783331893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042287942288493</v>
+        <v>1.050012543785498</v>
       </c>
       <c r="J20">
-        <v>1.02653929708784</v>
+        <v>1.039535496852038</v>
       </c>
       <c r="K20">
-        <v>1.030394859246546</v>
+        <v>1.042829307207123</v>
       </c>
       <c r="L20">
-        <v>1.02869690035788</v>
+        <v>1.044575417962967</v>
       </c>
       <c r="M20">
-        <v>1.028907933618121</v>
+        <v>1.049954417240242</v>
       </c>
       <c r="N20">
-        <v>1.027997100635408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016259023675459</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048148334796632</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041432452801337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9933344687399343</v>
+        <v>1.007283425217117</v>
       </c>
       <c r="D21">
-        <v>1.012674969961662</v>
+        <v>1.025830426079401</v>
       </c>
       <c r="E21">
-        <v>1.009566073488956</v>
+        <v>1.026654765136914</v>
       </c>
       <c r="F21">
-        <v>1.009086847924572</v>
+        <v>1.032490204328919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040617400306285</v>
+        <v>1.048493863226832</v>
       </c>
       <c r="J21">
-        <v>1.023113540944803</v>
+        <v>1.036479754433749</v>
       </c>
       <c r="K21">
-        <v>1.027420125267028</v>
+        <v>1.04033841860084</v>
       </c>
       <c r="L21">
-        <v>1.024368452109917</v>
+        <v>1.041148159177509</v>
       </c>
       <c r="M21">
-        <v>1.023898088212137</v>
+        <v>1.046881119855547</v>
       </c>
       <c r="N21">
-        <v>1.024566479525709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015154875853673</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045675633934409</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039674537831609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9897072278851893</v>
+        <v>1.003982602523822</v>
       </c>
       <c r="D22">
-        <v>1.010128759917227</v>
+        <v>1.023641157333781</v>
       </c>
       <c r="E22">
-        <v>1.006131774678704</v>
+        <v>1.023883011832923</v>
       </c>
       <c r="F22">
-        <v>1.005206741248355</v>
+        <v>1.029977088447657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039533548912759</v>
+        <v>1.047529500276225</v>
       </c>
       <c r="J22">
-        <v>1.020905924136561</v>
+        <v>1.034548984837314</v>
       </c>
       <c r="K22">
-        <v>1.025502199550671</v>
+        <v>1.038758389270028</v>
       </c>
       <c r="L22">
-        <v>1.021582730794301</v>
+        <v>1.038995738351853</v>
       </c>
       <c r="M22">
-        <v>1.020675752463234</v>
+        <v>1.04497720018486</v>
       </c>
       <c r="N22">
-        <v>1.022355727648381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014459802259706</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044168818339078</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038543985961912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9916384174284143</v>
+        <v>1.005724336640629</v>
       </c>
       <c r="D23">
-        <v>1.011483854492518</v>
+        <v>1.02478870906451</v>
       </c>
       <c r="E23">
-        <v>1.007959571123727</v>
+        <v>1.02534389330621</v>
       </c>
       <c r="F23">
-        <v>1.007271813248124</v>
+        <v>1.031302949300689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040111376309154</v>
+        <v>1.048033222525563</v>
       </c>
       <c r="J23">
-        <v>1.022081471378735</v>
+        <v>1.035562396555473</v>
       </c>
       <c r="K23">
-        <v>1.026523572018498</v>
+        <v>1.039582764114757</v>
       </c>
       <c r="L23">
-        <v>1.023065781887044</v>
+        <v>1.04012787759261</v>
       </c>
       <c r="M23">
-        <v>1.022391071005258</v>
+        <v>1.045979725827497</v>
       </c>
       <c r="N23">
-        <v>1.023532944302476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014821872562908</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04496224572569</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039117270503162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990616343916509</v>
+        <v>1.012460873914804</v>
       </c>
       <c r="D24">
-        <v>1.016703962213678</v>
+        <v>1.029250662942106</v>
       </c>
       <c r="E24">
-        <v>1.014999693866398</v>
+        <v>1.031011727993564</v>
       </c>
       <c r="F24">
-        <v>1.015225839413265</v>
+        <v>1.036449755984683</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042315398391939</v>
+        <v>1.04997554451875</v>
       </c>
       <c r="J24">
-        <v>1.026595853840102</v>
+        <v>1.039487548942569</v>
       </c>
       <c r="K24">
-        <v>1.030443952957407</v>
+        <v>1.042782864269049</v>
       </c>
       <c r="L24">
-        <v>1.028768420754565</v>
+        <v>1.044515283651206</v>
       </c>
       <c r="M24">
-        <v>1.028990746035773</v>
+        <v>1.049865643978773</v>
       </c>
       <c r="N24">
-        <v>1.028053737704745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016228298534286</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048037664082407</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041372413686895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007332430337197</v>
+        <v>1.019996975040924</v>
       </c>
       <c r="D25">
-        <v>1.022540447945922</v>
+        <v>1.034264088574255</v>
       </c>
       <c r="E25">
-        <v>1.02287152105187</v>
+        <v>1.037383099968152</v>
       </c>
       <c r="F25">
-        <v>1.02412055103116</v>
+        <v>1.042245996212692</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044734711359091</v>
+        <v>1.052114892980643</v>
       </c>
       <c r="J25">
-        <v>1.031615523850821</v>
+        <v>1.043869606210313</v>
       </c>
       <c r="K25">
-        <v>1.034798646650173</v>
+        <v>1.046352804223808</v>
       </c>
       <c r="L25">
-        <v>1.035124865933849</v>
+        <v>1.049427541203822</v>
       </c>
       <c r="M25">
-        <v>1.03635561988691</v>
+        <v>1.054222075998447</v>
       </c>
       <c r="N25">
-        <v>1.033080536222644</v>
+        <v>1.017796762663744</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051485444379857</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043893663922706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025759915537532</v>
+        <v>1.024236812143958</v>
       </c>
       <c r="D2">
-        <v>1.038093022634998</v>
+        <v>1.035957607765842</v>
       </c>
       <c r="E2">
-        <v>1.04227590579216</v>
+        <v>1.040899345950393</v>
       </c>
       <c r="F2">
-        <v>1.046709551501253</v>
+        <v>1.045641592522853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053706355948769</v>
+        <v>1.052737955019088</v>
       </c>
       <c r="J2">
-        <v>1.04719653338532</v>
+        <v>1.045716004813455</v>
       </c>
       <c r="K2">
-        <v>1.049045993960804</v>
+        <v>1.046937733497523</v>
       </c>
       <c r="L2">
-        <v>1.053176088815472</v>
+        <v>1.051816842831003</v>
       </c>
       <c r="M2">
-        <v>1.057554355392741</v>
+        <v>1.056499682421111</v>
       </c>
       <c r="N2">
-        <v>1.01897899411138</v>
+        <v>1.018880410723451</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054122676073037</v>
+        <v>1.053287988061278</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045750019569783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044268017788751</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024337830826355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029856164591407</v>
+        <v>1.028112816097374</v>
       </c>
       <c r="D3">
-        <v>1.040834231375414</v>
+        <v>1.038445222400027</v>
       </c>
       <c r="E3">
-        <v>1.045767509863148</v>
+        <v>1.044190484795969</v>
       </c>
       <c r="F3">
-        <v>1.04989669113806</v>
+        <v>1.048673425908461</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054830160575521</v>
+        <v>1.053723443891806</v>
       </c>
       <c r="J3">
-        <v>1.049564736369769</v>
+        <v>1.047865369876505</v>
       </c>
       <c r="K3">
-        <v>1.050969987874991</v>
+        <v>1.048608731082797</v>
       </c>
       <c r="L3">
-        <v>1.055846453692179</v>
+        <v>1.054287517902149</v>
       </c>
       <c r="M3">
-        <v>1.05992858855829</v>
+        <v>1.058719213144806</v>
       </c>
       <c r="N3">
-        <v>1.019823670176491</v>
+        <v>1.019484632284921</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056001685459766</v>
+        <v>1.055044565321673</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047107786554046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045446621235346</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024698505672957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03245833309234</v>
+        <v>1.030576892497207</v>
       </c>
       <c r="D4">
-        <v>1.042579446909303</v>
+        <v>1.040030578403786</v>
       </c>
       <c r="E4">
-        <v>1.047991182965351</v>
+        <v>1.046288310279813</v>
       </c>
       <c r="F4">
-        <v>1.051928368446014</v>
+        <v>1.050607694222256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055536311790898</v>
+        <v>1.054342456459151</v>
       </c>
       <c r="J4">
-        <v>1.051066679880676</v>
+        <v>1.049229509764714</v>
       </c>
       <c r="K4">
-        <v>1.052189763436376</v>
+        <v>1.049668731964096</v>
       </c>
       <c r="L4">
-        <v>1.057542946437737</v>
+        <v>1.055858418151662</v>
       </c>
       <c r="M4">
-        <v>1.061437996559509</v>
+        <v>1.060131412948563</v>
       </c>
       <c r="N4">
-        <v>1.020358957269272</v>
+        <v>1.01986797779577</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057196254772263</v>
+        <v>1.056162203991743</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047971142225357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046197087969959</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024924889243115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033545545893267</v>
+        <v>1.031606665321801</v>
       </c>
       <c r="D5">
-        <v>1.043311855745997</v>
+        <v>1.040696402108361</v>
       </c>
       <c r="E5">
-        <v>1.048921809361004</v>
+        <v>1.047166558221597</v>
       </c>
       <c r="F5">
-        <v>1.052778575009111</v>
+        <v>1.051417377036438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055831355707556</v>
+        <v>1.054601159859776</v>
       </c>
       <c r="J5">
-        <v>1.051695377510736</v>
+        <v>1.049800762940674</v>
       </c>
       <c r="K5">
-        <v>1.052701986692188</v>
+        <v>1.050114342335781</v>
       </c>
       <c r="L5">
-        <v>1.058252863083432</v>
+        <v>1.056516012946032</v>
       </c>
       <c r="M5">
-        <v>1.062069459819092</v>
+        <v>1.060722397882526</v>
       </c>
       <c r="N5">
-        <v>1.020583651225266</v>
+        <v>1.020029010098329</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057696004207698</v>
+        <v>1.056629918919123</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048340410861181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046519971157421</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025020125700304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03373290271579</v>
+        <v>1.031783952166253</v>
       </c>
       <c r="D6">
-        <v>1.043440977809732</v>
+        <v>1.040813966100492</v>
       </c>
       <c r="E6">
-        <v>1.049082543602264</v>
+        <v>1.047318110519283</v>
       </c>
       <c r="F6">
-        <v>1.05292481636222</v>
+        <v>1.051556513239585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055884402383746</v>
+        <v>1.054647826954306</v>
       </c>
       <c r="J6">
-        <v>1.051805861404243</v>
+        <v>1.049901178964948</v>
       </c>
       <c r="K6">
-        <v>1.052794113906264</v>
+        <v>1.050194907214839</v>
       </c>
       <c r="L6">
-        <v>1.058376542649815</v>
+        <v>1.056630521375718</v>
       </c>
       <c r="M6">
-        <v>1.062178981897354</v>
+        <v>1.060824823482627</v>
       </c>
       <c r="N6">
-        <v>1.020624025273849</v>
+        <v>1.020057967338885</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057782681579678</v>
+        <v>1.05671098014784</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048414198181375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046586455923207</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025038104395494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032487637614941</v>
+        <v>1.030613884203195</v>
       </c>
       <c r="D7">
-        <v>1.04260684696887</v>
+        <v>1.040063335134102</v>
       </c>
       <c r="E7">
-        <v>1.048017028356434</v>
+        <v>1.04632109147113</v>
       </c>
       <c r="F7">
-        <v>1.051950284413382</v>
+        <v>1.05063502628907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055550513683606</v>
+        <v>1.054360600098921</v>
       </c>
       <c r="J7">
-        <v>1.051089495998565</v>
+        <v>1.049259812395413</v>
       </c>
       <c r="K7">
-        <v>1.052214026948833</v>
+        <v>1.049698282441262</v>
       </c>
       <c r="L7">
-        <v>1.057565695197426</v>
+        <v>1.055888020677226</v>
       </c>
       <c r="M7">
-        <v>1.061456874254284</v>
+        <v>1.060155643499471</v>
       </c>
       <c r="N7">
-        <v>1.020369552709778</v>
+        <v>1.0199047139389</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057211194866002</v>
+        <v>1.056181380442846</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048008189721616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046239881253844</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024934343754699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027173176150329</v>
+        <v>1.025603236043569</v>
       </c>
       <c r="D8">
-        <v>1.039047525036062</v>
+        <v>1.036847115356738</v>
       </c>
       <c r="E8">
-        <v>1.043480381314267</v>
+        <v>1.042061014328788</v>
       </c>
       <c r="F8">
-        <v>1.047806478108839</v>
+        <v>1.046705533872617</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054103517205833</v>
+        <v>1.053103225168556</v>
       </c>
       <c r="J8">
-        <v>1.048021469112996</v>
+        <v>1.046493942471737</v>
       </c>
       <c r="K8">
-        <v>1.049723326570079</v>
+        <v>1.047550070375779</v>
       </c>
       <c r="L8">
-        <v>1.054101912747746</v>
+        <v>1.052699860161379</v>
       </c>
       <c r="M8">
-        <v>1.058375596131111</v>
+        <v>1.057287939499639</v>
       </c>
       <c r="N8">
-        <v>1.019276533883343</v>
+        <v>1.019182006635747</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05477262079084</v>
+        <v>1.053911829615059</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046251620030521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04472593690289</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024476328675959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017396650862256</v>
+        <v>1.016369314751776</v>
       </c>
       <c r="D9">
-        <v>1.03251983765874</v>
+        <v>1.030936567328113</v>
       </c>
       <c r="E9">
-        <v>1.035179515963307</v>
+        <v>1.034252799284072</v>
       </c>
       <c r="F9">
-        <v>1.04024261856133</v>
+        <v>1.039524060959546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051371414285177</v>
+        <v>1.050708898500534</v>
       </c>
       <c r="J9">
-        <v>1.042349698708651</v>
+        <v>1.041356983594641</v>
       </c>
       <c r="K9">
-        <v>1.045106451233844</v>
+        <v>1.043546896814917</v>
       </c>
       <c r="L9">
-        <v>1.047726497632886</v>
+        <v>1.046813560550812</v>
       </c>
       <c r="M9">
-        <v>1.052714865944993</v>
+        <v>1.052006858380175</v>
       </c>
       <c r="N9">
-        <v>1.017248678977175</v>
+        <v>1.01774542372093</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050292605550305</v>
+        <v>1.049732272301791</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042984090036051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041892049870722</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023596994674615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010697641081231</v>
+        <v>1.010092811455736</v>
       </c>
       <c r="D10">
-        <v>1.028086527297706</v>
+        <v>1.026963131740272</v>
       </c>
       <c r="E10">
-        <v>1.029563844733108</v>
+        <v>1.029019154801141</v>
       </c>
       <c r="F10">
-        <v>1.035180932696133</v>
+        <v>1.034759930154714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049493293457842</v>
+        <v>1.049087219044968</v>
       </c>
       <c r="J10">
-        <v>1.038493160261925</v>
+        <v>1.037911636002044</v>
       </c>
       <c r="K10">
-        <v>1.041966535398263</v>
+        <v>1.04086204583741</v>
       </c>
       <c r="L10">
-        <v>1.043419071513606</v>
+        <v>1.04288350782974</v>
       </c>
       <c r="M10">
-        <v>1.048942766379243</v>
+        <v>1.048528718443684</v>
       </c>
       <c r="N10">
-        <v>1.015881360798502</v>
+        <v>1.016904749201316</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047358165567595</v>
+        <v>1.047030497397176</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04078068401084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040012083822572</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023008007576033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008561084747628</v>
+        <v>1.008116578386975</v>
       </c>
       <c r="D11">
-        <v>1.026792456217997</v>
+        <v>1.025828067374805</v>
       </c>
       <c r="E11">
-        <v>1.028095251654308</v>
+        <v>1.027695466896958</v>
       </c>
       <c r="F11">
-        <v>1.034220360485043</v>
+        <v>1.033912483089067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049140087392396</v>
+        <v>1.04882175480991</v>
       </c>
       <c r="J11">
-        <v>1.0375819991196</v>
+        <v>1.037155553497813</v>
       </c>
       <c r="K11">
-        <v>1.041226196124251</v>
+        <v>1.040278805422258</v>
       </c>
       <c r="L11">
-        <v>1.042506094344868</v>
+        <v>1.042113327983209</v>
       </c>
       <c r="M11">
-        <v>1.048524551762614</v>
+        <v>1.048221996159562</v>
       </c>
       <c r="N11">
-        <v>1.015666384702198</v>
+        <v>1.01700206763041</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047458932626388</v>
+        <v>1.047219614932438</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040289848766888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039635540460576</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022949421459635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008073325067286</v>
+        <v>1.007654711667696</v>
       </c>
       <c r="D12">
-        <v>1.02655347865455</v>
+        <v>1.025612466729109</v>
       </c>
       <c r="E12">
-        <v>1.027921099321169</v>
+        <v>1.027544901945769</v>
       </c>
       <c r="F12">
-        <v>1.034329911802987</v>
+        <v>1.034040179087516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049189433015302</v>
+        <v>1.048880052917417</v>
       </c>
       <c r="J12">
-        <v>1.03753989424291</v>
+        <v>1.03713860666578</v>
       </c>
       <c r="K12">
-        <v>1.041189044628955</v>
+        <v>1.04026489020119</v>
       </c>
       <c r="L12">
-        <v>1.042532236867616</v>
+        <v>1.04216275070855</v>
       </c>
       <c r="M12">
-        <v>1.048827690451066</v>
+        <v>1.048543043218839</v>
       </c>
       <c r="N12">
-        <v>1.015737382170455</v>
+        <v>1.017158750019132</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048022000991916</v>
+        <v>1.047796923372323</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040263581808201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039625702267732</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022996524027476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008840720652592</v>
+        <v>1.008329949408953</v>
       </c>
       <c r="D13">
-        <v>1.027130857661825</v>
+        <v>1.02609772000886</v>
       </c>
       <c r="E13">
-        <v>1.028750514012253</v>
+        <v>1.028291603374005</v>
       </c>
       <c r="F13">
-        <v>1.035295047637172</v>
+        <v>1.034940293418942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049568295425274</v>
+        <v>1.049199296415561</v>
       </c>
       <c r="J13">
-        <v>1.038184310477756</v>
+        <v>1.037694559389316</v>
       </c>
       <c r="K13">
-        <v>1.041713746797809</v>
+        <v>1.040699030492823</v>
       </c>
       <c r="L13">
-        <v>1.043304620503307</v>
+        <v>1.042853853144953</v>
       </c>
       <c r="M13">
-        <v>1.049734039971118</v>
+        <v>1.04938547732001</v>
       </c>
       <c r="N13">
-        <v>1.016043513729479</v>
+        <v>1.017340931964468</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049012914892183</v>
+        <v>1.048737365844912</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04063208408732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03992992673976</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023132961755705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009944700889615</v>
+        <v>1.009317383380095</v>
       </c>
       <c r="D14">
-        <v>1.02790488900639</v>
+        <v>1.026756414953671</v>
       </c>
       <c r="E14">
-        <v>1.029782746216747</v>
+        <v>1.029219059384188</v>
       </c>
       <c r="F14">
-        <v>1.036355131087873</v>
+        <v>1.035918328299931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049981879030338</v>
+        <v>1.049541328192452</v>
       </c>
       <c r="J14">
-        <v>1.03894461367954</v>
+        <v>1.038342728445985</v>
       </c>
       <c r="K14">
-        <v>1.042335377733224</v>
+        <v>1.041207120685403</v>
       </c>
       <c r="L14">
-        <v>1.044180304185248</v>
+        <v>1.043626486008698</v>
       </c>
       <c r="M14">
-        <v>1.050638648507231</v>
+        <v>1.050209366842708</v>
       </c>
       <c r="N14">
-        <v>1.016363750967633</v>
+        <v>1.017481565297552</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049899977148224</v>
+        <v>1.049560662478029</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041073005285626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040290704039957</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023269647368896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010495295467983</v>
+        <v>1.009814488597397</v>
       </c>
       <c r="D15">
-        <v>1.028280096997678</v>
+        <v>1.027078798357343</v>
       </c>
       <c r="E15">
-        <v>1.030265585177237</v>
+        <v>1.029653755166408</v>
       </c>
       <c r="F15">
-        <v>1.03681800317837</v>
+        <v>1.036343600797277</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050160709010845</v>
+        <v>1.049688274417443</v>
       </c>
       <c r="J15">
-        <v>1.039289394637656</v>
+        <v>1.038635942625679</v>
       </c>
       <c r="K15">
-        <v>1.042618618000961</v>
+        <v>1.041438303777434</v>
       </c>
       <c r="L15">
-        <v>1.044569562294476</v>
+        <v>1.043968358631416</v>
       </c>
       <c r="M15">
-        <v>1.051009192797642</v>
+        <v>1.050542894483321</v>
       </c>
       <c r="N15">
-        <v>1.016497427713293</v>
+        <v>1.017528077032795</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050230125535042</v>
+        <v>1.04986156157156</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04127908740326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040460549540994</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023325808842693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013181873218625</v>
+        <v>1.012273770075641</v>
       </c>
       <c r="D16">
-        <v>1.030044101782676</v>
+        <v>1.028615669753402</v>
       </c>
       <c r="E16">
-        <v>1.032488064477961</v>
+        <v>1.031671275467932</v>
       </c>
       <c r="F16">
-        <v>1.038804688715241</v>
+        <v>1.038170756308122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050895487345981</v>
+        <v>1.050291567608782</v>
       </c>
       <c r="J16">
-        <v>1.040806936976451</v>
+        <v>1.039933487036971</v>
       </c>
       <c r="K16">
-        <v>1.043856142891838</v>
+        <v>1.042451572106429</v>
       </c>
       <c r="L16">
-        <v>1.046259477528836</v>
+        <v>1.045456239116975</v>
       </c>
       <c r="M16">
-        <v>1.05247223320059</v>
+        <v>1.051848651639337</v>
       </c>
       <c r="N16">
-        <v>1.017020392584763</v>
+        <v>1.017668696175157</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051348095635828</v>
+        <v>1.050855200342576</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042157187468853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041180392803903</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023537920500998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014667242503971</v>
+        <v>1.013656855257426</v>
       </c>
       <c r="D17">
-        <v>1.030994889530777</v>
+        <v>1.029460726640925</v>
       </c>
       <c r="E17">
-        <v>1.033654198615504</v>
+        <v>1.032744901563034</v>
       </c>
       <c r="F17">
-        <v>1.039770081038452</v>
+        <v>1.039064360342695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051241238507199</v>
+        <v>1.05057926169765</v>
       </c>
       <c r="J17">
-        <v>1.041573218961087</v>
+        <v>1.040600151190479</v>
       </c>
       <c r="K17">
-        <v>1.044480447798871</v>
+        <v>1.042971195021162</v>
       </c>
       <c r="L17">
-        <v>1.047096802605389</v>
+        <v>1.046202160959749</v>
       </c>
       <c r="M17">
-        <v>1.053114966637945</v>
+        <v>1.052420446596043</v>
       </c>
       <c r="N17">
-        <v>1.017253921083913</v>
+        <v>1.017733164628573</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051728155277913</v>
+        <v>1.051179134342264</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042601152982578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041550593169448</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023631028397889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01523325432407</v>
+        <v>1.014206115452015</v>
       </c>
       <c r="D18">
-        <v>1.031307741955819</v>
+        <v>1.029753534440329</v>
       </c>
       <c r="E18">
-        <v>1.033978144787897</v>
+        <v>1.033053348879887</v>
       </c>
       <c r="F18">
-        <v>1.039886716236568</v>
+        <v>1.039169118005544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051265759100487</v>
+        <v>1.05059709918916</v>
       </c>
       <c r="J18">
-        <v>1.041732868166218</v>
+        <v>1.040742971076328</v>
       </c>
       <c r="K18">
-        <v>1.044607092979138</v>
+        <v>1.043077713797432</v>
       </c>
       <c r="L18">
-        <v>1.047235059574144</v>
+        <v>1.046324928086483</v>
       </c>
       <c r="M18">
-        <v>1.053050726438609</v>
+        <v>1.05234433942637</v>
       </c>
       <c r="N18">
-        <v>1.01724532153491</v>
+        <v>1.017687277827809</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051441886939496</v>
+        <v>1.050883370752456</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042679155991165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041613228891098</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023618127823074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014993711906625</v>
+        <v>1.014015110748928</v>
       </c>
       <c r="D19">
-        <v>1.031074796951308</v>
+        <v>1.02956835935746</v>
       </c>
       <c r="E19">
-        <v>1.033558219356579</v>
+        <v>1.032676769814432</v>
       </c>
       <c r="F19">
-        <v>1.039245513200381</v>
+        <v>1.038561747653581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051021139070849</v>
+        <v>1.050385383189257</v>
       </c>
       <c r="J19">
-        <v>1.041370611709768</v>
+        <v>1.040427306807303</v>
       </c>
       <c r="K19">
-        <v>1.044316076153282</v>
+        <v>1.042833588144578</v>
       </c>
       <c r="L19">
-        <v>1.046760211811221</v>
+        <v>1.045892678751787</v>
       </c>
       <c r="M19">
-        <v>1.052358438994579</v>
+        <v>1.051685315709948</v>
       </c>
       <c r="N19">
-        <v>1.017036515169974</v>
+        <v>1.017533197599225</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050572358337797</v>
+        <v>1.050039972285803</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042479743446964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041447597154747</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023518932365178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01247722044654</v>
+        <v>1.011729247550797</v>
       </c>
       <c r="D20">
-        <v>1.029282528516358</v>
+        <v>1.028013312548221</v>
       </c>
       <c r="E20">
-        <v>1.031057546045353</v>
+        <v>1.030383665259264</v>
       </c>
       <c r="F20">
-        <v>1.036524783331893</v>
+        <v>1.036002853678056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050012543785498</v>
+        <v>1.049521047836323</v>
       </c>
       <c r="J20">
-        <v>1.039535496852038</v>
+        <v>1.038815395616733</v>
       </c>
       <c r="K20">
-        <v>1.042829307207123</v>
+        <v>1.041580839545027</v>
       </c>
       <c r="L20">
-        <v>1.044575417962967</v>
+        <v>1.043912496491362</v>
       </c>
       <c r="M20">
-        <v>1.049954417240242</v>
+        <v>1.049440859650577</v>
       </c>
       <c r="N20">
-        <v>1.016259023675459</v>
+        <v>1.017061013383597</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048148334796632</v>
+        <v>1.047741912243663</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041432452801337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040566159740953</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023169624992667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007283425217117</v>
+        <v>1.007014170403268</v>
       </c>
       <c r="D21">
-        <v>1.025830426079401</v>
+        <v>1.025036679023823</v>
       </c>
       <c r="E21">
-        <v>1.026654765136914</v>
+        <v>1.02641241553779</v>
       </c>
       <c r="F21">
-        <v>1.032490204328919</v>
+        <v>1.032306201854683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048493863226832</v>
+        <v>1.048286456405248</v>
       </c>
       <c r="J21">
-        <v>1.036479754433749</v>
+        <v>1.036221531333714</v>
       </c>
       <c r="K21">
-        <v>1.04033841860084</v>
+        <v>1.039558757056717</v>
       </c>
       <c r="L21">
-        <v>1.041148159177509</v>
+        <v>1.040910098267408</v>
       </c>
       <c r="M21">
-        <v>1.046881119855547</v>
+        <v>1.046700325815856</v>
       </c>
       <c r="N21">
-        <v>1.015154875853673</v>
+        <v>1.01675627731378</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045675633934409</v>
+        <v>1.045532548577747</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039674537831609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03914003597909</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022724819223966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003982602523822</v>
+        <v>1.004019131692239</v>
       </c>
       <c r="D22">
-        <v>1.023641157333781</v>
+        <v>1.023151177686931</v>
       </c>
       <c r="E22">
-        <v>1.023883011832923</v>
+        <v>1.023915802957051</v>
       </c>
       <c r="F22">
-        <v>1.029977088447657</v>
+        <v>1.030009209147572</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047529500276225</v>
+        <v>1.047504083469352</v>
       </c>
       <c r="J22">
-        <v>1.034548984837314</v>
+        <v>1.034583928894447</v>
       </c>
       <c r="K22">
-        <v>1.038758389270028</v>
+        <v>1.03827754579129</v>
       </c>
       <c r="L22">
-        <v>1.038995738351853</v>
+        <v>1.039027918836123</v>
       </c>
       <c r="M22">
-        <v>1.04497720018486</v>
+        <v>1.045008731911867</v>
       </c>
       <c r="N22">
-        <v>1.014459802259706</v>
+        <v>1.016562000314243</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044168818339078</v>
+        <v>1.044193773460261</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038543985961912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038219461806237</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022442952093691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005724336640629</v>
+        <v>1.005582864706055</v>
       </c>
       <c r="D23">
-        <v>1.02478870906451</v>
+        <v>1.024125103764629</v>
       </c>
       <c r="E23">
-        <v>1.02534389330621</v>
+        <v>1.025216574188774</v>
       </c>
       <c r="F23">
-        <v>1.031302949300689</v>
+        <v>1.031209121157256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048033222525563</v>
+        <v>1.047902328363966</v>
       </c>
       <c r="J23">
-        <v>1.035562396555473</v>
+        <v>1.035426880973519</v>
       </c>
       <c r="K23">
-        <v>1.039582764114757</v>
+        <v>1.03893121492172</v>
       </c>
       <c r="L23">
-        <v>1.04012787759261</v>
+        <v>1.04000286672645</v>
       </c>
       <c r="M23">
-        <v>1.045979725827497</v>
+        <v>1.045887573254197</v>
       </c>
       <c r="N23">
-        <v>1.014821872562908</v>
+        <v>1.016614569520285</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04496224572569</v>
+        <v>1.0448893135868</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039117270503162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038671107714018</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022582789688012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012460873914804</v>
+        <v>1.011718368515583</v>
       </c>
       <c r="D24">
-        <v>1.029250662942106</v>
+        <v>1.027986532030182</v>
       </c>
       <c r="E24">
-        <v>1.031011727993564</v>
+        <v>1.030342730244746</v>
       </c>
       <c r="F24">
-        <v>1.036449755984683</v>
+        <v>1.035931651152316</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I24">
-        <v>1.04997554451875</v>
+        <v>1.04948793963636</v>
       </c>
       <c r="J24">
-        <v>1.039487548942569</v>
+        <v>1.038772673784848</v>
       </c>
       <c r="K24">
-        <v>1.042782864269049</v>
+        <v>1.041539373623171</v>
       </c>
       <c r="L24">
-        <v>1.044515283651206</v>
+        <v>1.043857153074704</v>
       </c>
       <c r="M24">
-        <v>1.049865643978773</v>
+        <v>1.049355840756292</v>
       </c>
       <c r="N24">
-        <v>1.016228298534286</v>
+        <v>1.017035600806092</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048037664082407</v>
+        <v>1.047634193065197</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041372413686895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040506963189865</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023151406808504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019996975040924</v>
+        <v>1.018810114048654</v>
       </c>
       <c r="D25">
-        <v>1.034264088574255</v>
+        <v>1.032505367976953</v>
       </c>
       <c r="E25">
-        <v>1.037383099968152</v>
+        <v>1.036311834559462</v>
       </c>
       <c r="F25">
-        <v>1.042245996212692</v>
+        <v>1.041415033522365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052114892980643</v>
+        <v>1.051354379895717</v>
       </c>
       <c r="J25">
-        <v>1.043869606210313</v>
+        <v>1.042720611753622</v>
       </c>
       <c r="K25">
-        <v>1.046352804223808</v>
+        <v>1.044619197975509</v>
       </c>
       <c r="L25">
-        <v>1.049427541203822</v>
+        <v>1.04837144442804</v>
       </c>
       <c r="M25">
-        <v>1.054222075998447</v>
+        <v>1.053402737678169</v>
       </c>
       <c r="N25">
-        <v>1.017796762663744</v>
+        <v>1.018098720801647</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051485444379857</v>
+        <v>1.050837002442211</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043893663922706</v>
+        <v>1.042681369764371</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023836926842677</v>
       </c>
     </row>
   </sheetData>
